--- a/output/Total_time_range_data/海南省/儋州市_学习考察.xlsx
+++ b/output/Total_time_range_data/海南省/儋州市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,4510 +436,4935 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>225</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>我市经贸考察团在粤学习考察张耕率团</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2015-05-21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201505/t20150521_1778372.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['据《今日儋州》消息 5月19日至20日，市委副书记、市长张耕率我市经贸考察团先后到广东省广州市、深圳市开展经贸交流与合作学习考察活动，宣传推介儋州投资发展环境，洽谈投资合作项目。 市委常委、统战部部长唐龙海，市人大常委会副主任林明忠，市政府秘书长肖发宣参加考察。 广东广物房地产开发有限公司是一家致力于房地产开发的大型混合所有制股份企业，目前在儋州建设光村雪茄风情小镇项目。 19日上午，考察团在该公司总部考察时详细了解了公司情况。张耕说，广物地产参与雪茄风情文化的打造与建设，再一次践行了广物地产公司“每到一座城市，奉献一座品质地标”的品牌价值，光村雪茄风情小镇的打造，不仅可以充分发挥雪茄文化的优势，以文化带动旅游，用旅游创造新价值，同时也将把儋州的旅游文化建设推上了一个新高度。希望广物地产公司进一步明确建设方向和工作思路，充分发挥企业的主导作用，进一步整合项目，优化配置资源，提升产业内涵，以产业支撑风情小镇建设，带动地方经济发展和农民增收，实现可持续发展。市相关部门大力支持雪茄风情小镇建设，千方百计帮助解决项目推进建设中存在的困难和问题，特别是在水、电、气等基础设施建设和土地供应上要重点给予扶持，凝聚合力，为加快项目建设进度，推动儋州发展作出新贡献。 随后，考察团一行还考察了香港豪德集团、香港东方宏基集团有限公司、广州市大誉瑞兴资产管理有限公司、深圳市立航货运有限公司、广州智慧谷艺术建材科技有限公司等企业。张耕说，作为海南西部中心城市，儋州与洋浦经济开发区融为一体，境内公路铁路贯通，港口航运连接四海，投资开发面向东南亚，区位优势明显，是海南西部地区的交通枢纽，特别是海南西环高铁、海南西部机场、“田”字型高速公路等省重大基础设施项目或在建，或将开工建设，这都为儋州构建完善的“海陆空”交通奠定了坚实基础，也为儋州发展产业提供了良好条件。近年来，儋州加大招商引资力度，大抓项目、抓大项目，引进了一批大企业、大项目，通过项目建设带动经济社会跨越发展，促进了全市产业升级，也为企业投资儋州提供了绝佳的发展机遇。真诚希望各企业把目光聚焦儋州，尽早到儋州考察、投资、兴业，共同携手开创互惠双赢的美好未来。市委、市政府将积极协调有关部门，为企业发展提供一流的政策和服务环境，助力企业发展壮大。 在粤考察期间，考察团还与广州市、深圳市儋州籍企业家座谈，祝愿儋州籍企业家在外发展得越来越好的同时，把握发展良机，把先进的思想理念和管理经验、成熟的科学技术和优秀团队带回儋州，在儋州投资置业发展，共同见证儋州科学发展快速崛起。（特派记者韦雪梅 编辑范志平）']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>225</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>张耕率考察团在苏沪学习考察配组图</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2015-09-11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201509/t20150911_1779279.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息 9月9日至10日，市委副书记、市长张耕率我市考察团在江苏省无锡市进行学习考察。 学习考察期间，张耕一行先后参观考察了无锡新区展示中心、无锡城市云计算中心、感知中国博览园、无锡城市规划馆等。 无锡地处江苏南部、太湖之滨，被誉为“太湖明珠”。作为无锡市重要的经济增长极，近年来，无锡新区加快转型升级。目前已成为该市重要的对外窗口、科技创新基地、转型发展引擎，是集科技、文化、产业等若干功能为一体的高新区，其综合实力和创新能力在全国各类国家级高新区名列前列。 在无锡新区展示中心，一项项令人瞩目的成绩，一个个特色鲜明的功能区，一幅幅气势恢弘的画卷，通过现代化的展示手段，生动地再现了无锡新区的发展和变化，给考察团成员留下了深刻印象。 城市规划是此次考察的另一个重点。近年来，无锡市在环太湖生态景观带、蠡湖生态景观带的基础上，着力打造“一核双环、三轴四楔、多片多园、绿廊水网”的市区绿地系统结构，形成了以绝佳山水组合和丰富自然岸线风光为特色的梅梁湖景。同时，该市着力发展老城商贸和提升新城承载功能，建设了城市综合体、老城商贸区、蠡湖新城、锡东新城和太湖新城，有力地推动了产城融合发展，城市发展呈现勃勃生机。在无锡城市规划馆参观，考察团成员无不被该市城市建设取得的成就与高标准、高水平的规划蓝图所折服。 张耕认为，无锡立足地域优势，前瞻地从“运河时代”走向“太湖时代”，把高新技术产业与城市新区发展向滨湖地区布局，做足水文章，并形成了山水风光、生态绿地与人文景观交相辉映的城市特色。同时，无锡在产业转型发展、生态环境保护、园区建设及创新管理等方面的成功做法和经验值得儋州学习借鉴。特别是无锡科学发展的思路、干事创业的魄力、高远宽广的眼界、务实苦干的作风，更值得儋州干部认真学习。 张耕强调，儋州要建设文化旅游城市，必须利用自身拥有的自然资源优势，做好山水文章，着力打造美丽人文儋州，才能充分彰显文化旅游城市的特色。他希望考察组成员以此次学习考察为契机，认真学习、认真思考，学习借鉴无锡在推进特色园区建设和城市规划等方面的先进理念和做法，结合实际，切实把学习成果转化为加快推进儋州科学发展、转型发展的自觉行动和生动实践，共筑儋州发展新辉煌。 无锡市副市长王进建一同学习考察。 又讯 9月10日，由市委副书记、市长张耕率领我市考察团继续苏沪考察之行。当天，考察团在上海考察了红星美凯龙集团总部，并实地参观了红星美凯龙家居展示馆和红星美凯龙2050年生活体验馆，并就加快推进儋州红星美凯龙商贸综合体项目落地建设进行座谈。 据了解，红星美凯龙是中国家居行业第一大品牌。该集团公司连续三年跻身中国民营企业500强前30位，已在全国110多个城市开办了180多家商场。近年来先后获得“中国最具竞争力100家名牌”、“中国最具竞争力民营企业50强"、“中国连锁经营企业50强”、“中国诚信企业”、“全国诚信建设示范单位”、“中国质量万里行突出成就奖”、“中国绿色生态家居示范商场”等荣誉称号。 座谈时张耕说，近年来，儋州坚持把加快建设海南西部中心城市，推动“一市双城三大功能区”作为统筹推动区域发展战略的重要内容，城市品位不断提升，城市环境日益改善。红星美凯龙集团经营理念新、网络布局广、产品高端化，符合低碳生态环保的要求，体现了“城市让人民生活更美好、文明让城市更加美丽”的理念，这与儋州的发展战略和城市布局不谋而合。 在谈及如何加快推进儋州红星美凯龙商贸综合体项目落地建设时，张耕强调，建设城市综合体，加快城市发展，必须进一步解放思想、提升理念，着眼满足群众日益增长的消费需求。希望红星美凯龙集团进一步加快项目运作实施力度，全力以赴确保项目落户儋州，尽早开工建设。他要求市直相关部门要主动沟通、积极对接，大力配合，千方百计确保项目落地，实现合作共赢。 红星美凯龙集团开发部总经理张浩在简要介绍集团的经营理念、经营规模、管理模式等情况后表示，张耕市长亲自带领相关部门一把手到企业实地考察、解决问题，充分体现了儋州市委市政府对项目的重视和高效务实的工作作风，也坚定了红星美凯龙集团与儋州合作项目的信心，集团将加快在儋州落地项目的速度，尽早开工建设。同时也希望与儋州在更多领域开展合作，实现共赢。（记者李秋欢 编辑范志平）', '9月9日至10日，我市考察团到江苏省无锡市进行学习考察，并与该市党政班子领导座谈。图为市委副书记、市长张耕与无锡市委副书记、市长汪泉在交谈。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>225</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>我市考察团赴无锡学习考察张耕参加座谈</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2015-09-10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201509/t20150910_1779274.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息 9月9日至10日，我市组成考察团飞赴江苏省无锡市进行学习考察，并与该市党政班子举行座谈，就进一步推进两地今后加强合作、促进经济社会发展进行深入交流。 市委副书记、市长张耕，市政府秘书长肖发宣参加座谈。 无锡市委副书记、市长汪泉，副市长王进建，市政府秘书长叶勤良出席座谈会。 座谈时，汪泉代表无锡市委、市政府对儋州考察团一行的到来表示欢迎。随后简要介绍了无锡市的经济社会发展情况。 据了解，无锡是中国吴文化、中国民族工商业和中国乡镇企业的发祥地。近年来，该市把全面建设小康社会作为经济社会发展的主旋律，以建设国家创新型城市、社会主义现代化新农村和国家生态园林城市为目标，以加强党的建设为保障，大力开展“科教兴市、人才强市”促进年活动，全面推广“昆山、华西、尚德”经验，加快推动经济社会发展模式创新，着力落实建设“富裕无锡”、打造“文化名城”、调整经济结构、优化考评指标四项任务，经济社会发展连年跃上新台阶，先后荣获“中国优秀旅游城市”、“全国环保模范城市”、“国家园林城市”、“全国科教兴市先进城市”、“创建全国文明城市工作先进城市”、“中国十大最具经济活力城市”等称号。 在听取无锡市的情况介绍后，张耕代表市委、市政府和考察团对无锡市委、市政府热情周到的安排表示感谢。在简要介绍儋州的投资环境以及近年来经济社会发展情况，他说，近年来，无锡市深入贯彻科学发展观，从实际出发，改革创新，开拓进取，推动经济社会实现了又好又快发展，成绩巨大，令人振奋。无锡的发展思路新、起点高、气魄大、成效显著，特别是在开展“大拆违”、“大建设”提升城市形象；大力实施“工业立市”战略增强工业经济实力；多举措推进园区经济发展等方面的做法和经验，值得儋州学习借鉴。 张耕表示，此次儋州组团来无锡学习考察，不仅看到了与无锡等先进发达地区的差距，也开阔了眼界和视野，增强了发展的危机感、紧迫感。儋州与无锡都是历史悠久的城市，特点类似、条件相近，积极推进两地交流合作意义深远。我们热切希望两地以此为新起点，进一步增进了解、深化友谊、扩大合作，携手迈向新高度。同时也真诚地希望无锡的市民和企业，能到儋州看一看、走一走，给儋州传经送宝、共叙友谊，与儋州共谋合作、共图发展。 市政府办、发改委、工信局等部门负责人参加了座谈会。（记者李秋欢 编辑范志平）']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>225</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>邓泽永率市政协考察团赴琼海考察学习配组图</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2016-05-17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201605/t20160518_1781487.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['邓泽永率市政协考察团赴琼海考察学习（配组图） -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 5月16日，由市政协党组书记、主席邓泽永率领的市政协考察团一行到琼海，考察学习琼海美丽乡村和风情小镇建设情况。通过考察，考察团成员一致表示要认真学习借鉴琼海的先进经验和做法，积极为推进儋州美丽乡村和风情小镇建设献言献策，努力探索出适合美丽与生态并行的乡村发展道路。 市政协党组副书记、副主席王应才，市政协党组成员、副主席陈星影，市政协副主席谢群峰及市政协副秘书长谢盛江一同考察。 当天，考察团先后考察了琼海市万泉水乡风情小镇、会山黎苗风情小镇、嘉积镇北仍村、会山镇加脑村的美丽乡村建设。每到一处，考察团成员都认真了解琼海在风情小镇建设和美丽乡村建设中的做法和经验，并就如何结合地方特色资源和特色文化，因地制宜打造特色风情小镇、推进美丽乡村建设与琼海市相关领导深入交流。 邓泽永在考察时表示，在打造特色风情小镇、推进美丽乡村建设工作中，琼海坚持“不砍树、不拆房、不占田，就地城镇化”原则，在定位规划、资源整合、完善基础设施建设、打造乡村特色等方面的做法令人印象深刻。同时该市因地制宜，结合生态环境资源、业态资源和地方文化特色，从宜业、宜居、宜游、宜文的战略高度，高起点高品位规划建设风情小镇和美丽乡村，创建出各具特色风情小镇和美丽乡村的做法经验，值得儋州学习借鉴。他要求参加考察的政协委员要学习借鉴琼海的经验做法，集思广益，为儋州打造风情小镇和推进美丽乡村建设出谋划策，为探索出适合儋州的乡村发展道路贡献力量。 当天，考察组还参观考察了琼海镇博鳌机场。 琼海市政协党组副书记、主席符平陪同考察。（记者李绍远 编辑何焕翠）', '5月16日，市政协党组书记、主席邓泽永率领市政协考察团到琼海市考察。图为考察团成员在万泉水乡风情小镇考察时的情形。', '市政协党组书记、主席邓泽永在万泉水乡风情小镇考察时向有关人员了解情况。 图片由记者 李绍远 摄']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>225</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>外出考察学习真本领谋产业扶贫新路径和庆镇赴定安县龙湖镇考察学习扶贫产业</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2019-07-07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/xz/hqz/gkml/201907/t20190707_2625426.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['外出考察学习真本领 谋产业扶贫新路径——和庆镇赴定安县龙湖镇考察学习扶贫产业 -- 儋州市人民政府网', '标题：外出考察学习真本领 谋产业扶贫新路径——和庆镇赴定安县龙湖镇考察学习扶贫产业', '日，市人大常委会副主任王安仍、王建斌带领我镇人大代表、驻村工作队等三十余人，赴定安县龙湖镇考察学习沉香产业和食用菌产业。', '察学习组成员首先到达定安县文笔峰脚下的香岛沉香种植基地。在基地现场，考察学习组成员认真学习了解沉香的品种特质、结香技术、管理方法、市场需求等内容，探讨沉香产业在和庆落户发展的可行性。紧接着考察学习组到达海南沉香博物馆参观学习沉香文化发展史，直观深入了解沉香文化价值与市场需求。沉香作为海南珍贵乡土树种，浑身是宝，是珍贵的中药材和香料，具有良好的市场价值。', '随后，学习考察组到达龙湖南科食用菌有限公司生产基地，学习以食用菌为纽带的循环生态农业发展模式。', '此次考察学习，让和庆镇人大代表、驻村工作队进一步开拓了视野，坚定了和庆镇产业发展的信心。镇人大代表纷纷表示将进一步深入结合实际情况探索产业发展方向，积极参与扶贫产业发展，积极推进村级产业扶贫项目建设，组织有条件的代表通过“企业']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>225</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>我市考察团赴屯昌考察学习配组图</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2017-04-27</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201704/t20170427_1785146.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息 4月24日，市人大常委会副主任王安仍率领我市考察团一行19人到屯昌县，对该县推进全县域生态循环农业建设情况进行考察学习。 近年来，屯昌县结合本地实际，确定全县域生态循环农业发展战略，以坚持政府引导、市场运行为主，通过政策扶持、创新服务、完善机制等手段，把生态循环农业建设与促进农业转型升级、美丽乡村建设结合起来。据介绍，去年以来，该县在生态循环农业建设上共实施8大板块28类项目，计划总投资4.523亿元。在建设过程中，科学规划规模以上的畜禽养殖场和林下养殖小区，对其进行沼气、沼液再利用改造，通过铺设管网，通过将沼气、沼液输送到田洋和农业种植基地的模式，实现种植业与畜牧业之间的资源循环利用。同时，屯昌县还以全县为整体，统筹规划农业生产布局、沼液配送、有机肥厂建设、农业生产废弃物回收处置、病死畜禽无害化处理、秸秆还田、测土配方及地力提升、沼气沼液技术服务及运输队伍建设、生态循环农业技术标准制定及产品认证，实现生态农业大循环，使得资源利用更合理、农业更具效益、农产品质量更高、生态环境保护更完善、农业发展更具可持续性。 当天，在屯昌县人大常委会主任王明精，县政协主席陈海翔，县委副书记、政法委书记周敬文，副县长莫靡、王宏向的陪同下，考察团一行先后到罗牛山种猪育种场项目，枫林洋水肥一体化、废弃物收集及利用项目，猪哈哈农业公园示范园区，新兴镇坡陈村，天之虹生态农牧有限公司等地,就这些项目的建设、运营等情况进行考察学习，并详细了解屯昌县在生态循环农业上的规划建设、政策机制保障、人才队伍建设等方面的经验和做法。 新兴镇坡陈村风景秀丽，加上此地民间武术文化浓郁，上至八九十岁老人，下至六七岁孩童，均可打出一套漂亮的武术套路，因而被打造为以武术文化主题的美丽乡村。在考察中，该村不断加大基础设施资金投入力度，着力消除生活污水污染问题，不断发掘保护历史文化遗迹等方面的好做法给大家留下了深刻的印象。 在座谈会上，双方成员就考察中的所思所感进行了深入交流，王安仍指出，推进生态循环农业建设，折射出的是转变农业发展方式，提升农产品质量，保障产品质量安全、保护生态环境、促进农民增收的发展新理念，也是农业可持续发展的重要举措。屯昌县在全县域生态循环农业的规划设计、政策支持及机制保障的做法值得学习借鉴。回去以后，希望各相关部门结合儋州实际，借鉴屯昌县在推进生态循环农业中好的做法和有益经验，切实解决一些实际问题，推动我市农业调结构、转方式、塑品牌，努力打造儋州王牌农业。 市府办、市农委、环保局、住建局、国土局、畜牧兽医局等相关部门及中国热科院、部分乡镇及企业负责人一同考察学习。（记者陈永强 编辑王霞）', '4月24日，市人大常委会副主任王安仍率领我市考察团到屯昌县考察学习。图为考察团在听取猪哈哈农业公园示范园区的项目建设、运营等情况介绍。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>225</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>儋州考察团到东方市考察学习何先英率队</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-07-13</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202207/t20220714_3229494.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['儋州市融媒体中心消息 7月8日至9日，由市委副书记、政法委书记何先英率领的儋州考察团到东方市，考察学习该市推进乡村振兴和“三农”工作的好经验好做法，进一步深化合作交流，推进两市经济社会高质量发展，共同助力海南自贸港建设。', '7月8日至9日，由市委副书记、政法委书记何先英率领的儋州考察团到东方市，考察学习该市推进乡村振兴和“三农”工作的好经验好做法，进一步深化合作交流，推进两市经济社会高质量发展，共同助力海南自贸港建设。', '儋州考察团一行先后到三家镇乐安村燕窝果基地、鳄珍鳄鱼产业园、大田镇乐妹村兰花产业基地、七七农场、海南晨海水产有限公司、海南上彩现代农业有限公司、板桥镇花梨谷文化旅游区等地，通过实地参观、听取介绍等方式，考察东方在乡村振兴和农业产业化发展等方面的好经验好做法。', '儋州考察团一行充分肯定东方在特色产业发展、劳务输出、标准化农业、乡村振兴、农业产业化发展等方面取得的成效，认为东方在乡村振兴、热带特色高效农业发展等方面起点高、思路清、力度大、成效显著，做法、经验值得学习借鉴，为儋州“三农”工作和乡村振兴提供了新思路、新经验。考察团成员表示，此次考察学习受益匪浅，今后将立足儋州实际，打准方向、重点，以更高站位、更宽视野、更大力度推动农业产业和乡村振兴工作实现高质量发展。以此次考察学习为契机，在比较中反思、在借鉴中奋进，把东方的好经验好做法运用到实际工作中，推动儋州经济社会高质量发展。（儋州融媒全媒体记者黎有科 编辑温子烨）']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>225</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>澄迈人大常委会考察组考察学习我市美丽乡村建设及基层人大代表工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2013-09-29</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201309/t20130929_1771076.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['澄迈人大常委会考察组考察学习我市 “美丽乡村”建设及基层人大代表工作 -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 9月26日至27日，澄迈县人大常委会主任陈平辉率该县人大常委会考察组到我市，考察我市“美丽乡村”建设、城乡规划建设及基层人大代表工作等。 市人大常委会副主任朱玉娥、林明忠陪同考察。 当天，考察组先后到我市木棠镇铁匠村、市保障性住房项目——怡心花园小区及中兴大街西延线等地考察。在铁匠村，考察组实地察看了铁匠村村史馆、农业110科技室、文化室、村委会办公场所及花梨木加工小作坊，详细了解铁匠村从昔日落后的贫穷村庄变成如今富裕的文明生态村后，对铁匠村的巨大变迁表示赞叹，尤其是为使该村的花梨木工艺能手插上致富的翅膀，该村党支部安排工艺能手与海南大学艺术学院教授对接，学习工艺品设计、市场营销等技艺，并组织村民飞赴菲律宾巴厘岛的木雕村、银器村学习工艺品雕刻。 考察组认为，铁匠村的小作坊经验非常值得学习，回去后将结合澄迈县实际，借鉴和推广铁匠村的经验和做法，谋求新发展。 随后，在听取市保障性住房项目——怡心花园小区、中兴大街西延线和基层人大代表工作等有关情况介绍后，考察组对我市近几年在城乡规划建设和人大代表工作等方面取得的成就非常赞赏，大家表示将借鉴我市的成功经验和做法，为澄迈县的城乡规划建设和人大代表工作提供参考，同时也希望澄迈县和儋州市两地之间要多多加强交流合作，促进共同繁荣发展。（记者李国妹 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>225</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>白马井镇开展外出考察学习活动</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019-04-18</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/xz/bmjz/gkml/201904/t20190418_2533834.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['为更好落实《白马井镇乡村振兴“三抓三提高”实施方案》，响应市委关于争做护胡松式党支部书记有关要求，进一步加强农村党组织带头人队伍建设，提升村（社区）支部的凝聚力、战斗力，发挥支部和党员的模范带头作用。4月18日上午，白马井镇开展外出考察学习活动，由镇党委组织委员陈琦带队到那大镇石屋村、大成镇新风村参观学习。', '在大成镇新风村，镇包点领导、村（社区）党支部和乡村振兴工作队的成员认真查看党建、扶贫等相关台账资料，了解新风村支部抓党建和扶贫工作情况。走访了竹狸养殖基地、扶贫车间，以及特色民宿，并实地查看村庄环境卫生整治和污水管网改造情况，详细了解带动贫困户和普通群众就业情况。', '在那大镇石屋村，镇包点领导、村（社区）党支部和乡村振兴工作队的成员参观村官精神纪念馆、吴仁宝纪念馆，实地查看了稻虾共育养殖基地，观看了《石屋大队》记录片。镇党委组织委员陈琦以《中国共产党支部工作条例（试行）》为题，为大家讲了一堂党课，并在石屋村广场开展重温入党誓词活动。', '活动结束后，镇党委组织委员陈琦要求，各村（社区）支部书记要立足村（社区）的实际情况，认真领悟《白马井镇乡村振兴“三抓三提高”实施方案》精神，学习和借鉴那大镇石屋村、大成镇新风村抓党建和扶贫等先进经验，推进方案和支部建设工作贯彻落实，充分发挥支部战斗堡垒作用。', '镇包点领导、村（社区）党支部书记和乡村振兴工作队参观新风村村庄环境卫生整治和污水管网改造情况。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>225</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>一创两建进行时五指山政协考察团抵儋考察学习儋州一创两建经验</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2019-06-12</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201906/t20190613_2594032.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['[“一创两建”进行时] 五指山政协考察团抵儋 考察学习儋州“一创两建”经验 -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 6月12日上午，由五指山市政协副主席黄石卿率领的政协考察团抵儋，考察学习我市“一创两建” 工作经验和做法，为推动五指山“双创”工作“取经”。', '座谈会上，与会人员一同观看了《儋州市创建国家卫生城市专题汇报片》。考察组成员对我市创建国家卫生城市取得的成果交口称赞，对我市一次性顺利通过国家暗访和技术评估高度评价。侯启江及市“一创两建”工作指挥部相关人员从机构建设、宣传氛围、资金投入、机构组建、措施落实、督促督导、建立长效机制等方面详细介绍我市“一创两建”工作开展情况。', '当天，考察团还到我市农贸市场、建筑工地、城北社区等实地考察。考察团一致认为，我市在开展“一创两建”中加强组织领导、广泛宣传鼓动、逐级落实责任等一系列做法和经验，值得五指山市认真学习和充分借鉴。五指山市将对照我市，寻找差距，不断改进，推动五指山市“双创”工作不断前进。希望双方能进一步加强沟通学习和交流，共同提升两地文明程度指数。（记者李秋欢 通讯员尹孙琳 编辑符丽曼）']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>225</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>三亚市崖州区人大常委会考察组到儋考察加强两地交流学习携手合作共同发展</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2020-11-16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202011/t20201116_2886366.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['三亚市崖州区人大常委会考察组到儋考察 加强两地交流学习 携手合作共同发展 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 11月12日下午，三亚市崖州区人大常委会考察组到儋州学习考察，学习我市开展生态环境保护和人居环境综合治理等方面的做法和经验。', '考察组实地考察了儋州市生活垃圾焚烧发电厂，听取发电厂负责人对发电厂规划及园区项目情况汇报，详细了解生活垃圾变废为宝的资源化利用、废弃物具体处理机制、项目建设等相关情况。', '考察组一行还到那大镇屋基村，实地参观了屋基村符南进将军纪念馆、中国农业公园乡愁纪念馆及鹭鸶湿地生态馆，了解各馆建设情况并观看屋基村视频介绍，了解屋基村历史文化及基础设施建设情况。', '考察组表示，儋州在开展生态环境保护及人居环境综合治理等方面给了崖州区很多启发，为开展下一步工作提供了很好的经验，儋州的经验做法值得学习。希望两地进一步加强交流，在更高层次、更宽领域拓展更多合作空间，在高质量、跨越式发展的道路上携手并进。（儋州融媒全媒体记者韦斌 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>225</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>考察归来话发展谢雄峰把学习考察成果及时转化为加快发展的动力配图</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2010-08-30</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201008/t20100831_1753464.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['[考察归来话发展]谢雄峰：把学习考察成果及时转化为加快发展的动力（配图） -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 “各级领导干部要认真反思，找出差距，坚定信心，强化责任，做解放思想的推动者、真抓实干的开拓者和科学发展的实践者，切实把学习考察的成果及时转化为加快发展的决心和动力，共同谱写儋州美好的明天。”8月26日，市委常委、宣传部长谢雄峰在我市党政考察团赴广东学习考察总结座谈会上发言时畅谈了感受。 谢雄峰说，广东考察是学习之旅、交流之旅、收获之旅。通过看、听、思、议，总体感受这些地区的发展主要是思想大解放，观念是关键，突破在理念，目标靠实现，方法可借鉴。通过学习考察，各级领导干部要学习借鉴广东的先进理念，学习他们解放思想的胆魄和勇气，学习他们宽广的发展视野。 谢雄峰认为，一要进一步解放思想。各级领导干部要全方位解放思想，从思想到观念，从发展理念到工作办法，从工作态度到精神状态必须做出新的转变或新的尝试。只要符合发展要求、发展实际的就要大胆闯大胆试。宣传部门要继续做好“解放思想，加快发展”专题的学习安排，通过学习讨论，在全市迅速掀起进一步解放思想，加快儋州发展新高潮；新闻媒体要充分发挥舆论导向作用，形成解放思想、真抓实干的良好氛围。 二要加快经济发展方式转变。除了要抓住国家旅游岛建设上升为国家战略、西部地区大开发和省委把儋州建设成为海南西部中心城市的历史机遇外，还要抓住全国加快经济发展方式转变这一机遇，认真学习研究“八个主要内容”，即加快推进经济结构调整、加快推进产业结构调整、加快推进自主创新、加快推进农业发展方式转变、加快推进生态文明建设、加快推进经济社会协调发展、加快发展文化产业、加快推进对外经济发展方式转变，制定加快儋州经济发展的具体办法措施，加以实施。 三要大力发展文化产业。既要突出景区景点的开发、打造，又要注重文化内涵的挖掘，把观光旅游与文化旅游、休闲度假旅游、养生养老旅游和旅游地产、酒店、商务会展等有机结合起来，实现深度开发，形成大的市场，打造出特色品牌。要学习借鉴增城实施全区域公园化战略，实施“水边、路边、村边”三边整治和“原生态、原居民、原民俗、原产权”的“四原保护”发展生态旅游的成功经验，探索出一条符合儋州实际的以旅游业发展促进解决“三农”问题、统筹城乡发展、提升城市综合竞争力的新路子。 四要服务企业发展。继续抓好招商引资和21个重点项目建设，要有针对性地破解工业企业发展难题，更加积极主动地发展低碳经济，不断延伸产业链，壮大工业经济，要继续抓好服务平台建设，注重营造良好发展环境，实现儋州跨越式发展。（记者朱建花 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>225</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>市人大常委会考察组赴海口三亚琼海等市县学习考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2017-03-21</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201703/t20170321_1785003.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['市人大常委会考察组 赴海口三亚琼海等市县学习考察 -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 3月14日至16日，市人大常委会党组副书记、副主任吴勇率市人大常委会考察组赴海口、三亚、琼海等地，学习考察各市县人大常委会机关建设、“双创”、“双修双城”、美丽乡村建设等工作的先进经验。 在三天的考察时间里，考察组先后考察了海口“双创”、三亚“双修双城”和琼海美丽乡村建设等情况，亲身感受近年来兄弟市县在人大机关、美丽乡村和立法建设等方面的成就及先进经验，进一步寻找差距，结合实际，谋求儋州新发展。 考察组实地考察了海口市居仁坊、西门外街、骑楼老街、滨海公园三角梅花展等地后认为，海口市“双创”实现了市容市貌和环境卫生大改变、群众态度大转变和干部作风大提升，我市要学习借鉴的先进地区的成功经验，因地制宜抓好“一创五建”工作。 在三亚考察了三亚河河道治理情况、三亚市民旅客中心、丰兴隆桥头公园建设项目等情况后，考察组充分肯定了三亚“双修双城”建设所取得的成绩，认为三亚市委、市政府开展“双修双城”建设，大手笔进行生态修复、城市修补，大手笔建设地下综合管廊，是对百姓负责的做法，回去后将学习三亚的先进经验和成功做法，尤其是学习人大常委会发挥的监督职能作用，不断推动儋州社会经济发展。 在琼海考察时，考察组认为，嘉积镇、博鳌丝路天堂小镇、潭门南海风情小镇等美丽乡村建设方向明、路子正、合力大，尤其是制定的“打造田园城市、构建幸福琼海”发展战略和提出的“生态为先、文化为先、民生为先”的发展思路，确定了“农村美、农业强、农民富”的发展目标及以“不砍树、不占田、不拆房，就地城镇化”为基本建设原则，值得儋州深入学习和大力推广。 考察结束后，考察组成员纷纷表示，将积极借鉴兄弟省市先进经验，加大改善儋州城区人居环境和生态环境，因地制宜探索适合儋州经济发展新路子，为实现儋州经济跨越发展和建设美丽儋州履职尽责。（记者李国妹 通讯员陈锦轩 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>南丰镇赴琼中考察学习种桑养蚕产业项目</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2018-01-19</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/xz/nfz/gkml/201812/t20181229_2058997.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['为了做好2018年南丰镇扶贫产业项目，更好的了解和探讨种桑养蚕这新的产业情况；2018年1月20日早上，南丰镇党委书记李若梅、部分领导班子及部分中层干部，率领11个村（居）委会书记和1个农场长赴琼中县考察学习种桑养蚕扶贫产业项目。', '首先，第一站是到琼中县黎母山镇一户村民种桑的耕地，据村民介绍，“我充分利用丢荒的农田来种桑树，种桑树面积约10亩，三个月可以割桑叶来养蚕，半个月卖一次蚕茧，一亩桑叶养蚕可以产80斤蚕茧，一斤蚕茧卖20元，一个月十亩地卖蚕茧的收入约3.6万左右，收入很可观，农民的收入得到很大改善”。', '接着，第二站是到琼中县湾岭镇的一个种桑养蚕示范基地；据介绍，这个基地，从耕地种植桑叶到出售蚕茧，操作很规范、技术跟踪服务很到位、配备灌溉基础设施，而且还把蚕丝加工成蚕丝被子，销往大陆，额外又得一份收入。', '最后，第三站分别来到琼中县营根镇海南中丝发展有限公司正在新建的加工厂房和研究所；通过琼中县营根镇海南中丝发展有限公司负责人介绍了，琼中县种桑养蚕的现状和发展、特点、优势、市场波动和需求、技术服务和公司的发展前景和目标，作了全面详细的讲解，让各个来考察的村（居）书记、农场长对于种桑养蚕有了深刻认识和了解。而且，镇党委书记李若梅也作了总结，经过这次对种桑养蚕实地的考察，结果证明了种桑养蚕扶贫产业是可以带动和帮助老百姓脱贫致富的，这产业投入资金小、风险低、周期短、效益高、技术要求低、操作简单，而且还有政府帮扶持和补贴。希望各村（居）书记、农场长，要抓住时机，回去动员贫困户和一般户落实种桑养蚕产业，从而带动发展村民脱贫致富。', '考察人员有：镇党委书记李若梅，部分领导班子和中层干部、11个村（居）居委会书记、1个农场场长。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>225</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>和庆镇和祥村党支部赴大成南丰等镇考察学习</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2021-08-06</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/xz/hqz/gkml/202109/t20210902_3045717.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['为了更好地推进我村乡村振兴和党史学习教育工作，学习借鉴大成、南丰等镇在产业发展、人居环境整治等方面的做法和经验。', '日，和祥村党支部组织村两委干部、乡村振兴工作队队员前往大成镇新风村委会等地考察学习扶贫车间、人居环境整治、发展集体经济以及到南丰镇中共琼崖特委琼崖纵队总部旧址开展党史学习教育。和祥村党支部书记、主任符建诗表示，希望将乡村振兴考察和党史学习教育的成效不断转化为工作实效，推动和祥村各项工作上一个新的台阶。', '图为参观学习大成镇扶贫车间，了解厂房建设、产品加工、产品销售、群众就业和收入等情况。', '图为和祥党支部、乡村振兴工作队到南丰镇中共琼崖特委琼崖纵队总部旧址开展党史学习教育。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>225</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>和庆镇组织人大代表和政协委员考察学习美丽乡村建设</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2015-02-02</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/xz/hqz/gkml/201812/t20181229_2059673.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['为贯彻落实市委十一届七次全会精神，学习借鉴先进经验，全面加快我市美丽乡村建设步伐，1月22日，和庆镇组织该镇人大代表和政协委员30余人到兰洋、那大、大成、雅星等镇考察学习特色种养殖业和美丽乡村建设。考察组在实地参观和考察了南丰镇陆瓦村、那大镇力乍村美丽乡村的规划、设计等建设情况及兰洋镇正清源野猪养殖基地、屋基村玫瑰产业园、大成镇南吉村、雅星镇浮华鸡厂和茶山村林下菌草鹿角灵芝示范种植区等特色种养殖业情况，认真听取了相关情况介绍，并仔细询问了当地新农村建设、农业生产经营情况、旅游开发、美丽乡村建设等情况。人美、景美、屋美的安静环境和干净整洁的村容村貌给代表和委员们留下了深刻印象，并深受启发。在和庆美丽乡村建设中，大家一致表示，一要积极借鉴其做法和经验，结合和庆镇实际情况，创新工作方式，立足于农村现有的资源、生态条件和地形地貌。二要在规划过程中，注意合理布局，注重乡村文化的保护和传承，不仅要保护古村落、古建筑等物质文化遗产，还要关注人文、地域风情、民风民俗等非物质文化遗产。三要发掘特色的乡村产品本身，全面展现乡村文化的产业价值，促进美丽乡村旅游产业和文化的融合，大力推进和庆特色风情小镇和美丽乡村建设。在发展农村特色种养殖业上，大家认为，要继续按照“高山造林，山腰种胶，平地种果，水面养鸭，水中养鱼”的林下水下立体发展经济路子，带领和扶持群众发展林下水下种养殖业，强化服务措施，进一步加大对林下水下经济的技术、资金、销售、管理等方面的服务，把发展林下水下经济真正作为一项提高农民收入、建设新农村的富民产业，下大力气抓实抓好。同时，还要立足和庆实际情况，科学规划，合理布局，不断探索，科学选择独具特色的适合本地的林下水下种养经营模式，依靠丰富的林下水下资源，广泛宣传，突出重点，培育亮点，做出品牌，示范带动，充分调动广大群众发展林下水下经济的积极性和主动性，带动更多的村民创业致富，打造出和庆镇五彩斑斓的农家幸福生活。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>木棠镇党委理论中心组学习习近平总书记在河南省考察重要指示精神</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2019-09-23</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/xz/mtz/gkml/202001/t20200103_2730572.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['木棠镇党委理论中心组学习习近平总书记在河南省考察重要指示精神 -- 儋州市人民政府网', '2019年9月23日下午，木棠镇党委理论中心组在镇党委会议室召开理论中心组专题研讨会，认真学习习近平总书记在河南省考察重要指示精神。会议由梁伟新副书记主持，镇“三套”班子成员（含挂职）参加了会议。', '此次理论中心组专题研讨学习的主题是习近平总书记在河南考察精神，班子成员要认真学习做好记录，会议上要求班子成员发言，最后向市委主题教育第二指导组汇报学习情况。', '领导班子成员要认真学习习近平总书记在河南考察重要精神，坚定信心，埋头苦干，以优异的成绩迎接新中国成立70周年，努力创造无愧历史、无愧时代、无愧人民新的更大的业绩。一是推动经济高质量发展。二是要扎扎实实实施乡村振兴战略。三是重视生态保护工作，牢固树立“绿水青山就是金山银山的理念。四是切实保障和改善民生。坚持尽力而为、量力而行，办好群众所急、所需、所盼的民生实事。', '领导班子成员要认真学习习近平总书记在河南考察重要精神，坚定信心，埋头苦干，以优异的成绩迎接新中国成立', '岑题科：学习习近平总书记去河南考察精神对指导我镇乡村振兴工作，人居环境整治及集体经济发展都具有一定的指导意义。我们要重视此次“不忘初心、牢记使命”主题教育在我镇的实施，认真对标好我镇的工作方案，探索适合我镇的具体措施，真正做到理论学习有收获、思想政治受洗礼、干事创业敢担当、为民服务解难题、清正廉洁作表率。', '岑题科：学习习近平总书记去河南考察精神对指导我镇乡村振兴工作，人居环境整治及集体经济发展都具有一定的指导意义。我们要重视此次', '董浩：我们要根据当前工作重点，把学习内容与木棠镇当前工作实际联系起来，就如何落实好我镇乡村振兴、人居环境整治、厕所改造等工作要发挥支部带头作用，发挥基层党组织的而战斗堡垒作用，基层干部要与乡村振兴工作队齐心协力，把人民群众对美好生活的向往放在心上，抓牢、抓实脱贫攻坚工作。要扶智也要扶志，增加造血功能，增强致富内生动力，防止返贫。', '吴启养：我们要深入领会习近平总书记重要讲话精神。一是要加强爱国主义教育。当前一些乱港分子和台独分子企图搞乱国家发展，利用诱导年轻人参与非法集会等活动，扰乱社会秩序，需要全社会重视爱国主义教育，传承红色基因。我们不能忘记红色政权是怎么开的，新中国是怎么来的，今天的幸福生活是怎么来的。就是要牢固树立“四个意识”，坚定“四个自信”。二是深挖文化资源。现在有许多地区依托文化旅游资源，带领落后乡村走上致富之路。这是践行习近平总书记“两山”理论的丰硕成果。木棠镇有很多未被开发的火山岩古村落，美丽的海岸线及红树林，我们要深挖当地文化资源与绿色生态资源搞活农村经济。三是加强基层党建。给钱给物不如建一个好支部。好支部关键是要有一批能够凝聚人心，责任心强的基层干部。当前我镇正在下大力气加强村后备干部队伍建设。整顿不作为的干部，更新更有学习，更有能力，更有责任心的新鲜血液，提升后备干部队伍建设。一下步要以梁宅、薛宅先进党支部为模板，带动其他软弱涣散党支部建设。四是创新经济实体。现在谭乐已经成立了集体经济合作社，第一书记和村支部书记带头搞建设，现在谭乐发展动力十足，村民更有信心。兰训鸡场也在尹书记的带领下生机勃勃，这是真正用心用行做事的结果。其他的干部要学习他们潜心基层，艰苦奋斗带领村民致富的精神。', '吴启养：我们要深入领会习近平总书记重要讲话精神。一是要加强爱国主义教育。当前一些乱港分子和台独分子企图搞乱国家发展，利用诱导年轻人参与非法集会等活动，扰乱社会秩序，需要全社会重视爱国主义教育，传承红色基因。我们不能忘记红色政权是怎么开的，新中国是怎么来的，今天的幸福生活是怎么来的。就是要牢固树立']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>225</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>和庆镇学习贯彻习近平总书记在海南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-04-21</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/xz/hqz/gkml/202204/t20220421_3178567.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['为深入学习贯彻习近平总书记在海南考察时的重要讲话精神，4月20日，和庆镇在镇综合楼三楼会议室传达学习习近平总书记在海南考察时的重要讲话精神。和庆镇党委书记陈皇强出席会议，会议由镇党委副书记、镇长陈琦主持，镇班子成员、干部职工、乡村振兴驻村中队长、驻村第一书记、各村(社区、居）书记、镇办农场场长等80余人参加会议。', '陈皇强指出，4月10日至13日，习近平总书记在海南考察时的重要讲话，立意深远、思想深刻、内涵丰富，充分体现了习近平总书记对海南全面深化改革开放和自由贸易港建设的高度重视、深切关怀和大力支持，是对广大干部群众的巨大鼓舞。', '陈皇强强调，要充分认识习近平总书记考察海南的重大意义，把习近平总书记的殷殷嘱托转化为奋进动力，以更坚定的决心和勇气推动和庆各项工作高质量发展，以实际行动迎接省第八次党代会和党的二十大胜利召开。一是要提高政治站位，统一思想认识。自觉站在海南自贸港建设、儋洋一体化发展高度，立足“儋州因洋浦更加开放，洋浦因儋州更有深度”的发展大局，用好“三会一课”、工作例会、“大榕树微课堂”等多种方式，在干部群众中广泛宣传习近平总书记在海南考察时重要讲话精神，要把学习好、宣传好、贯彻好习近平总书记考察海南时的重要讲话精神，作为当前和今后一个时期的重要政治任务。二是要明确发展目标，抓好贯彻落实。要坚持以省委、市委和镇党委中心工作实际需求为导向，结合实际发展规划，积极引导党员干部群众参与和庆乡村振兴、农村人居环境整治、精神文明建设、疫情防控和安全生产等各项工作。三是要坚定不移加强党的全面领导。继续深化和巩固党史学习教育成果，抓好能力提升建设年和“查堵点、破难题、促发展”活动有序开展，狠抓理想信念教育、能力提升和党风廉政建设，推动党员干部和各级党组织更好地发挥“旗帜”和“堡垒”作用，确保习近平总书记重要讲话重要指示精神在和庆落地生根、结出硕果。', '会上，陈琦传达学习习近平总书记在海南考察时的重要讲话精神、沈晓明书记在七届省委常委会上关于我省贯彻习近平总书记重要讲话精神的意见。各乡村振兴驻村工作队队长、驻村第一书记作学习交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>225</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>内蒙古自治区伊金霍洛旗考察团到我市考察学习乡村振兴工作配图</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202302/t20230221_3363741.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['内蒙古自治区伊金霍洛旗考察团到我市考察学习乡村振兴工作（配图） -- 今日儋州 -- 儋州市人民政府', '伊金霍洛旗考察团一行到南丰镇油文村的嘉禾共享农庄考察学习。儋州融媒全媒体记者 何万常 摄', '儋州市融媒体中心消息 2月20日下午，内蒙古自治区鄂尔多斯市伊金霍洛旗考察团到我市考察学习乡村振兴工作，学习借鉴我市在共享农庄发展、乡村振兴等方面的特色亮点和工作经验。', '当天，伊金霍洛旗考察团一行先后来到位于南丰镇油文村的嘉禾共享农庄考察学习，深入了解嘉禾共享农庄在项目概况、项目模式、资金投入等方面情况。', '嘉禾共享农庄是海南首个以“热带水果”为主题的农业乐园，是以海南热带水果IP为主题，将热带水果的“吃、赏、玩、学”结合为一体，推广海南的热带水果文化。近年来，我市以共享农庄为抓手，不断推进乡村振兴，该农庄立足热带特色文化，打造农旅融合的热带田园综合体，吸引了众多市民游客前来游玩、消费，带动了周边乡村产业发展和村民就业，拓宽了乡村振兴发展之路。', '绿水青山，流水潺潺，具有儋州特色的共享农庄给考察团一行留下了深刻印象。考察团一行认为，儋州在共享农庄发展、产业融合、美丽乡村建设等方面有独到之处，值得学习借鉴，希望两地进一步加强联系，相互交流学习，共同提升乡村振兴工作水平。（儋州融媒全媒体记者何万常 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>225</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>市人大常委会考察组赴琼中等县考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2014-12-04</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201412/t20141204_1776978.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['据《今日儋州》消息 为加强市县人大常委会之间交流，提高人大代表履职能力和水平，11月25日至27日，市人大常委会副主任陈海洁率考察组一行14人赴琼中、白沙和昌江等县，学习各县在预算审查监督、基层人大代表履职、美丽乡村建设等方面的好做法、好经验。 在三天的考察时间里，考察组先后参观了琼中黎族苗族自治县红色革命老区鸭坡村、中国最美乡村什寒村，白沙黎族自治县天涯驿站罗帅村、美丽乡村芭蕉村、鹦哥岭自然保护区及昌江县白沙村商品菊花种植基地等，亲身感受近年来兄弟县在美丽乡村建设和现代农业发展等方面的成就及在推进现代科学技术管理、运营等方面的经验，进一步寻找差距，结合实际，谋求儋州新发展。 在考察琼中、白沙和昌江等县美丽乡村建设时，考察组认真了解村庄整体布局、环境卫生整治、资金筹措渠道、发展乡村旅游及“一村一品”特色产业等方面的经验和做法后认为，在美丽乡村建设中，兄弟县党委政府高度重视，为乡村引进旅游元素，推出农家美食，兴建家庭旅馆，把村庄建成特色休闲度假村的经验做法值得学习借鉴。 在鹦哥岭自然保护区，代表们对鹦哥岭青年团队乐于奉献、锐意创新、开拓进取的事迹大为感动。27名刚走出大学校门的大学生选择了鹦哥岭，义无反顾地把自己的青春和绿岛的环保事业、改变山村落后面貌紧紧地结合在一起，扎根海南鹦哥岭自然保护区，数年如一日，他们品尝着苦、涩、辣，创造着爱与美，享受着欢乐与甜蜜，谱写了一曲壮丽的青春之歌。 考察结束后，代表们表示，将借鉴兄弟县美丽乡村建设的先进经验，因地制宜探索适合儋州经济发展新路子，为实现儋州经济跨越发展和建设美丽儋州履职尽责。（记者李国妹 通讯员麦乃舜 朱婧琳 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>225</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>市政协考察团到三亚琼海两市考察学习产业发展经验考察学习取真经产业发展谋新篇</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-03-11</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202303/t20230311_3376201.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['市政协考察团到三亚琼海两市考察学习产业发展经验 考察学习取“真经” 产业发展谋新篇 -- 今日儋州 -- 儋州市人民政府', '市政协考察团到三亚琼海两市考察学习产业发展经验 考察学习取“真经” 产业发展谋新篇', '儋州市融媒体中心消息 走出去，学经验，引进来，促发展。3月6日至8日，市政协考察团赴三亚、琼海两市考察学习产业发展经验，探寻环新英湾区域产业发展“新路子”。大家表示，此次考察学习行程满满，收获颇多，对我市环新英湾区域产业发展具有很好的借鉴意义。', '为期三天的考察中，考察团先后来到三亚市吉阳区博后村民宿、育才生态区优旗榴莲基地、吉阳区鸿洲游艇码头、琼海市博鳌镇留客村等地，考察学习当地在旅游产业、农业种植、美丽乡村建设等方面的先进经验和创新做法。考察团一路走，一路沟通，一路思考，切身感受到了新品种、新技术带来的新变化。', '“从三亚到琼海，我们首先看的是民宿和乡村旅游，两地充分利用本土资源，在吃、住、娱方面做足文章,立足自身旅游资源优势,用新业态引流,培育新的消费增长。”儋州市旅文局副局长郭益华认为，产业发展要结合实际，如峨蔓镇可以结合当地的资源、风土人情，打造特色民宿，推进“旅游+消费”“旅游+体育”等新业态，不断地导流过来，打造以农业产业为根、以田园风光为韵、以农耕文化为魂的乡村振兴农旅融合田园综合体，做好全域旅游文章。', '市资规局副局长林辉认为，产业发展要坚持高标定位、系统谋划、整体布局，全市产业发展要大力导入高端、高效要素，如游艇、榴莲等产业，创造全新的产业空间，推动新兴优势产业再上新台阶，培育好特色产业，带领老百姓共同致富。', '大家表示，此次考察学习既开阔了眼界，也看到了差距，但更增强了信心，要充分借鉴学习三亚琼海两市的成功经验，结合儋州实际，引进新产业、新技术，谋划推动环新英湾区域高效农业与休闲观光旅游等新业态发展，形成具有儋州特色的产业群，推动特色产业引领乡村振兴，服务儋州洋浦一体化高质量发展。（儋州融媒全媒体记者何万常 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>225</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>为加强沟通与联系促进交流与合作黄冈市考察团到我市考察学习配图</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2017-11-21</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201711/t20171122_1787683.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['为加强沟通与联系 促进交流与合作 黄冈市考察团到我市考察学习(配图） -- 今日儋州 -- 儋州市人民政府', '11月19日，黄冈市委常委、宣传部长陈继平率考察团到我市考察。图为考察团在东坡书院参观。', '11月20日，黄冈市委常委、宣传部长陈继平率考察团到我市考察。图为考察团在儋阳楼参观。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>225</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>成都市青白江区政协考察团来儋考察学习配图</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202303/t20230302_3370458.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['成都市青白江区政协考察团来儋考察学习（配图） -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 3月1日，成都市青白江区政协考察团一行到我市就现代农业经济发展专题的经验及做法进行考察学习。 当天，成都市青白江区政协考察团一行实地参观了中和镇火龙果基地、南丰镇嘉禾共享农庄等基地后，与相关负责人进行深入交流探讨，详细了解了儋州特色产业发展、乡村旅游、共享农庄建设等方面取得的成效。 考察学习结束后，考察团对我市产业发展、乡村振兴所取得的成绩给予了高度评价，认为我市积极贯彻新发展理念，结合本地实际情况，立足资源特色，科学规划农业产业布局，加快构建现代农业产业体系、生产体系、经营体系，探索出具有当地特色的现代农业发展路径。 考察团还表示，希望今后两地能进一步加强联系，相互交流学习，以更高站位、更宽视野、更大力度推动农业产业和乡村振兴工作实现高质量发展。（儋州融媒全媒体记者何万常 编辑符丽曼）']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>225</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>白沙考察团到大成镇考察学习借鉴经验发展特色农业配图</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2016-05-22</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201605/t20160522_1781505.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['白沙考察团到大成镇考察 学习借鉴经验发展特色农业（配图） -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 为进一步发展特色农业，不断优化种植布局，实现农业增效，5月19日，白沙县农业局带领将近60位村民到大成镇考察，学习了解特色产业的管理模式和经济效益，拓宽农户的致富路。 当天，考察团一行首先来到大成晶柚园，了解晶柚的种植管理情况。当了解到目前晶柚每个能卖到80元时，大家都很感兴趣，纷纷了解晶柚的管理种植方式。据大成晶柚园相关负责人介绍，儋州大规模柚子种植的历史并不长，最早连片种植的是推赛村的大成晶柚实验园，树龄仅15年，规模近200亩。晶柚园采取“公司＋农户”模式，带动农民种植蜜柚。种植的晶柚品质清甜、肉质脆嫩，具有润肺等功效，市场销路非常好。经过不断改良，如今基地种植的晶柚年总产量超40万斤，产值近200万元。听取介绍后，考察团成员不住地点头称赞，并对我市特色晶柚产业发展路子表示肯定。 随后，考察团走进南吉村，考察了解黄皮种植情况。据了解，南吉村是2015年我市乡村旅游项目建设之一，拥有黄皮树150多亩，百年以上的黄皮树近10亩，还有一棵300年的黄皮古树，被誉为“海南黄皮王”。现如今，已建成“百年黄皮园”、黄皮采摘园、黄皮苗圃、田园观光廊亭、黄皮鸡农家乐等特色旅游点，开发推介了黄皮鸡、黄皮寄生茶、黄皮蜂蜜等系列产品，全年接待旅客万多人次。 在考察中，考察团一行对考察的晶柚和黄皮两个特色产业非常认同，大家认为，没想到晶柚和黄皮带来那么好的经济收益。作为一个农民，我们应该好好想想，从身边的产业着手，根据自身实际情况因地制宜，合理调理种植结构，着力推进特色产业发展，实现经济利益最大化，拓宽致富道路。（记者林晓云 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>225</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>新州镇人大代表考察团赴五指山市陵水县和三亚市学习考察</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202304/t20230418_3401127.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['新州镇人大代表考察团赴五指山市、陵水县和三亚市学习考察 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 为进一步加强新州镇市镇人大代表的履职能力，深入了解其他市县的好经验、好做法，更好地为新州镇发展建言献策， 4月13日至15日，新州镇人大主席、四级调研员李坚率该镇市镇人大代表考察团一行，奔赴五指山市、陵水县、三亚市三个市县进行学习考察。', '考察期间，新州镇人大考察团每到一地，都与相关负责人进行详细交谈，并深入五指山市毛纳村、海南热带雨林国家公园五指山片区、陵水德林诚信水产养殖有限公司、三亚市崖州湾科技城等地实地考察，详细了解3个市县在美丽乡村建设、农村人居环境整治、乡村振兴产业发展、旅游业发展、科技建设、人大联络站建设、生态环境保护等方面的情况。大家一致认为，这些地区人大联络站建设规划合理、切实发挥人大代表履职工作，新州镇可以借鉴学习好做法、好经验、新理念，助力环新英湾建设。', '李坚表示，新州镇市镇人大代表要增强代表履职的责任感和紧迫感，紧紧围绕新州镇党委发展目标，切实做好人大工作，提高代表本身的履职能力；要认真学习和借鉴其他市县在美丽乡村建设、产业发展等方面的发展思路、持续性等优点；在儋洋一体化发展中，加强自身建设，充分发挥人大代表的作用，加强调研，切实为群众解决急难愁盼的难题，助力新州镇高质量发展。', '通过3天的考察学习，不仅开阔了视野，增长了见识，进一步激发了作为人大代表的责任感和使命感。新州镇人大考察团成员纷纷表示，将带着此次学习考察活动的成果，提供新的工作思路，改进工作方法，提高依法履行各项职责。（儋州融媒全媒体记者林晓云 通讯员吴玉红 编辑熊铁辉）']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>225</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>我市组织考察团赴廊坊和雄安新区学习考察配组图</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-06-17</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202206/t20220617_3213778.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['我市组织考察团赴廊坊和雄安新区学习考察（配组图） -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 6月14日至15日，副市长，洋浦经济开发区工委委员、管委会副主任、市委环湾办主任冯本彦带领考察团赴廊坊和雄安新区，学习借鉴城市规划建设、产业谋划、改革创新、生态治理等方面先进理念和做法。', '考察团一行先后实地考察了廊坊临空经济区国药科技城·医药供应链CSO中心项目、综合保税区（一期）项目、廊坊临空中心项目，听取各项目情况介绍。考察团一边参观一边与汇报人员进行交流，深入了解项目情况。 据了解，廊坊临空经济区重点打造以临空中心为辐射圆心的核心区，总体发展定位为“国际交往中心功能承载区、国家航空科技创新引领区、京津冀协同发展示范区”。廊坊临空经济区区域面积100平方公里，包括52平方公里的航空物流区和48平方公里的科技创新区，将全域划分为“航空创新区、国际商务区、高端制造区、生物医药区、生态文旅区”5大功能分区。 考察团一行还到雄安规划展示中心、启动区综合服务中心、安新县白洋淀新安北堤木栈道等地，详细了解雄安新区整体规划及建设情况以及白洋淀环境治理和保护情况。 考察团成员纷纷表示，此次考察进一步贯彻新发展理念，提升环新英湾区域的规划建设水平，完善产业空间布局，做好蓝绿空间利用设计，创新招商引资理念，努力在建设“港产科城”一体的生态型现代化国际城市中走前头、作示范。 廊坊市委常委、秘书长张平，市政府副市长、临空经济区（廊坊）党工委书记兼管委会主任丁凌，雄安新区有关负责人陪同考察。（儋州融媒全媒体记者黎有科 通讯员李珂 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>225</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>马飞率考察团赴苏赣考察学习学习先进经验做法加深交流共谋发展</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-03-11</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202203/t20220311_3154194.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['马飞率考察团赴苏赣考察学习 学习先进经验做法 加深交流共谋发展 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 近日，市人大常委会主任马飞率考察团到江苏宿迁、江西省赣州市南康区和瑞金市考察学习。', '近日，市人大常委会主任马飞率考察团到江苏宿迁、江西省赣州市南康区和瑞金市考察学习。', '在江苏宿迁，考察团一行先后来到位于泗阳县的江苏荣浩投资集团有限公司、江苏金牌厨柜有限公司、江苏大自然智能家居有限公司，位于沭阳县的国际花木城、沭阳亚森同汇实业有限公司、江苏慧典新材有限公司、瑞声科技控股有限公司，实地考察木材加工产业发展和园区建设情况，深入工厂车间了解木材产品深加工的生产工艺流程、企业经营模式等情况。考察团一行还实地走访了泗洪县，考察学习城市建设和生态环境保护工作。', '考察团一致认为这次考察既开阔了视野，也看到了差距，更学到了好思路、好做法。表示将充分学习借鉴宿迁木材加工方面好的经验做法，进一步加强两市交流合作，互相学习、取长补短、共谋发展。', '在江西省赣州市南康区，考察组一行先后来到家具新中心、美克数创家居制造项目、赣州国际陆港、城发智能制造共享备料中心、家居小镇等地，通过进车间、听汇报等方式，详细了解了南康区家具产业发展、木材加工、园区建设、招商引资、销售流通等情况。在听取相关情况的介绍后，考察组认为南康区结合自身优势和城市特色，打造出了一张具有“南康特色”的家具名片，特别是在产业布局、招商引资等方面的好经验、好做法值得学习和借鉴。考察组一行表示，希望今后双方增加了解与合作，共同推动两地经济高质量发展。', '在江西省赣州市瑞金市，考察组一行先后来到叶坪革命旧址群、红井革命旧址群、“二苏大”革命旧址、中华苏维埃代表大会制度史陈列馆等地考察，详细了解瑞金市红色文件保护工作情况，通过听讲解、看展陈，详细了解瑞金市保护革命旧居旧址的经验做法。', '马飞对瑞金红色文化的保护工作给予了充分肯定。他指出，瑞金有着光荣的革命历史和丰富的红色文化宝藏，要进一步加大对党史资料的挖掘整理，加大对革命旧址和珍贵史料的保护力度，大力弘扬红色文化，从中汲取昂扬奋进、团结拼搏的精神动力，让红色文化在新时代绽放新的光彩。', '市人大常委会党组成员、副主任侯启江，市人大常委会党组成员、秘书长李昌本参加相关活动。（儋州融媒全媒体记者韦斌 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>225</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>韩太光率市人大常委会考察团赴三亚等三市县学习考察配组图</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2012-09-29</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201209/t20120929_1766081.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['韩太光率市人大常委会考察团赴三亚等三市县学习考察（配组图） -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 为进一步加强与岛内兄弟市县人大的交流和沟通，学习兄弟市县的好经验、好做法，更好地为儋州科学发展出谋划策， 9月26日至28日，市人大常委会主任韩太光率我市人大常委会考察团一行，奔赴三亚、琼海、陵水、乐东等市县进行学习考察。 市人大常委会副主任林明忠、朱玉娥、吴勇、陈海洁，秘书长吴文波参加此次学习考察活动。 考察期间，市人大常委会考察团每到一地，都与当地人大常委会进行座谈，了解当地人大工作经验，并深入乐东县龙沐湾开发区、三亚市亚龙湾、陵水县清水湾和国际旅游岛先行试验区、琼海市进行实地考察，详细了解4市县的经济社会、重点项目建设、城市建设等情况。大家一致认为，乐东县龙沐湾开发区、三亚市亚龙湾和海棠湾等地建设高起点、规划好，特别是其生态的城市建筑特色令人赞叹不已，儋州可以借鉴学习这些好做法、好经验、好规划，把儋州建设成为优美、宜居的生态旅游城市。 考察中韩太光要求，市人大常委会要增强发展的责任感和紧迫感，紧紧围绕市委提出的建设经济中心城市的目标，自我加压，切实做好人大工作，提高代表的履职能力；要全面贯彻落实科学发展观，认真学习和借鉴兄弟市县城市的发展思路新、法律意识强、城市发展政策持续性好等优点；要以经济建设为中心，坚持全面实施“一市双城三大功能区”区域发展战略和“调优做精第一产业，发展壮大第二产业，重点突破第三产业”经济发展思路，尤其是强力推进“大企业进入，大项目带动”的发展举措下，发展儋州“一市双城”的战略目标，同时学习借鉴兄弟市县城市服务经济建设方面的经验，举全市之力加快“一市双城”建设；要加强自身建设，充分发挥权力机关的作用，加强调研，改进作风，找准人大工作的切入点和着力点；要转变人大监督方式，变事后监督为事前监督；要提高监督实效，要把监督工作的出发点和落脚点放在支持政府全力以赴抓好发展上，并针对改革发展过程中涉及人民群众利益的热点、难点问题开展重点监督。 市人大常委会考察团成员纷纷表示，通过3天的考察学习，不仅开阔了视野，增长了见识，而且加深了与兄弟市人大常委会的联系与沟通。更为重要的是使心灵受到了一次熏陶和洗礼，进一步激发了作为地方国家权力机关组成人员强烈的责任感和使命感。大家表示，将带着此次考察学习活动的成果，进一步完善工作思路，改进工作方法，提高工作质量，依法履行各项职责，为全面完成市人大常委会各项任务、不断提升我市人大工作水平做出更大贡献。 考察期间，市人大常委会考察团一行受到了有关市县领导的亲切会见和热情接待。 市人大常委会副秘书长，市人大常委会各工委（室）主任或副主任等参加考察活动。（记者黎有科 编辑王诗波）']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>225</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>我市基层人大代表赴万宁等地考察学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2013-05-02</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201305/t20130502_1768727.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息 4月26日，市人大常委会副主任林明忠率基层人大代表赴琼中、陵水和万宁等地，考察学习兄弟市县在新农村建设、旅游基础设施建设和城乡一体化规划建设等方面成功经验，进一步开阔基层人大代表的视野，提高基层人大代表的履职能力和水平。 考察团一行先后深入琼中县黎母山镇加林村和大塘村、陵水县海南国际旅游岛先行试验区、万宁市兴隆热带花园，亲身感受近年来兄弟市县在新农村建设和旅游发展等方面的成就及经验。 琼中县黎母山镇加林村在没有开展环境卫生综合整治前是一个脏乱差的问题村庄，经过整治后，村容村貌有了明显改善。该村发动群众，制定管理制度，利用原有资源把村庄打造成一个省级的文明生态村。“村庄把原有的资源合理利用、垃圾回放处理的方法不错，回去后发动群众，根据我们村的实际请况，改善村容村貌，把我们村庄建设得更加美好。”人大代表李焕标如是说。 在陵水县海南国际旅游岛先行试验区，代表们看到海南岛未来规划蓝图，对海南更快更好的发展充满信心。大家纷纷表示，要做好本职工作，履行好人大代表的职责，为建设国际旅游岛尽自己的一份力。 在万宁兴隆热带花园，代表们详细询问、了解了热带花园整体布局、环境卫生整治、资金筹措渠道、发展热带特色旅游等方面的经验和做法。 通过两天的考察参观，代表们纷纷表示，通过考察学习，受益匪浅，回去后将认真总结、充分学习兄弟市县的好做法和好经验，为我市又好又快发展建言献策。（记者李绍远 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>225</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>市人大常委会组织人大代表外出考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2013-04-25</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201304/t20130425_1768665.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息 4月18日至19日，市人大常委会副主任朱玉娥率我市46名各级人大代表赴海口、澄迈等市县，参观考察学习兄弟市县的农业产业结构调整、人大代表监督和联系人民群众工作及新农村建设等先进经验，进一步拓宽人大代表的视野，转变发展理念，提高履职能力和水平，为推动我市经济社会又好又快发展充分发挥人大代表的示范带头作用。 考察团先后参观了澄迈县福山咖啡风情小镇、老城开发区软件园、海南中航特玻材料有限公司、海口骑楼老街建设、海口市石山镇美社村新农村建设等，亲身感受了近年来兄弟市县在新农村建设和现代农业发展等方面的成就，以及在发展现代科学技术和管理、运营等方面的先进经验，寻找差距，结合实际，谋求儋州新发展。 在澄迈县福山咖啡风情小镇，当了解到该镇充分利用红树林打造“富力红树林湾”旅游观光景区，配套建设专属度假屋、游艇会、五星级酒店等国际化度假设施，打造具有生态景观、体育运动、度假居住三大核心功能旅游胜地时， 代表们纷纷认为，“富力红树林湾”的成功经验值得学习。我市峨蔓和光村等镇也拥有大量海边红树林，可以结合当地实际，充分开发新农村生态旅游景区。 在考察海口市石山镇美社村的新农村建设时，人大代表们详细询问、了解了美社村在村庄整体布局、环境卫生整治、资金筹措渠道、发展乡村特色旅游等方面的经验和做法。“美社村太让人着迷了，村里规划得当，道路硬化，绿树成荫，古建筑物保存完好，不仅适合居住，也是一个新农村旅游景区。”代表们纷纷赞叹说，美社村引进旅游元素，推出农家美食，建家庭旅馆，把村庄建成特色休闲度假村，全力打造“人们休闲的家园，游客度假的天堂”，这些经验都值得我们学习借鉴。 在两天的考察后，代表们表示回到各自岗位后，将借鉴先进经验，因地制宜探索适合我市经济发展新路子，带领群众大力发展本地农业经济，促进农民增收、农业增效，为实现儋州经济跨越发展、建设美丽儋州积极履职。（记者李国妹 冼贺 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>225</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>市委党建巡回检查组赴韶山井冈山考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2012-04-27</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/xxgk/dzzwdt/zwdt/201204/t20120427_1701984.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息 4月19日至25日，市委党建巡回办公室组织党建巡回检查组和办公室人员赴湖南省韶山市、江西省井冈山市等地考察党建示范点，参观革命教育基地，接受革命传统教育。 据了解，此次考察是进一步加强党建工作巡回检查干部队伍建设，助推我市基层组织建设。考察组一行17人先后到湖南省长沙市韶山毛泽东故乡、江西省井冈山等地考察党建工作，参观革命教育基地，接受革命传统教育。 在长沙市，考察组一行参观了毛泽东求学和工作过的湖南第一师范学院、橘子洲头青年毛泽东塑像等，缅怀老一代革命家为民族解放和国家独立而创建的丰功伟绩。在毛泽东故乡韶山，考察组参观了纪念毛泽东广场，瞻仰毛泽东同志铜像，同时参观了毛泽东同志旧居等。在井冈山，考察组一行观看了革命圣地大型实景演出《井冈山》，参观了黄洋界、小井红军医院、红军造币厂，重走红军路，体验红军生活，再次接受革命传统教育。此外，考察组还参观了南昌八一纪念碑，加深了对我党打响武装夺取政权第一枪历史的了解。 经过考察学习，考察组成员表示这次考察受益匪浅。市委党建巡回办副主任王诒福说，通过考察学习，一方面深刻感受到革命成功的来之不易，我们要更加珍惜今天的幸福生活，更加努力工作。另一方面，我们要发扬井冈山精神，在今后的工作中继续坚持艰苦奋斗、求实为民的作风，在自己的岗位发挥共产党员的先锋模范作用。（记者王竞 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>225</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>温龙率我市学习考察慰问团赴三沙慰问配组图</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2017-05-27</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/tpxw/201705/t20170527_1728550.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['温龙率我市学习考察慰问团赴三沙慰问（配组图） -- 图片新闻 -- 儋州市人民政府', '5月26日，由市委常委、宣传部长温龙任团长的我市学习考察慰问团一行赴三沙市永兴岛，慰问该市机关干部群众和驻岛军警部队官兵，并送上慰问品和节日祝福。图为慰问捐赠仪式现场。', '儋州新闻中心消息 情系永兴岛，粽子传温情。在端午节临近之际，5月26日，带着儋州市委、市政府的关怀厚爱和全市百万人民的深情厚谊，市委常委、宣传部长温龙，市人大常委会副主任王大辉，市政协副主席侯启江率儋州学习考察慰问团一行，赴三沙市永兴岛，看望慰问三沙市机关干部群众和驻岛军警官兵，并送上儋州粽子等慰问品和浓浓的节日祝福。', '三沙市委常委、常务副市长冯文海在慰问捐赠仪式上讲话时指出，近年来，儋州在经济发展、民生改善、教育卫生、文化宣传等方面成绩显著，创造了儋州经验和儋州模式，值得三沙市学习和借鉴。三沙设市近五年来，在党中央、国务院的亲切关怀下，在省委省政府的正确领导下，在兄弟市县及社会各界的大力支持和帮助下，深刻领会中央战略意图，全面落实习近平总书记指示精神，不怕条件艰苦、不怕情况复杂、不怕没有先例，主动服从维护国家主权和海洋权益需要，主动适应三沙维权建设新常态，以特殊方式方法破解特殊困难，完成特殊使命，岛礁建设发生了翻天覆地的变化，维权维稳保护开发各项工作取得了骄人成绩。 冯文海表示，今后将继续在全省各兄弟市县的帮助下，以一天也不耽误的精神加快三沙维权建设发展，为建设主权三沙、美丽三沙、幸福三沙作出更大贡献。', '温龙指出，三沙市和儋州市都是我省的新生地级市，一直保持着良好的战略合作关系。近年来，在省委和三沙市委的坚强领导下，三沙市紧紧围绕“主权三沙、美丽三沙、幸福三沙”的宏伟目标，克服了特殊环境和条件以及重重困难，开展了许多卓有成效的工作，实现了国家的战略意图和战略部署。三沙的发展变化日新月异，三沙的影响力与日俱增，尤其在维权维稳、保护开发以及“双拥”共建等方面体现出来的家国情怀，深深地鼓舞着我们，三沙正以崭新的形象和面貌呈现在全国乃至全世界人民面前。 温龙说，近年来，儋州紧紧抓住升格为地级市的历史新机遇，大力推进海南西部中心城市建设，各项工作取得了重要进展，经济社会发展进入了快车道。特别是省第七次党代会召开以后，儋州市委市政府以省党代会精神为指导，进一步统一思想、找准定位、理清思路、明确发展方向，提出了深入实施新兴增长极和新型城镇化的“双新”发展战略，经济社会呈现出良好的发展势头。三沙和儋州都是我省重要的地级市，在全省发展战略中承担着极其重要的作用。希望以此次学习考察慰问活动为契机，进一步加强两市之间，特别是在海洋产业、民生事业、双拥工作等方面的交流与合作，促进两地经济社会健康持续快速发展。', '市委常委、宣传部长温龙给三沙市机关干部群众和驻岛军警部队送上儋州粽子等特色农产品。', '当天，儋州学习考察慰问团给三沙市机关干部群众及驻岛军警部队官兵赠送了5000个儋州粽子和一批儋州特色农产品。同时，学习考察慰问团还在三沙市部队小礼堂为官兵献上了一台极具儋州文化特色的文艺节目。', '以下组图为儋州学习考察团为三沙市机关干部群众和驻岛军警部队官兵表演儋州调声等文艺节目。', '据了解，此次学习考察慰问活动是我市为了贯彻落实儋州市和三沙市战略合作协议，主动为三沙发展建设服务，促进双方在产业发展、民生建设、双拥工作等方面深入合作而实施的具体举措。（特派记者冼贺 编辑范志平）']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>225</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>市委宣传部组织宣传干部赴兄弟市县考察学习配组图</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2012-04-23</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201204/t20120423_1763160.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['市委宣传部组织宣传干部赴兄弟市县考察学习(配组图) -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 以力推学习型党组织建设、文明大行动和文明生态村建设为内容，4月18日至22日，市委宣传部组织全市宣传委员和宣传部干部赴三亚、琼海、保亭等市县考察学习，进一步拓宽视野、转变观念、创新工作，为儋州跨越发展做出新贡献。 考察期间，考察组先后到五指山、保亭、三亚、万宁、琼海、定安等市县的文明生态村、文化广场、文化活动场所、创建学习型党组织等先进单位考察，学习他们的先进经验和做法。每到一处，考察组成员都详细了解先进单位创建情况、经验做法和发展成果。 五指山市南圣村，原是一个落后的村庄，开展创建学习型党组织后，联合省农林科技学校在村里设立基层农业学校，开设种植、养殖、农业经济管理等专业，提高农民种养技能，改变农民的思想观念，使南圣村成为学习型党组织建设一面旗帜。保亭县注重城市规划建设，突出黎苗风情，在保城东河西岸建设了以黎族船屋为造型，集购物、休闲、娱乐、餐饮、文化、景观为一体的风情一条街，整个街道干净、舒适、温馨；七仙广场融入本地独特景观和黎苗文化特色，将地方性和国际性相结合，整个建设和谐、美观大方，凸显民族风情。三亚市槟榔新村，在新农村建设中加快产业转变发展方式，整村连片，集购物、休闲、娱乐、餐饮、文化、景观为一体，建设有黎苗博物馆、商业街、农家乐等，吸引了众多游客。定安百里百村结合本地实际，建设独特的景观，开展了农家乐、自行车游等旅游项目，吸引了游客纷至沓来。 经过几天实地考察学习，考察组成员深受启发，受益颇多。大家认为，一个地方的发展，关键在解放思想、更新观念，坚持科学发展，切实转变经济发展方式，以思想大解放推动经济社会发展。 市委宣传部副部长蒲永朝对记者说，当前，儋州正处于经济发展的大好时期，宣传工作要先行。宣传工作者要牢牢把握主题和主线，把握时代精神，以科学理论武装人，为儋州又好又快发展提供强有力的精神支撑。通过开展此次活动，拓宽了宣传工作者视野，更新了观念，为我市69个重点项目建设和文明大行动宣传造势，营造真抓实干的良好氛围。（记者梁灵杰 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>225</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>我市各校传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022-04-22</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220422_3179581.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['我市各校传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月15日，南大附中市一中召开会议，学习《习近平在海南考察时强调 解放思想开拓创新团结奋斗攻坚克难 加快建设具有世界影响力的中国特色自由贸易港》，重温《在庆祝海南建省办经济特区30周年大会上的讲话》《中共中央国务院关于支持海南全面深化改革开放的指导意见》的精神。', '月15日，南大附中市一中召开会议，学习《习近平在海南考察时强调 解放思想开拓创新团结奋斗攻坚克难 加快建设具有世界影响力的中国特色自由贸易港》，重温《在庆祝海南建省办经济特区30周年大会上的讲话》《中共中央国务院关于支持海南全面深化改革开放的指导意见》的精神。', '会议要求，在推进海南自贸港建设和儋洋一体化发展的背景下，要加大力度提高学校教育教学质量和水平，持之以恒抓好理想信念教育，为培育和弘扬社会主义核心价值观，广泛开展群众性精神文明创建活动，不断提升人民文明素养和社会文明程度，贡献儋州一中力量。', '4月15日，市第三中学组织全体党政干部、工会团委领导和年级组组长开展学习会，传达学习习近平总书记在海南考察时的重要讲话精神。', '会议指出，要深入学习宣传贯彻习近平总书记考察海南时的重要讲话精神，以习近平总书记重要讲话精神为指引持续做好学校各项重点工作，奋力推进教育教学高质量发展。', '4月16日至18日，那大实验小学茶山校区结合实际，通过党员干部集中学习会等形式，传达学习习近平总书记考察海南时的重要讲话精神。', '会议要求，要深刻领悟习近平总书记考察海南时的重要讲话精神的重要性，坚定不移沿着习近平总书记指引的方向奋勇前进，打造茶山校区城区结合区域特色小学，努力开创儋州洋浦一体化高质量发展新局面。（儋州融媒全媒体记者符武月 编辑符灵基）']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>225</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>市卫生局组织系统单位到海口市考察学习</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2011-05-23</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201105/t20110524_1757109.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息为了做好我市卫生系统机关效能建设以及惩治和预防腐败工作，推进我市卫生系统对公立医院行风建设责任制和医疗卫生机构绩效评价制度工作顺利开展。5月17日，市卫生局组织市内几家医院到海口考察学习相关工作。 当天，市卫生局组织市第一人民医院、那大农垦医院、市中医医院、市妇幼保健院四家负责党风廉政建设的领导一行8人先后到海口市卫生局、海口市第一人民医院学习取经。分别听取了海口市卫生局、海口市第一人民医院对惩治和预防腐败工作的主要做法、典型经验。我市参加学习人员纷纷表示这次出来学习参观，深受启发，为市卫生系统做好机关效能建设以及惩治和预防腐败工作提供了良好的学习和借鉴的经验。回去后将围绕党风廉政建设和反腐败工作的要求，认真按照市委党风廉政建设和反腐败工作部署，积极推进本系统和本单位的党风廉政建设各项任务的落实，以党风廉政建设的成果推动全市卫生事业的发展。（记者黎有科 通讯员邢? 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>225</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>东方市学习组到我市考察反电诈工作</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2018-01-21</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201801/t20180122_1788229.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['据《今日儋州》消息 1月18日下午，东方市委政法委常务副书记、市综治办主任王文学率领该市综治办、公安局、工信局等单位负责人共10人组成的考察学习组到我市考察学习打击治理电信网络新型违法犯罪工作，并举行交流座谈会。 座谈会上，市公安局相关负责人详细地介绍了我市电信网络新型违法犯罪的发展趋势、规律特点及打击治理电信网络新型违法犯罪的情况和下一步工作设想。 王文学表示，通过此次交流学习，学习组感受到儋州在打击治理电信网络新型违法犯罪上做了大量的工作，反“电诈”的决心大、动作大、力度大，为东方市下一步开展打击电信网络新型违法犯罪工作提供了宝贵的经验。学习组一定把这次交流学习到的经验与东方市的实际情况结合起来，推动东方市打击治理电信网络新型违法犯罪工作的深入开展。 在会上，学习组还观看了我市打击治理电信网络新型违法犯罪工作汇报片《儋州在行动》，仔细观摩我市打击电信网络诈骗信息管理系统演示。 当天，东方市学习组一行还分别深入到市反电信诈骗中心和东风社区，实地查看反电信诈骗接警处置区，金融、运营商工作区，宣传栏和大数据分析中心，并查阅相关台账资料和档案，参观学习我市在打击电信网络新型违法犯罪方面的工作经验。市反电信诈骗中心还向东方市学习组赠送了《儋州在行动》光盘及《文件资料汇编》、《宣传基础工作》等书籍。（记者王家隆 编辑唐凤霞）']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>225</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>白马井镇组织干部赴洋浦考察交流学习</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2022-03-10</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202203/t20220310_3153386.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['儋州市融媒体中心消息 3月9日，白马井镇组织学习考察团到洋浦经济开发区，就如何高质量、高标准、高效率服务环新英湾片区建设和儋州洋浦一体化发展进行考察交流学习。 当天，在洋浦共鸣社区，学习考察团认真听取了该社区“两委”班子在房屋征拆、项目征地工作和服务洋浦开发建设等方面的工作情况介绍，并详细了解该社区的党建网格化管理和党员积分管理机制。 随后，学习考察团来到洋浦保税港区，通过学习交流、研究探讨、现场教学等方式，详细了解海南自贸港政策落地执行、优化营商环境、产业规划布局、空间发展战略和环新英湾片区远景规划等情况。 考察结束后，学习考察团成员都纷纷表示，今后将在学干结合中练就过硬本领，传承优良作风，以新面貌、新作为展现新时代人民公仆的形象。 “白马井镇要借鉴洋浦的先进经验和成功做法，特别是洋浦共鸣社区的党建网格化管理和党员积分管理机制等创新做法，值得我们学习和推广。同时，我们还要取长补短、创新思路、谋划发展，落实落细市委、市政府决策部署，并不断提升自身能力建设，提高基层党建工作水平，加强党建引领，推动白马井镇各项工作再上新台阶。”白马井镇党委书记陈帆说。 该镇领导班子、干部、21个村（社区）党支部书记共55人参加考察交流学习。（儋州融媒全媒体记者盘悦华 通讯员麦祥吉 编辑符丽曼）']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>225</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>那大镇组团赴白马井考察学习城市规划建设</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2014-04-29</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201404/t20140429_1774200.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['据《今日儋州》消息 4月26日，市人大常委会副主任、白马井镇党委书记吴勇，市人大常委副主任、那大镇委书记陈海洁率那大镇三套班子成员，各村委会书记、主任及那大十佳“五好文明家庭”成员近150人，赴白马井镇考察学习城市规划工作。 当天，考察团一行先后考察了海花岛旅游综合体、中南西海岸、恒大金碧天下、海阳城和儋州洋浦跨海大桥省市重点项目建设，听取了规划的主导思想、主题定位、规划理念和功能布局介绍，详细了解白马井镇建设经营策略和城市发展变迁的辉煌历程。 “这次参观学习，是那大镇践行党的群众路线教育实践活动落实到基层的一个学习活动，特别是考察学习了白马井镇规划建设，让广大村干部增长见识，进一步提高干部视野和工作能力，加大对‘一市双城三大功能区’的发展认识。”那大镇镇长王明魁如是说。 通过学习，考察团成员纷纷表示，白马井镇城市规划方面的经验和做法值得学习借鉴。“看到白马井镇的规划，不仅开阔了我们的眼界，极大激发了我们创新工作的动力。”那大镇清平村委会主任高福才在接受记者采访时说。 考察中，陈海洁要求，要将此次考察学习心得和思想收获转化为实际行动和工作动力，针对那大镇目前情况，联系自身实际工作，积极思考如何进一步做好那大镇城市规划建设工作，紧紧抓住“一市双城三大功能区”发展机遇，认真学习，仔细观察，找准差距，促进发展，选准突破口、找准结合点，高起点规划、高标准建设、高质量管理，加快推进那大城市规划建设管理工作。 当天，考察团一行还到木棠镇铁匠村、儋州牛路窝菌草林下种植农民专业合作社、那大镇力乍村等地考察学习。（记者李秋欢 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>225</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>新州镇人大代表团赴琼海市学习考察</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021-07-31</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202107/t20210731_3027691.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['儋州市融媒体中心消息 7月29日至30日，新州镇人大主席李坚率镇人大代表团赴琼海市开展学习考察活动，主要学习考察美丽乡村建设及镇容镇貌管理的先进做法和经验。 考察组一行先后到琼海市嘉积镇北仍村、博鳌镇南强村、留客村、沙美村和北山村考察学习。通过现场察看，听取介绍，详细了解美丽乡村建设特色、亮点和镇容镇貌管理经验做法等情况。 南强村作为一个典型华侨村，经济人文基础良好，通过引入大型企业资金和设计理念，以“一园、三部落、多节点”为结构主体，精心打造“南强客厅”“凤凰客栈”“凤凰公社”“陶醉音乐酒吧”“凤鸣书吧”等特色乡村旅游业态和“艺术+”配套设施，打造出产业支撑、特色鲜明、有内涵、有品位的美丽乡村品牌。 考察组在沙美村主要考察学习美丽乡村建设和人居环境整治。沙美村依托三江汇流的沙美湿地公园地理优势，成立农民专业合作社，引进社会资本，以“农户+合作社+公司”的模式进行统一经营管理，发展热带高效农业、休闲渔业、民宿、农家餐饮、电商等农村特色产业，如“祥勋客栈” “小螺号清吧““怡然轩”“沙美人家”“望海居”等产业，推进乡村融合发展，让村民实现家门口的创业就业致富梦想。 通过为期两天的学习考察，考察组成员收获满满，一致认为琼海市嘉积镇、博鳌镇美丽乡村建设及镇容镇貌管理工作，因地制宜，开展迅速，运行成效显著，为新州镇提供了有益借鉴。（儋州融媒全媒体记者何秀玲 通讯员吴玉红 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>225</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>市效能办赴省外学习考察机关效能建设情况</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2011-10-24</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201110/t20111025_1759932.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息 为学习借鉴省外效能建设先进市县的做法和经验，进一步推进我市机关效能建设工作，近日，以市纪委副书记、监察局长、效能办主任符永体为组长一行7人赴江苏省镇江市、广东省清远市学习考察机关效能建设开展情况。 在考察中,考察组一行通过听取汇报、实地参观、座谈交流、专题调研等方式详细了解先进市县机关效能建设开展情况。 在镇江市考察时，该市政务中心先进的电子监察设备、规范的管理、窗口工作人员良好的服务给考察组留下深刻印象；在清远市，考察组一行参观了该市政务中心大厅，现场观看电子监察审批系统演示，听取效能监察室机关效能建设工作汇报，并对该市通过明察暗访加强机关工作作风建设表示赞许。市监察局负责人表示，通过学习考察，开阔了视野，增长了见识，回去之后市效能办将结合工作实际，借鉴先进市县的成功做法，进一步促进我市机关效能建设工作，优化经济社会发展环境。 据了解，江苏省镇江市于2002年建成功能齐全的政务服务中心，中心占地面积4000平方米，该市所有行政审批事项均进入政务服务中心，服务事项齐全，招投标中心、中介服务事项统一纳入政务中心管理。清远市于2003年7月设立机关效能监督投诉中心，制定《清远市机关效能投诉工作规则》等制度，通过明察暗访积极查处效能投诉行为，效能投诉工作取得明显成效。（通讯员韩望 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>225</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>南丰镇到五指山市水满乡开展学习贯彻党的二十大精神暨重走总书记考察调研路活动</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/xz/nfz/gkml/202302/t20230223_3365710.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['南丰镇到五指山市水满乡开展学习贯彻党的二十大精神暨重走总书记考察调研路活动 -- 儋州市人民政府网', '为学习五指山市水满乡乡村振兴、生态文明建设等方面的先进经验，经请示市委同意，我镇于', '日到五指山市开展学习贯彻党的二十大精神暨重走总书记考察调研路活动，调研活动由镇党委书记孙爱丽带队，组织我镇班子成员及包点领导，各村（社区）农场支部书记，各驻村第一书记，工作人员等', '余人赴五指山市水满乡新村、毛纳村、海南热带雨林国家公园五指山自然保护区等地学习调研。', '一是前往五指山革命根据地纪念园参观学习革命先辈先烈的英勇事迹，缅怀革命先烈，接受党性洗礼，并重温入党誓词。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>225</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>白马井镇传达学习习近平总书记在河南省考察并指导第二批主题教育时重要指示精神</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2019-09-25</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/xz/bmjz/gkml/201910/t20191010_2682154.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['白马井镇传达学习习近平总书记在河南省考察并指导第二批主题教育时重要指示精神 -- 儋州市人民政府网', '9月23日上午，吴如兰书记主持召开白马井镇党委中心理论组学习会议，传达学习习近平总书记在河南省考察并指导第二批主题教育时重要指示精神。', '会议强调，要认真学习习近平在河南考察时强调坚定信心埋头苦干奋勇争先谱写新时代中原更加出彩的绚丽篇章，认真贯彻落实党中央、省委省政府及市委市政府的决策部署，不忘初心敢担当，牢记使命再出发，坚定信心，埋头苦干，攻坚克难，以优异成绩迎接新中国成立70周年，努力建设美好白马井。', '会议要求，要充分运用“学习强国”APP，掀起学习新热潮，镇党委班子带头学习习近平在河南考察时强调内容，认真细读，学深悟透，做好表率。以包点工作组为单位或各管线为单位，组织开展“不忘初心、牢记使命”主题教育，让全镇党员干部职工多学习习近平新时代中国特色社会主义思想、党史和新中国史，坚持常学常新，不断感悟，坚定理想信念，提高宗旨意识，提升工作能力。结合实践工作，努力抓实抓好我镇人居环境、乡村振兴工作、党建工作、重点项目工作等各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>225</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>学习习近平总书记在海南考察时的重要讲话和刘赐贵书记在七届省委常委会第次会议上的讲话</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2017-06-19</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/bm/shuiwj/gkml/201812/t20181229_2052293.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['学习习近平总书记在海南考察时的重要讲话和刘赐贵书记在七届省委常委会第6次会议上的讲话 -- 儋州市人民政府网', '标题：学习习近平总书记在海南考察时的重要讲话和刘赐贵书记在七届省委常委会第6次会议上的讲话', '2017年6月19日晚，市城管执法局召开党组理论中心组学习(扩大)会议，传达学习习近平总书记2013年在海南考察时的重要讲话精神和刘赐贵书记在七届省委常委会第6次会议上的讲话：《认识好干部 培养好干部 用好好干部》。会议由局党组书记、局长符明星主持，局党组成员、局机关以及局管各单位中层以上干部参加会议。', '通过学习，大家一致认为，习近平总书记的重要讲话，进一步明确了海南在我国改革开放全局中的独特地位和作用，体现了新一届党中央对海南的巨大关怀，为新形势下海南深化改革开放、加快科学发展指明了方向，注入了强大动力，是指导海南经济社会发展的重要思想和行动纲领。 刘赐贵书记在七届省委常委会第6次会议上的重要讲话，深入贯彻落实习近平总书记在2013年6月全国组织工作会议上的重要讲话精神，对抓好当前和今后一个时期的组织工作提出了十点意见，明确了新一届省委抓班子、带队伍、选人用人的具体要求。', '会议要求，城管系统要认真学习习近平总书记2013年在海南考察时的重要讲话精神和刘赐贵书记在七届省委常委会第6次会议上的讲话精神，迅速掀起学习热潮，学深悟透，真正领会要义，做到认真学习、武装头脑、指导工作。刘赐贵书记讲话中提出的十点意见，是省委抓干部队伍的重要遵循，是组织工作的方向，是选人用人的导向，城管系统要完全按照要求结合自身工作特点抓好落实。', '会议强调，局管各单位特别是局党组成员要结合深入推进“两学一做”学习教育常态化制度化，坚持带头学习、以上率下，立标杆、做示范，并做到学以致用，把学习成果转为工作实效，转化为推动城市管理的动力，在贯彻落实刘赐贵同志讲话精神和省第七次党代会精神中取得新成果，全面开创城市管理事业发展新局面。', '会议还传达近期省、市纪委关于违反八项规定的相关通报，并学习了《海南省各级党委、政府及有关部门生态环境保护工作职责》和《中国共产党党组工作条例（试行）》。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>225</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>外出学习展视野鼓足干劲开新局和庆镇木排村组织村干部外出考察学习</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2024-03-28</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/xz/hqz/gkml/202404/t20240409_3641479.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['外出学习展视野 鼓足干劲开新局│和庆镇木排村组织村干部外出考察学习 -- 儋州市人民政府网', '又是一年春来早，扬帆起航正当时。为进一步开阔眼界拓宽工作思路，加快推进木排村农文旅融合发展，3月23日，和庆镇木排村组织村两委干部、驻村工作队以及各村小组组长、文旅公司（以下简称考察组成员），共同赴临高县耕读山房及澄迈县保良古村、龙江村等地学习借鉴乡村振兴发展经验。', '在临高县“耕读山房”，考察组成员详细了解当地传统村落保护开发、民宿产业发展、“五色”劳动教育研学产业发展等方面所取得的成功经验和先进做法。', '据介绍，临高“耕读山房”项目推动模式的特色主要是“由合作社整合盘活农村资源，吸引企业进入谋划项目、投资建设和运营，实现了农村发展要素的聚集”，形成三产联动、资源产业深度融', '此项工作经验对木排村的乡村振兴发展有着深刻的启示，考察组成员一路看、一路学、一路记、一路思、一路悟，在学习考察中分享经验，在交', '随后，考察组一行又来到澄迈县保良古村学习人才振兴及农文旅融合发展的经验。据了解，近年来保良古村积极发展特色乡村旅游，吸引不少青年返乡创业。他们利用本土资源，发展乡村旅游和现代农业，使古村落焕发新活力，成为返乡青年和乡村振兴的典范。在这群返乡青年的努力下，村里越来越多沉睡的资源被唤醒，变成“网红”旅游地。目前村内设有原生态豆腐坊、酒坊、薏粿小吃坊，同时提供收稻谷、插秧、剪咖啡枝等特色农事体验，还有手冲咖啡过程体验、户外拓展、露营野餐等项目供游客选择，获得不少游客青睐，为运营公司也为村集体创造了可观的收益。保良古村一行切实让每一名考察组成员深刻的了解到乡村振兴并非空谈，而是实实在在可以通过人才和特色产业发展来实现的。', '据悉，龙江村曾是澄迈县赫赫有名的“红色村庄”，早在大革命时期，冯白驹、马白山和冯平等革命志士就曾在该村进行革命活动。', '到达龙江村，考察组成员与村支部书记及村长就双方属地的红色党史及红色文旅资源开展了亲切的交流，同时也就两地开展互', '访、共同打造红色精品旅游线路等议题进行了探讨，力争在日后能充分融合两地文化，更好地推动两地旅游高质量发展，让两地的广大群众了解红色历史，更好的传承红色文化赓续红色血脉。', '木排村支部书记符汉任表示，通过本次考察学习活动的开展，不仅学习到兄弟市县的先进经验、有效做法，也通过对标先进找差距进一步理清了工作思路。接下来，木排村将切实把考察学习成果转化为推动木排高质量发展的动力，真正实现“走出去、学进来”，因地制宜发挥本地资源优势，走出一条具有木排特色“红、蓝、绿、古”交相辉映的乡村振兴之路。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>225</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>洋浦经济开发区投资促进局传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/bm/swj/gkml/202205/t20220506_3185786.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['洋浦经济开发区投资促进局传达学习习近平总书记考察海南时的重要讲话精神 -- 儋州市人民政府网', '4月18日上午，洋浦经济开发区投资促进局党组书记郑妮主持召开局党组理论学习中心组（扩大）学习会，传达学习习近平总书记考察海南时的重要讲话精神。', '会议指出，习近平总书记亲临海南考察指导，并发表了立意高远、思想深刻、内涵丰富的重要讲话，赋予海南新的使命，提出更高要求，意义重大、影响深远。局全体干部职工要深刻认识总书记重要讲话的重大意义，把总书记的殷殷嘱托转化为强大动力，以担当作为奋力推进中国特色自由贸易港建设，高质量推进儋州洋浦一体化发展。', '会议强调，要把深入学习贯彻落实习近平总书记考察海南时的重要讲话精神，作为当前和今后一段时期的首要政治任务，把思想和行动统一到党中央和省委省政府、市委市政府决策部署上来，把学习贯彻总书记重要讲话精神转化为推动工作发展的强大动力。', '会议要求，要组织学习考察，局党组成员及各科室负责人、工作专班组长要跟随习近平总书记考察足迹，身临其境领会习近平总书记重要讲话精神。要结合局工作职能，立足岗位，聚焦中心工作履职尽责。要解放思想，靠前服务，以能力提升建设年为契机，补短板、强弱项，以只争朝夕的精神，奋力扛起洋浦投资促进局担当，助推儋州洋浦一体化发展高质量实现！']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>225</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>天津市开发区国地税局到我市考察学习</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017-04-27</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201704/t20170427_1785149.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息 4月24日，天津市经济技术开发区国税局局长吕宝国、天津市滨海新区第四地方税务局局长刘建强等一行10人组成考察团，到市国税、地税局考察学习国地税合作工作经验。 2016年12月，儋州获评“全国百佳国地税合作县级示范区”荣誉称号，一系列的国地税合作先进做法和经验在全国范围内引起关注。当天，考察团来到市国地税联合办税厅，参观了办税服务厅建设情况，详细了解联合办税大厅的办税功能区设置、人员配置及管理使用、优化纳税服务举措和相关管理制度规定等情况 ，并仔细询问“一窗式”办税模式推广情况。 在考察中，考察团对我市国地税合作工作给予高度评价，称赞儋州做法值得学习借鉴。考察团相关人员表示，儋州国地税合作有值得重点学习，一是儋州国地税坚持问题导向，始终以解决纳税人问题为推进国地税合作的总目标。二是制度完善，在各项合作中均出台了相关制度，在推广之前搭建了完整的框架。三是措施全面具体，统一进行培训和考核等措施极大促进了联合办税服务厅的标准化水平。四是创新性强，儋州国地税自行研发创建国地税电子导税平台，提高了办税服务质效，“互联网+”等手段的应用极大方便了纳税人办税，微信平台的开发和使用加快了办税服务厅立体化拓展。（记者林晓云 通讯员张新民 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>225</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>儋州市妇联关于组织赴海口琼海学习考察的通知</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2014-10-24</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/DZFL/flxxzx/flzxgg/201410/t20141024_1530711.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['为进一步加强妇女阵地建设，学习借鉴外市县妇女工作的先进经验，开拓妇女干部视野，进一步推动妇联工作，市妇联决定组织妇联干部赴海口、琼海学习考察。现将有关事项通知如下：', '学习考察海口、琼海妇女工作经验，重点学习考察村、社区“妇女之家”工作的好做法、好经验。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>225</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>王琼珠带队赴琼海考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2011-11-03</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201111/t20111104_1760158.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息 为推进我市社会管理创新工作出实效、上新台阶，11月2日，市委副书记、政法委书记王琼珠带领我市综治维稳领导干部赴琼海考察学习社会管理创新工作经验。 当天，我市考察团一行首先来到了琼海市阳江镇上科村社会管理服务中心，详细了解了该村创新农村社会管理“三站”、“四模式”。“三站”即建立民情服务工作站、综治维稳工作站、矛盾排查调处工作站，形成了“村‘两委’牵头协调、职能部门密切配合、村民广泛参与”的社会管理服务；“四模式”即以民情村办为重要机制的服务模式，以家庭为主体的戒毒帮教模式，以技防为重要手段的防控模式，以健全护村队为主要措施的联防模式。听取了“三站”、“四模式”的工作经验介绍后，考察团对阳江镇上科村的新型农村社会管理模式表示肯定。 随后，考察团一行来到了加积镇综治工作中心、流动人口服务管理中心参观考察，认真了解加积镇社会管理创新综合试点工作开展情况。在流动人口服务管理中心，考察团了解到，为了做好流动人口管理工作，嘉积镇成立了嘉积、城北、城南、温泉、上?等5个流动人口管理服务站，对流动人员进行跟踪性服务和管理。目前，嘉积镇又将这5个流动人口管理服务站全部整合为1个流动人口服务中心，全面统筹协调管理流动人口工作。 最后，考察团一行还参观了加积镇登仙岭社区，大家对加积镇登仙岭社区社会管理创新工作中的“社区群防群治实施全天候防控、流动人口管理与服务相结合、组建保洁队伍营造整洁环境、职能安防监控人防向技防升华、社区文体活动陶冶文化生活情操”等做法特别感兴趣，表示回去后要将本次琼海之行所学到的经验，认真借鉴，努力推动我市社会管理工作，更上新台阶。（记者冼贺 编辑何一）']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>225</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>市人大常委会率队赴青岛学习考察</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2017-05-14</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201705/t20170514_1785240.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息为进一步提高各镇人大领导履职能力，提升基层人大工作水平，更好地服务儋州经济社会发展，4月24日至29日，市人大常委会副主任吴勇率我市各镇人大主席和副主席共26人前往山东省青岛市学习考察。 市人大常委会副主任张玉萍，市人大常委会副秘书长李金良及部分市人大常委会干部一同考察学习。 吴勇指出，组织各镇人大主席和副主席外出学习，是市委对市人大常委会工作的大力支持，参训成员要结合工作实际深入思考，把青岛人大工作的先进理念和经验方法融入到儋州基层人大工作中，不断提升基层人大工作水平，为儋州经济社会科学快速发展提供新的动力。 学员们纷纷表示，此次培训受益匪浅，作为乡镇人大领导，要正确行使好宪法和法律赋予的各项职责，积极探索、善于创新，推动人大工作不断创新发展，提升人大工作整体水平，在儋州建设海南西部中心城市中发挥人大的职能作用。 据了解，此次外出学习考察主要围绕如何履行好代表职务，如何提高代表建议、批评和意见的质量，深入贯彻落实《监督法》做好人大监督工作，学习生态文明建设与青岛可持续发展等内容来进行。 学习考察期间，学员们还实地参观考察了青岛市政设施建设和重点企业等。（记者李国妹 通讯员麦乃舜 编辑范志平）']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>225</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>儋州市交通运输局党理论中心组深入学习习近平总书记在河南考察并指导第二批主题教育时重要指示精神</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2019-09-20</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/zfxxgkzl/bm/jtj/gkml/201909/t20190925_2677040.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['儋州市交通运输局党理论中心组 深入学习习近平总书记在河南考察并指导第二批主题教育时重要指示精神 -- 儋州市人民政府网', '标题：儋州市交通运输局党理论中心组 深入学习习近平总书记在河南考察并指导第二批主题教育时重要指示精神', '9月20日上午10:00，交通运输局理论中心组召开会议，深入学习习近平总书记在河南考察并指导第二批主题教育时重要指示精神，对开展第二批主题教育等工作进行研究部署。局党组、局长书记王国臣主持会议，党组成员、副局长陈炳亮，党组成员、行政审批办主任聂劲庭，副调研员燕辉，办公室主任朱振官，交通运输执法支队副支队长吴雷，地方公路管理站副站长李绵能参加会议。', '会议指出，要深入贯彻落实习近平总书记重要讲话精神，巩固推动第二批主题教育高质量开展。要抓住受教育这个中心环节，聚焦主题，紧扣主线，坚持不懈用党的创新理论武装头脑、滋养初心、引领使命，推动学习贯彻习近平新时代中国特色社会主义思想往深里走、往心里走、往实里走。要坚持高标准、重实效，注意前后衔接，强化上下联动，持续推进第一批单位常态教育和整改落实，确保第二批主题教育高起点开局、高质量开展，把开展主题教育与庆祝新中国成立70周年结合起来，与抓好本地区本部门本单位的中心工作结合起来，与回应群众呼声满足人民美好生活需要结合起来，发扬斗争精神，勇于担当作为，把各级党组织和党员干部在主题交通中激发出来的强大动力转化为高质量发展的扎实成效。', '会议指出，要深入贯彻落实习近平总书记重要讲话精神，巩固推动第二批主题教育高质量开展。要抓住受教育这个中心环节，聚焦主题，紧扣主线，坚持不懈用党的创新理论武装头脑、滋养初心、引领使命，推动学习贯彻习近平新时代中国特色社会主义思想往深里走、往心里走、往实里走。要坚持高标准、重实效，注意前后衔接，强化上下联动，持续推进第一批单位常态教育和整改落实，确保第二批主题教育高起点开局、高质量开展，把开展主题教育与庆祝新中国成立', '，按照中央部署和海南省委以及市委安排，儋州市交通运输局主题教育从9月份开始，到11月底基本结束。以这次动员部署会议为标志，儋州市交通运输局主题教育工作正式启动。就开展好“不忘初心、牢记使命”主题教育，会议要求：一是要深刻理解习近平总书记重要讲话精神，充分认识开展主题教育的重大意义。开展主题教育是用习近平新时代中国特色社会主义思想武装全党的迫切需要；是推进新时代党的建设的迫切需要；是保持党同人民群众血肉联系的迫切需要；是实现党的十九大确定的目标任务和海南建设自由贸易区（港）以及西部中心城市建设的迫切需要，全局上下要把思想和行动统一到习近平总书记重要讲话精神上来，统一到党中央重大决策和海南省委以及儋州市委安排部署上来，切实增强责任感和紧迫感，精心组织、周密安排、扎实推进，确保主题教育在全局取得实效。二是要聚焦主题教育目标要求，全面落实各项重大举措。要牢牢把握“守初心、担使命、找差距、抓落实”的总要求，牢牢把握三大根本任务和五项具体目标，做到“四个突出”，即，突出理论武装，深化学习教育，把深入学习习近平新时代中国特色社会主义思想贯穿始终；突出破解难题，开展调查研究，推动党中央决策部署落地落实；突出深挖细照，深刻检视问题，以刀刃向内的自我革命精神找准找实差距不足；突出“改”字当头，强化整改落实，确保主题教育取得实实在在成效。三是要着力压实责任，加强对主题教育的领导。儋州市交通运输局已制定了主题教育《实施方案》和局党组主题教育工作安排，成立了主题教育领导小组和领导小组办公室。各级党组织主要负责同志要担负起第一责任人责任，局属单位领导班子成员要认真履行“一岗双责”，对分管领域加强指导督促。要做好舆论宣传引导工作。要抓住当前有利时机，统筹安排好时间和精力，确保主题教育和交通运输发展两促进、两不误、两提高。', '会议强调，开展好主题教育，意义重大而深远。全局上下一定要更加紧密地团结在以习近平同志为核心的党中央周围，按照中央和海南省委以及儋州市委的部署要求，高质量完成主题教育各项任务，进一步铭记初心使命、激发奋进力量，努力开创儋州市交通运输事业发展的新局面，为新时代儋州全面振兴全方位振兴提供交通运输保障，为实现“两个一百年”奋斗目标、实现中华民族伟大复兴中国梦而努力奋斗，以优异的主题教育成果向中华人民共和国成立70周年献礼！', '会议强调，开展好主题教育，意义重大而深远。全局上下一定要更加紧密地团结在以习近平同志为核心的党中央周围，按照中央和海南省委以及儋州市委的部署要求，高质量完成主题教育各项任务，进一步铭记初心使命、激发奋进力量，努力开创儋州市交通运输事业发展的新局面，为新时代儋州全面振兴全方位振兴提供交通运输保障，为实现']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>225</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>市营商环境建设局到海口考察学习</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2022-04-24</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220424_3179823.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['儋州市融媒体中心消息 4月20日，市政府党组成员、洋浦工委委员、管委会副主任、市营商环境建设局党组书记、局长张勇军率考察团一行到海口考察学习，进一步开阔干部职工眼界，拓宽思维，通过服务理念、服务方式的改变优化营商环境，力争2023年营商环境创省内一流。 当天，考察团一行先后到省政务中心、省社保中心、省优化营商环境工作专班办公室、海口市龙华区政务服务中心等单位考察学习行政审批改革、制度集成创新、标准化服务管理、营商环境建设等方面的先进经验。 “我们将从四个方面进行学习，一是学习社保中心改革创新的思路；二是以百姓的需求为出发点，以问题为导向，从群众反映最强烈的急难愁盼问题，最终获得改革的共识，明确改革的必然；三是社保中心以数字共享，流程再造为重点，推动服务规范化、标准化、便民化，实现参保人员全覆盖；四是信用的管理及事中事后的监管等方面标准化的服务、利企便民的措施。这些都非常值得我们学习和借鉴，希望今后继续加强探讨，多沟通多交流。”张勇军说。 考察学习中，张勇军指出，工作存在差距，关键在于人。大家平时要多想多做多用心，认真梳理和总结经验，以此次考察为契机，继续深化拓展“能力提升建设年”活动，加强干部职工能力建设，着力破解难题，找准差距，补齐短板，以更坚定的信心、更昂扬的斗志、更有力的举措，扎实推进制度创新改革、行政审批改革、优化营商环境等各项工作，推动我市营商环境工作再上新台阶。（儋州融媒全媒体记者韦雪梅 通讯员张振华 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>225</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>儋州市知联会组织调研组到海口考察学习</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2018-11-14</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201811/t20181114_1791905.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['儋州新闻中心消息 为学习我省其它市县在乡村振兴发展中的好经验、好做法，11月11日，儋州市知联会组织调研组来到海口市，紧随习近平总书记在海口视察时路线进行考察学习。 在特色产业方面，调研组先后来到海口市石山镇施茶村的火山石斛园种植基地，罗经村的橄榄与莲花种植基地进行实地调研，就特色产业如何打破传统农产品交易方式，依靠特色化、品牌化、营销化、市场化及农村电子商务实现产业转型升级新跨越，与企业负责人进行探讨。 在美丽乡村建设方面，调研组先后考察了海口市美丽乡村中的高山村、美社村以及罗经村。考察中，海口市在实施乡村振兴战略建设中，以“产业兴旺、生态宜居、乡村文明、治理有效、生活富裕”为总体要求，以“绿水青山就是金山银山”为发展理念，重视统筹城乡一体化发展，强化以科学规划为引领，因地因村制宜，强调人与自然相和谐，注重人文景观及自然景观的保护和利用，以及以整村规划为主，加强对乡村卫生环境的治理，对生活垃圾、生活用水进行无害治理等方面的做法和经验给调研组成员留下了深刻印象。 通过考察学习，调研组成员一致认为，乡村振兴战略是谋划新时代乡村振兴的顶层设计。儋州乡村资源优势得天独厚，在规划建设中，应以乡村振兴战略中的五大核心理念为主，多学习借鉴其它市县好的经验和做法。在产业开发中，应大力发展高效特色产业，探索出一条符合自身实际，人无我有的特色产业路子。在美丽乡村建设中，应以统筹城乡一体化为要求，注重整村科学规划建设，以保护乡土资源，深挖文化底蕴，留存乡风民俗，突出农村文化特色为主线，统筹推进城乡一体化发展。大家表示，将认真总结此次考察学习的成果，充分发挥党外知识分子的集中优势，积极撰写提案议案，为儋州实现新时代乡村振兴建言献策。（符文秀 编辑温子烨）']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>225</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>东方市考察团来儋学习文明生态村建设经验和做法</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2017-07-09</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201707/t20170709_1785826.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['东方市考察团来儋学习文明生态村建设经验和做法 -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 7月7日，东方市委常委、宣传部长钟海涛率东方市委宣传部考察团一行来到我市，考察学习我市文明生态村建设的经验和做法。 当天，考察团一行人首先来到木棠镇铁匠村，他们一进村里，就被村里的美景所吸引，村里绿树成荫，景色别致，孩子嬉戏，老人休憩，青壮年正在忙着加工花梨工艺品，这与考察团印象中的“空心村”、空巢家庭大相径庭。 据了解，铁匠村现在家家户户以加工花梨工艺品为主，同时开发贝壳、海柳等工艺品，产品畅销全国各大城市。目前全村有300多家加工作坊，从业人员达2100多人，2016年全村生产总值达3.5亿元，不但解决了全村人的就业，还不断吸引附近的闲散劳动力，形成辐射效应。据统计，2016年全村开通网店110家，销售额达5000万元，实体店铺共40家，销售额达2.8亿元左右，全年到铁匠村旅游的游客达3万人，全村人均纯收入达到2.5万元。考察团一行对铁匠村人艰苦创业，努力拼搏，敢于改变落后面貌过上富裕生活的精神纷纷给予点赞。 随后，考察团一行走进那大镇力乍村。如今的力乍村已经发展成为一个集居住、休闲、娱乐、美食为一体的农家生态旅游村庄。考察团一行人坐在凉亭下，品着柠檬茶，尝着各种特色小吃，看着村里美景，对力乍村的环境赞不绝口。考察团同时认真考察了村里的基础设施建设和管理理念等情况，并就农业产业发展、农民增收等问题进行了讨论。 考察团成员纷纷表示，儋州市文明生态村的建设各具特色、丰富多彩，基本上实现了一村一品、一村一景，展示了文明生态村的丰富内涵。通过文明生态村的创建，儋州农村的村容村貌、经济条件和村民精神面貌都发生了很大变化，成为了展示文明生态创建成果的生动窗口。此次考察既开阔了眼界，又拓宽了思路，回去以后会把儋州的好经验和好做法融入到东方市的宣传工作中，力争把东方市的宣传思想文化工作做出特色、做出亮点。（记者林晓云 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>225</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>儋州市食药监局考察组到澄迈县局学习交流</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2017-05-10</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/xxgk/dzzwdt/zwdt/201709/t20170907_1703566.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['近日，儋州市局冼国文局长、符哲伟副局长带领各食药监所、各业务科室、稽查支队负责人到澄迈县福山食药监所考察学习，澄迈县局邱积权局长、王澄培所长一行陪同考察。', '交流会上，邱积权局长分享了澄迈县局管理制度、队伍建设等方面好的做法经验，接着王澄培所长对福山所的情况进行简要介绍。冼国文局长认真听取后，对澄迈县局的监管方式、取得成绩表示赞许，并向随行考察人员强调：一是高度重视，深刻学习。福山所作为全国食品药品监督管理系统先进集体，是儋州市局建设高效监管队伍的学习典范，各负责人要珍惜此次考察学习的机会，积极交流、取长补短、提振信心、鼓足干劲，为全局监管工作注入新的动力。二是狠抓落实，确保成效。要把新思路、新方法主动融入到打造“食品药品安全省”的具体实践上来，咬定目标、迎难而上，在解决问题中抓落实、出实绩、促发展。在考察过程中，澄迈县局陪同人员与考察人员进行深入细致交流，知无不言言无不尽，并大方提供了福山所各项管理制度、监管对象档案、日常巡查工作清单等文件资料给考察组学习，充分展现了兄弟单位之间互相帮助、团结一致的情谊。', '最后冼国文局长表示，此次考察学习收获很大，儋州市局将充分借鉴福山食药监所的成功经验，结合实际摸索制定出适合基层监管队伍发展的的工作机制，同时也希望在今后的工作中继续加强经验交流，相互借鉴，共同推动食药监管工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>225</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>市妇联考察团赴海口琼海学习妇女之家建设</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2014-11-03</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/DZFL/flxxzx/201411/t20141103_1530879.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['为提高儋州市各镇、农场“妇女之家”建设水平，维护妇女群众合法权益，充分发挥“妇女之家”阵地作用，建立起基层妇联组织参与社会管理创新的工作机制。10月29日，市妇联组织市妇联常委、各镇妇联主席和地方农场女工委的妇女干部一行31人，赴海口市、琼海市考察学习“妇女之家”建设，受到海口市、琼海市妇联的热情接待。', '考察团一行先后参观了琼海市博鳌镇朝烈村“妇女之家”、加积镇山叶社区“妇女之家”，海口市玉沙社区“妇女之家”，听取了工作经验介绍，翻看档案并认真参观了场地建设、配套设施等。儋州市的姐妹们对海口市、琼海市“妇女之家”建设情况表示赞赏，特别是各地“妇女之家”心灵对话室、阅览园地等温馨的布置体现了以妇女为本，真正成为了“坚强阵地”和“温暖之家”，大家都感觉受益匪浅。姐妹们纷纷表示，回去后将学习借鉴各市县的先进经验，开展好“妇女之家”工作，更好地维护妇女姐妹合法权益。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>225</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>市医疗保障局到省内各市县考察学习</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2022-02-21</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202202/t20220221_3145555.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['儋州市融媒体中心消息 近日，市医疗保障局赴兄弟市县对公务员医疗补助相关工作、医疗救助工作、防范因病返贫致贫工作、医保经办的管理工作等多方面进行考察学习。 考察学习组分别到文昌、海口、琼海、三亚、临高、昌江、东方共7个市县。通过考察学习了解到，我省各市县对公务员医疗补助（以下简称公补）发放对象主要有两种类型，一类是仅对全额拨款单位的全额拨款人员发放公补，一类是对所有有编制的人员均发放公补。 “通过本次考察学习，我局对如何做好公补工作、医疗救助工作和防返贫监测工作有了更清晰的认识，对我局进一步改进工作方式，提高工作效率起到良好的促进作用。”市医保局局长李若梅表示,下一步，市医保局将综合本市当前公补发放的情况，分别评估按照以上两个类型发放公补所需的财政预算、具体措施、社会影响等，进一步提请市政府讨论决定。同时吸取其他市县的先进经验，将公补和社保网上申报工作和工资审核发放工作结合在一起，简化公补申报流程。（儋州融媒全媒体记者韦斌 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>225</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>市各级人大代表赴兄弟市县考察学习学习外地经验拓宽发展思路</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2013-04-17</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/tpxw/201306/t20130613_1726817.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['市各级人大代表赴兄弟市县考察学习—— 学习外地经验 拓宽发展思路 -- 图片新闻 -- 儋州市人民政府', '儋州新闻中心消息 为学习借鉴外地先进经验，进一步提高代表履职能力和水平，4月12至13日，市人大常委会副主任、那大镇委书记陈海洁率市各级人大代表赴定安、屯昌和琼海考察，学习兄弟市县在城镇化建设、民族文化传承与创新、新农村建设等方面的成就。 考察团一行先后来到定安县文笔峰盘古文化旅游区、屯昌县海南圣大木业高密度纤维板厂、琼海市博鳌镇朝烈村等地考察学习。 在屯昌县海南圣大木业高密度纤维板厂，市人大代表们深入生产车间，兴致勃勃参观了工厂建设。该公司是一家专门从事生产人造板制造和销售的公司，主要建设高标准、环保、节能的世界先进的人造板生产线。该项目按国际标准建设，填补了我省木材深加工行业的一项空白。通过参观考察，代表们认为，高密度纤维板厂项目生产所用的木材原料为林区砍伐的剩余物、枝丫材、木材加工企业的边角料及农场更新的橡胶木枝丫等材料，不仅节约木材资源的项目，同时也带动了农民就业，促进了当地经济发展。 博鳌镇朝烈村是琼海市首个乡村公园，该公园根据当地实际将朝烈村辖区所属的大路坡村、美雅村等5个村小组的旅游元素重新整合，开设旅游驿站、咖啡馆、农家乐和民宿等，为游客提供一个休息交流的平台及最具当地特色的休闲娱乐环境。代表们边走边听介绍，并对该村新农村建设取得的成就给予高度评价，认为该村的好经验、好做法值得儋州学习借鉴。 通过两天考察学习，琼海等市县在新农村建设、重大项目建设和工业发展等方面取得的成绩给我市人大代表留下了深刻印象，大家表示，通过此次考察，解放了思想，开阔了视野，增强了干劲，提升了能力。回去后充分学习借鉴这些市县的好经验和好做法，结合本地实际，利用好资源优势，为各项建设积极建言献策，为儋州经济社会发展做出应有贡献。（记者韦雪梅 李绍远 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>225</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>马飞率队赴三亚乐东陵水和保亭学习考察配图</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202403/t20240319_3622596.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['马飞率队赴三亚、乐东、陵水和保亭学习考察（配图） -- 今日儋州 -- 儋州市人民政府', '考察期间，考察组先后到乐东县抱邱陶瓷文化基地、龙栖湾智慧海洋牧场陆域项目基地，三亚市崖州湾科技城产业促进中心、中央商务区管理局，陵水县黎安国际教育创新试验区、南湾村和美乡村，', '保亭县槟榔谷黎族传统文化博物馆等10多处考察点，看产业、看现场，听情况、听介绍，学经验、找差距。', '首次针对专门河流进行立法，以法治手段加强三亚河的生态保护管理；乐东县坚持“小切口”立法，守好饮用水水源保护区；陵水县黎安国际教育创新试验区提出的“大共享+小学院”，办学主体“拎包入住”创新模式；保亭县将生态民俗与旅游扶贫有益结合，促农增收致富等典型经验有了深刻', '一体化高质量发展。一是学习先进，把握政策趋势，抢抓产业“风口”，以高质量项目支撑一体化高质量发展', '三是发挥优势，及时梳理以东坡文化为代表的文旅资源，因地制宜发展特色旅游，实现文旅产业全面发展、整体提升。四是学以致用，坚持“小切口”“小快灵”和“管用几条立几条”的原则，加强立法工作谋划，着力解决好一体化过程中城乡建设与管理、生态文明建设、历史文化保护、基层治理等方面存在的突出问题，真正将取得的“真经”转变为推动高质量发展的实招、硬招、妙招、高招。', '三是发挥优势，及时梳理以东坡文化为代表的文旅资源，因地制宜发展特色旅游，实现文旅产业全面发展、整体提升。四是学以致用，坚持', '三亚市人大常委会主任刘耿，乐东县人大常委会主任王家俊，陵水县人大常委会主任张隆挺，保亭县人大常委会主任王秀美参加有关学习考察活动。', '市人大常委会副主任侯启江，市人大常委会秘书长、机关二级巡视员李昌本及市人大常委会法制工委、教科文卫工委负责人一同考察。（']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>225</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>儋州市赴广西考察学习殡葬改革先进经验</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/xxgk/dzzwdt/zwdt/202405/t20240517_3664814.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['2024年5月13日至14日，儋州市政府副市长王凌融率队赴广西壮族自治区钦州市、崇左市等地实地考察学习殡仪馆运营管理、节地生态公墓建设、公墓运营管理、火葬区划定等方面经验做法。', '5月13日上午，考察组首先来到钦州市殡仪馆，详细了解了殡仪馆的服务流程、整体布局以及硬件设施等内容。随后，考察组与钦州市政府进行了座谈交流，就殡仪馆运营管理模式、服务细节、火葬区划分、惠民殡葬补贴以及殡葬改革宣传等方面进行了全面探讨。', '13日下午，考察组参观了钦州市华祖园公墓，对钦州市公墓的建设理念、整体布局、生态景观、经营策略等内容进行了详细了解。考察组对华祖园公墓的整体布局和绿色生态人文理念表示高度赞赏，尤其是景观、文化与节地安葬的有机结合，不仅为逝者提供了安宁的归宿，也为家属提供了心灵的慰藉。', '5月14日，考察组来到崇左市扶绥县，参观了扶绥县殡仪馆和七星山人文生态公园。殡仪馆成熟的运营管理模式、设施设备建设、殡仪特色服务，七星山人文生态公园一站式服务枢纽建设理念和多元服务给考察组留下了深刻印象，其先进的服务理念为儋州市殡葬改革提供了新的思路。', '通过此次深度考察学习，考察组全面了解了广西在殡葬改革方面的先进经验和做法，为我市运营海南西部殡仪中心提供了宝贵的启示和借鉴。儋州市将以此次考察学习为契机，继续深化殡葬改革工作，推动殡葬事业向更加文明、绿色、人文的方向发展，为群众提供更加优质、专业的殡葬服务。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>225</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>市委督效办传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220418_3176365.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['市委督效办传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月15日下午，儋州市委督查和绩效考评委员会办公室召开理论学习中心组（扩大）学习会，传达学习习近平总书记在考察海南时的重要讲话精神、省委书记沈晓明在七届省委常委会第243次（扩大）会议上的讲话精神及在儋州市（洋浦经济开发区）领导干部大会上的讲话精神，传达学习第十三届市委常委（洋浦工委）第21次扩大会议精神。 会议强调，督效办全体干部职工要充分认识习近平总书记考察海南的重大意义，把深入学习贯彻习近平总书记考察海南时的重要讲话精神作为当前首要政治任务，提高政治站位，内化于心、外化于行，积极探索督查和绩效考评制度集成创新成果，运用新观念、新思维、新方法开展督查和绩效考评工作。要以“激情干事业，挑战不可能”的态度，进一步提升各项工作水平，勇于担当、主动作为，发挥督查和绩效考评职能，以督查保政策落实，以绩效考评促作风转变，推动市委、市政府各项工作部署落到实处，在推进儋州洋浦一体化发展、打造海南高质量发展第三极中展现督效人的新精神、新面貌、新担当、新作为。（儋州融媒全媒体记者韦雪梅 通讯员陈敏 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>225</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>省高校哲学社会科学教学科研骨干研修班学员到我市考察学习</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2011-11-16</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201111/t20111117_1760389.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['省高校哲学社会科学教学科研骨干研修班学员到我市考察学习 -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 11月16日，省高校哲学社会科学教学科研骨干研修班学员到我市考察学习，了解儋州的历史文化、城市规划和经济社会发展情况。 当天，副市长胡德智运用图文并茂的PPT方式，从儋州的基本情况、总体规划和展望儋州“十二五”规划等方面向学员们详细介绍了儋州“十二五”规划的情况，并与学员们进行现场互动，让学员们对儋州有更直观的了解。 随后，学员们还深入到我市保障性住房——怡心花园进行实地参观，了解我市的廉租房和经济适用房的建设情况。 据了解，该研修班由省委宣传部、省委组织部、省委教育工委和省教育厅主办，省委党校承办。培训内容包括《胡锦涛总书记“七一”讲话解读》、《海南的文化与精神》和《树立社会主义核心价值体系》等课程。培训的时间从10月26日至11月22日结束。（记者冯定坤 编辑王诗波）']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>225</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>市人大常委会组织人大代表赴海口等市县考察学习配图</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2013-05-21</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/tpxw/201306/t20130613_1727287.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['市人大常委会组织人大代表赴海口等市县考察学习（配图） -- 图片新闻 -- 儋州市人民政府', '儋州新闻中心消息 为进一步拓宽视野，转变发展理念，提高人大代表履职能力和水平，5月16日至17日，市人大常委会副主任吴勇率59名市人大代表赴海口、屯昌和文昌等市县，考察学习兄弟市县基层人大代表履职的先进经验、人大支持新农村建设及重大项目建设的好做法。 两天时间里，考察团先后参观了屯昌县西部建材城、农资博览城、油画一条街和文昌航空航天发射基地、八门湾绿道及海口市石山镇美社村新农村建设等，亲身感受近年来兄弟市县在新农村建设和现代农业发展等方面的成就及在推进现代科学技术管理、运营等方面的经验，进一步寻找差距，结合实际，谋求儋州新发展。 屯昌县委、县政府于2009年建设油画村、创办油画街、邀请画师进驻屯昌开办画室，至2011年扶持经费预算达1500万元，下一步还将建设一个油画艺术馆，开发特色旅游产品，逐步形成油画学、产、销、游一体化的发展格局。考察团在考察中认为，我市要借鉴屯昌县打造城市品牌的经验，加快我市城市规划建设步伐，创造性地开展城市建设各项工作，打造出精品工程、亮点工程。 在考察海口市石山镇美社村的新农村建设时，人大代表们认真了解美社村在村庄整体布局、环境卫生整治、资金筹措渠道、发展乡村特色旅游等方面的经验和做法后，认为美社村引进旅游元素，推出农家美食，兴建家庭旅馆，把村庄建成特色休闲度假村的经验值得学习借鉴。 考察结束后，人大代表们表示，将借鉴兄弟市县建设的先进经验，因地制宜探索适合我市经济发展新路子，为实现我市经济跨越发展和建设美丽儋州积极履职尽责。（记者李国妹 冼贺 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>225</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>市委办率队到海口学习考察相互沟通交流借鉴学习经验</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019-05-19</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201905/t20190520_2565341.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['市委办率队到海口学习考察 相互沟通交流 借鉴学习经验 -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 为加强海口儋州两地党办工作交流，促进党办工作交流提升，5月17日，市委常委、秘书长肖发宣率市委办公室干部职工到海口就党办工作进行交流考察学习。', '在海口市委常委、秘书长林海宁，市委常务副秘书长吴畏，市委办公室副调研员林道文出席座谈会或陪同考察学习。', '林海宁说，海口儋州两地在促进海南北部区域和西部区域经济发展、推动全省经济迈向新台阶作出了贡献。今后，两地要深入贯彻落实习近平总书记“4·13”重要讲话精神，携手共进、同步发展；要进一步发挥比较优势，推进产业、贸易、文化等领域实现错位竞争、差异发展；要进一步加深多层次、全方位的合作交流，共同促进“三服务”工作不断迈向高质量。', '肖发宣表示考察学习收获丰富、感触颇多，在施茶村、江东新区和市民游客中心的实地考察中深切感受到海口改革开放的浓厚氛围，认为海口践行“绿水青山就是金山银山”的习近平生态文明思想和“全心全意为人民服务”的具体体现。海口市委办的工作方法值得儋州借鉴和学习，希望两地干部职工今后相互交流、互相学习。', '座谈会上，两地党办负责人就如何开展办会服务、督查工作、办文拟办意见、信息工作机制、规范性文件法核、后勤保障等方面工作进行了交流探讨。', '当天，考察学习团观摩了海口市委办各科室办文、办会、办事等党办工作情况及政务流程，并实地考察了海口市石山镇施茶村石斛基地、江东新区规划展示馆和市民游客中心，参观和了解了相关建设和发展情况。（记者李秋欢 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>225</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>王克强率队前往厦门考察学习借鉴自贸区和美丽乡村建设经验配图</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2018-11-01</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201811/t20181102_1791780.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['王克强率队前往厦门考察 学习借鉴自贸区和美丽乡村建设经验(配图） -- 今日儋州 -- 儋州市人民政府', '11月1日，市人大常委会主任王克强率队前往厦门考察学习自贸区和美丽乡村建设思路。图为王克强在厦门海沧保税港区的整车进口汽车检测场站考察学习。', '市人大常委会主任王克强在福建自由贸易试验区厦门片区内的中欧、中亚国际班列厦门集货中心考察学习。', '据《今日儋州》消息 11月1日，市人大常委会主任王克强率队前往厦门考察学习自贸区和美丽乡村建设思路。他强调，要充分发挥人大及其常委会在全面推进社会经济发展中的重要作用，学习、消化好福建自贸区厦门片区的先进建设经验，全面深入持续地学习习近平总书记重要讲话精神，深刻领会精髓要义，吃透国家政策，以新思想指导新实践，以新作为破解新难题，努力在推动自贸区建设中扛起人大担当。 位于福建自由贸易试验区厦门片区内的中欧、中亚国际班列厦门集货中心，是福建省内唯一贯穿欧亚大陆的直通物流通道，也是中国第一条陆路“安智贸”(中欧安全智能贸易航线试点计划)线路。自2015年8月16日开行以来，经过3年的发展，这两条国际班列已成为中国运行质量最好的班列之一。 当得知中欧、中亚班列通过海铁联运，把东南沿海、中西部及港澳台相连，将东盟十国、中亚地区及欧洲相连，打造了“一带一路”沿线国家物流新通道，搭建了对接欧亚大陆、加快“引进来”和“走出去”的新平台，成为厦门参与国际产能合作的重要桥梁时，王克强指出，厦门把制度创新放在首位，提出的试点任务件件务实，重在发展新业态、促进经济发展、服务国家战略、目标十分清晰，值得学习。 走进厦门海沧保税港区的整车进口汽车检测场站，当地负责人告诉代表们，作为整车进口口岸最重要的环节，整车进口汽车检测场站总用地面积2.8万平方米，已建设完成首期两条检测线，为消费者购买到安全合格的进口汽车保驾护航。王克强表示，不光要学习厦门的先进经验，也要结合《中国(海南)自由贸易试验区总体方案》给予海南关于外资市场准入、贸易、现代服务业、高新技术产业、人才引进等多个领域的众多支持政策，敢闯敢试、敢为人先，真正把中央赋予海南的政策用好用足。', '据《今日儋州》消息 11月1日，市人大常委会主任王克强率队前往厦门考察学习自贸区和美丽乡村建设思路。他强调，要充分发挥人大及其常委会在全面推进社会经济发展中的重要作用，学习、消化好福建自贸', '市人大常委会主任王克强在美丽乡村海沧青礁院前社，听取美丽乡村建设经验。记者 陈永强 摄', '在美丽乡村海沧青礁院前社，代表们齐坐一堂，听着济生缘合作社理事长陈俊雄讲述他是如何带动村民，完成了从“空壳村”到“共同缔造典范村”的美丽蜕变。王克强说，青礁院前社在美丽乡村建设过程中提出的“造人、造物、再发展”“我们变了，村庄就变了”等理念值得学习参考，希望代表们结合儋州实际，总结提炼出一批可供推广的典型经验，全力推动全市美丽乡村建设从“点”到“线”向“面”发展，打造出一批生态文明的幸福家园。 市人大常委会副主任张广英、张玉萍，厦门市人大常委会相关负责人一同考察。（特派记者陈永强 编辑王艺鸯）']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>225</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>白马井镇传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220418_3176538.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['白马井镇传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月15日下午，白马井镇召开全体干部职工大会，传达学习习近平总书记考察海南时的重要讲话精神、省委书记沈晓明在儋州市领导干部大会上的讲话精神。 会议认为，习近平总书记在考察海南时的重要讲话精神，高瞻远瞩、思想深邃、内涵丰富、语重心长，为今后海南的发展指明了方向，全镇干部职工要深入学习贯彻习近平总书记的重要讲话精神，把思想和行动统一到中央的决策和省委、市委部署要求上来，抢抓机遇、开拓奋进，为加快推动儋州洋浦一体化发展、建设具有世界影响力的中国特色自由贸易港贡献力量。 会议强调，要迅速组织学习宣传，认真学习领会，抓好贯彻落实，充分调动全镇干部职工积极性，深化拓展“能力提升建设年”活动；要谋划好重点工作，围绕疫情防控、征地拆迁、加强维稳安保、整治人居环境等重点工作，把总书记重要讲话精神落实到具体工作之中；要紧扣市委的部署要求，以“一天当三天用”的实干作风，加快推进海南自贸港建设。 会议还对即将到来的博鳌论坛和海南省第八次党代会的维稳安保工作进行了安排部署，要求全镇各部门、各包点工作组、各村（社区）要进一步明确人员、职责和任务，加大对土地纠纷等各类矛盾纠纷的排查化解力度；认真排查精神病患者，加强肇事肇祸精神病人管控；加强对重点信访人员的管控，提高监管力，做好各项工作应急预案，对重大敏感事件做好监测、掌握动向，做到人盯人、突出重点，确保工作扎实开展到位。 该镇班子领导、包点领导、政府干部职工、村(社区)支部书记共计140余人参加学习。（儋州融媒全媒体记者夏佟 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>225</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>洋浦检察院传达学习习近平总书记在海南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220418_3176645.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['洋浦检察院传达学习习近平总书记在海南考察时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月14日上午，洋浦检察院召开党组理论中心组学习（扩大）会议，重温习近平总书记“4•13”重要讲话精神，传达学习习近平总书记近期在海南考察时的重要讲话精神。 会议要求，要提高政治站位，充分认识习近平总书记亲临海南、亲临洋浦经济开发区考察的重要意义，认真学习领会、贯彻落实好习近平总书记的重要讲话精神，激发强大工作热情和内生动力，更好更实担当检察使命，为洋浦建设海南自贸港先行区示范区、打造亮丽“海南名片”贡献检察力量。 会议强调，要以习近平总书记在洋浦经济开发区考察为新的起点，深入贯彻习近平法治思想，以高度的政治自觉、法治自觉、检察自觉，依法履行法律监督职责，着力推动洋浦检察工作高质量发展。要聚焦检察主责主业，紧紧围绕“保安全、护稳定”这一主线，全力做好检察环节维护国家政治安全和社会大局稳定各项工作。要认真履行批捕、起诉、监督职能，深入开展扫黑除恶专项斗争常态化、打击治理电信网络诈骗犯罪三年大会战以及新一轮禁毒三年大会战收官战等专项活动，助力推动更高水平的平安海南建设。要聚焦护企安商，依法严厉打击损害企业合法权益的刑事犯罪，强化涉企合法权益保障法律监督，服务保障企业正常生产经营活动，助力营造法治化营商环境。积极探索涉案企业合规改革试点工作，通过办理企业合规案件，推动健全完善各方参与、客观中立的第三方监督评估机制，帮助企业防范法律风险、依法合规经营和持续健康发展。（儋州融媒全媒体记者王家隆 夏佟 通讯员刘石坚 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>225</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>市旅文局传达学习习近平总书记考察海南时重要讲话精神</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220418_3176691.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['市旅文局传达学习习近平总书记考察海南时重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月17日下午，市旅文局召开局党委扩大会议，传达学习习近平总书记考察海南时的重要讲话精神及省市重要会议精神，研究部署市旅文系统贯彻落实工作。 会议指出，全市旅文系统要充分认识习近平总书记考察海南的重大意义，深入学习宣传贯彻习近平总书记的重要讲话精神，进一步解放思想、开拓创新、团结奋斗、攻坚克难，努力办好人民满意和自贸港建设需要的旅文业，为加快推进海南自贸港建设和儋洋一体化发展贡献旅文智慧和力量。 就下一步如何贯彻落实工作，会议要求，一要把学习贯彻落实习近平总书记在海南考察时的重要讲话精神作为当前及今后一段时期的学习重点和工作指南，切实增强旅文干部职工服务自贸港建设和儋洋一体化发展的思想自觉和行动自觉。二要把坚定捍卫“两个确立”、坚决做到“两个维护”作为贯彻落实习近平总书记的重要讲话精神的着力点，结合旅文工作实际，找准工作结合点和切入点，全局的各项重点工作实行项目化、工单化管理，将习近平总书记重要讲话精神不折不扣落实到旅文工作各个环节，推动自贸港建设和儋洋一体化旅文工作高质量发展。三要切实将学习成果转化为促进各项工作高效开展的强大动力，结合“能力提升建设年”活动，着力创新工作方式方法、及时调整工作状态，以严的纪律和实的作风，全力抓好第六届省运会筹备工作、乡村旅游、非物质文化遗产传承等各项重点工作，加快推进旅文事业产业协调发展，坚决扛起自贸港建设和儋洋一体化发展的旅文担当。（儋州融媒全媒体记者林晓云 通讯员周秋雨 陆盼盼 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>225</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>市审计局传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220421_3178203.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['市审计局传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月18日，市审计局召开党组（扩大）会议，传达学习习近平总书记考察海南时的重要讲话精神。', '4月18日，市审计局召开党组（扩大）会议，传达学习习近平总书记考察海南时的重要讲话精神。', '会议强调，全局干部职工要把学习宣传贯彻习近平总书记考察海南时的重要讲话精神作为当前和今后一段时间的首要政治任务，迅速兴起学习宣传热潮，牢记嘱托，凝心聚力、踔厉奋发，不折不扣推动中央和省委各项决策部署在儋州落地。要以习近平总书记重要讲话精神为指引，围绕儋州洋浦一体化高质量发展的新要求，以强化审计质量为核心，以提升审计价值为导向，进一步做实做细研究型审计。要持续加大对重点领域、重点资金、重点部门的审计监督力度，积极推进审计全覆盖，认真履行审计监督职能。要结合“能力提升年”活动，继续深入实施“强审力”工程，持续打造一支学习能力强、业务水平高的审计干部队伍，为推动儋洋一体化高质量发展新局面提供审计担当。（儋州融媒全媒体记者韦雪梅 通讯员郭文凯 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>225</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>市委党校传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2022-04-22</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220422_3179578.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['市委党校传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月18日下午，市委党校召开全校干部（教师）职工大会，传达学习习近平总书记考察海南时的重要讲话精神和儋州市委常委会（洋浦工委）扩大会议精神，强调全校干部（教师）职工要充分认识习近平总书记此次深入考察海南的重大意义，为加快建设中国特色自由贸易港扛起党校担当。 会议要求，要把学习习近平总书记考察海南时的重要讲话精神作为当前和今后一个时期的重要政治任务，持续深入学习贯彻习近平总书记重要讲话精神，深刻领悟，专题研究讨论，做到学懂弄通；要把习近平总书记重要讲话精神贯穿到党校工作的各个方面，具体体现在党校的教学工作、科研工作、理论宣讲等领域；要聚焦海南自贸港建设和儋洋一体化发展等热点，谋划好干部教育培训、科研资政、理论宣讲等工作，争取出一批高质量的理论成果，推动建设高质量、高水平的地级市一流党校。 与会人员纷纷表示，在今后的工作中要始终坚持“党校姓党”，做到“两个维护”，进一步解放思想、开拓创新、团结奋斗、攻坚克难，以“能力提升建设年”活动为契机，扎实推进当前各项工作，努力为海南自贸港建设和儋州洋浦一体化发展贡献党校智慧和力量。（儋州融媒全媒体记者夏佟 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>225</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>市教育局传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220421_3178204.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['市教育局传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月18日，市教育局召开局党委（扩大）会，集中学习习近平总书记考察海南时的重要讲话精神，传达省委省政府、市委市政府相关会议部署要求。', '4月18日，市教育局召开局党委（扩大）会，集中学习习近平总书记考察海南时的重要讲话精神，传达省委省政府、市委市政府相关会议部署要求。', '会议要求，全市教育系统要认真学习领会习近平总书记考察海南时的重要讲话精神，进一步提高思想认识，增强“四个意识”、坚定“四个自信”、做到“两个维护”，抢抓机遇、真抓实干，坚定不移沿着总书记指引的方向奋勇前进，努力开创儋州洋浦一体化教育高质量发展新局面。要把学习宣传贯彻习近平总书记考察海南时的重要讲话精神作为当前和今后一段时期的重大政治任务，迅速掀起“大学习”热潮，引领广大党员干部全面系统学、深入思考学、联系实际学，推动学习宣传贯彻活动深入开展，确保学深学透。要组织上下结合省、市的宣讲团队开展宣讲，确保宣传学习有力有效。要强化责任担当，围绕大局推进中心工作。要以党建为统领推进教育事业发展，改进干部、校长、教师队伍的作风建设，提高专业能力，把基层党组织建设成坚强堡垒，营造良好的政治生态。（儋州融媒全媒体记者符武月 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>225</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>市科协召开传达学习习近平总书记在海南考察时的重要讲话精神专题会</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2022-04-29</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/kxjsxh/kxdt/202204/t20220429_3183737.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['市科协召开传达学习习近平总书记在海南考察时的重要讲话精神专题会 -- 科协动态 -- 儋州市科协技术协会', '4月20日上午，市科协召开党组理论学习中心组第10次（扩大）学习暨传达学习习近平总书记在海南考察时的重要讲话精神专题会。传达学习习近平总书记在海南考察时的重要讲话精神、省委常委扩大会议精神、沈晓明在全市领导干部大会上的讲话精神、杨晓和书记在十三届市委常委会第21次（扩大）会议上的讲话精神等，市科协党组书记许心立主持会议，市科协班子领导、全体干部职工参加，与会人员结合工作实际交流发言。', '会议指出，在庆祝海南建省办经济特区30周年大会上发表重要讲话4周年之际，习近平总书记再一次亲临海南考察指导并发表重要讲话，充分体现了习近平总书记对海南人民的深切关怀，进一步凸显海南在全国改革开放大局中的战略地位。习近平总书记的重要讲话，立意高远、内涵丰富、博大精深。市科协全体党员干部要提高思想认识，深入学习、深刻领会习近平总书记考察海南重要讲话的丰富内涵，切实把思想和行动统一到重要讲话精神上来。紧密结合工作实际，不折不扣抓好落实，以实实在在的工作成效助力海南自贸港建设和助推儋洋一体化发展。', '会议要求，市科协全体党员干部要认真学习领会习近平总书记在海南调研时的重要讲话精神。切实提高思想认识，深刻领悟习近平总书记在海南考察讲话的极端重要性，进一步增强“四个意识”、坚定“四个自信”、做到“两个维护”，抢抓机遇、真抓实干，以“功成不必在我”的精神境界和“功成必定有我”的历史担当，扎实推动习近平总书记考察调研重要讲话精神在儋州落地见效，在推动儋洋一体化高质量发展上展现新担当新作为，坚决扛起加快建设具有世界影响力的中国特色自由贸易港的科协担当。', '市科协主席汪文英指出，要紧紧围绕习近平总书记重要讲话精神，对标目标任务，坚决用习近平总书记的重要讲话精神指导推动工作开展。一是要加强与海大热科院的交流，推动科技创新成果转化；二是要进一步服务科技创新，加强与洋浦科技工作者的服务联系，筹备成立洋浦园区科协组织，争取纳入科创中国平台，实现科创资源共享、线上线下协同发展，促进我市重点产业提质增效；三是要抓好各项工作落实。各分管领导和部室要深入科研部门、企业交流，详细了解科研部门、企业的工作情况和需求，为科协更好服务科技、服务科技人才找准抓手。', '市科协党组书记许心立强调，一是要把学习宣传贯彻习近平总书记在海南考察重要讲话精神作为当前和今后重要的政治任务，以中心组、党支部为单位组织专题学习，要全面系统学、深入思考学、理论联系实际学，确实做到学深悟透；二是领导班子要发挥好“头雁效应”带头领读导学，带头宣讲，把习近平总书记的重要讲话精神传达到每一位科协系统干部，形成抓贯彻落实的思想自觉、政治自觉和行动自觉。三是要把学习成效转化为干事动力，要把学习贯彻习近平总书记的重要讲话精神，同推进科协组织和工作覆盖与儋洋一体化发展有效融合，以非凡的毅力，务实的举措，激情干事业、挑战不可能，创新推动科协的各项工作开展。四是要盯紧高标准，把握严要求，提高新成效。要强化责任担当，对标海南自贸港建设科协的各项目标任务，结合能力提升建设年活动，细化大培训、大练兵、大比武等具体措施，改作风强本领，真抓实干，勇于担当、善于作为，以优异的成绩喜迎党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>225</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>新英湾办事处赴三亚市学习考察大社区运营工作</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202308/t20230803_3466990.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['儋州市融媒体中心消息 为进一步加强党建引领，高效推进大社区建设，提升大社区治理和服务水平，近日，新英湾办事处大社区运营考察组赴三亚市吉阳区六道大社区、吉阳大社区、卓达大社区开展参观学习考察活动。', '考察组一行先后到三个社区的党建红色基地、新时代文明实践站、老年人日常照料中心、青少年活动室及各职能办公室进行考察，了解各大社区整体组织架构和每个职能板块的运作方式。每到一个考察点位，考察组都积极主动与工作人员交流探讨，在学习先进经验中因地制宜寻找自身发展路径。', '在随后举行的学习考察讨论会上，考察组组长李瑞亮表示，要把学习到的金点子、好经验带回去，结合大社区的固有特点和资源禀赋，融会贯通到今后的工作中。要全面思考自身的优势和不足，对标先进，在整合资源、完善运营模式等方面找到大社区发展的方法。要梳理出辖区可用资源、发展思路和推进举措，打造服务亮点，推进大社区运营迈上新的台阶，确保将学习成果落到实处。', '考察组成员纷纷表示，本次学习考察收获颇丰，下一步，将把学习成果转化为工作动能，努力为大社区居民群众提供优质、高效、便捷的“一站式”公共服务。（儋州融媒全媒体记者韦斌 通讯员周秋燕 编辑符灵基）']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>225</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>市卫健委传达学习习近平总书记在考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2022-04-22</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220422_3179580.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['市卫健委传达学习习近平总书记在考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 近日，市卫健委召开会议，传达学习习近平总书记在考察海南时的重要讲话精神以及省委常委会、省政府党组扩大会议、市委常委会会议精神等。 会议指出，在海南省封关运作准备工作加快推进的重要时候，习近平总书记亲临海南考察指导，并发表了重要讲话，进一步凸显了海南在全国改革开放大局中的地位和作用，为持续推进海南全面深化改革开放提供了根本遵循和行动指南。 会议要求，全市卫生健康系统要把学习贯彻习近平总书记考察海南时的重要讲话精神作为当前重要的政治任务，深刻把握“两个确立”，坚决做到“两个维护”，迅速组织学习宣传，掀起新一轮学习热潮。同时要结合推动党史学习教育，深化拓展“查破促”和“能力提升建设年”活动，坚持以人民为中心，全力打造海南西部区域医疗中心，进一步推进儋洋一体化医疗资源整合，助力海南自贸港建设。（儋州融媒全媒体记者符武月 通讯员冯钧 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>225</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>市纪委常委会专题传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220418_3176532.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['市纪委常委会专题传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月15日，市纪委召开常委会，专题传达学习习近平总书记考察海南时的重要讲话精神，省委书记沈晓明在省委常委会议上的讲话精神及在儋州市领导干部大会上的讲话精神。 市委常委、市纪委书记、市监委主任张思峰参加领学。 会议指出，习近平总书记到海南考察并发表重要讲话，进一步凸显海南在全国改革开放大局中的地位和作用。习近平总书记的重要讲话高瞻远瞩、思想深邃、内涵丰富、语重心长，为全面从严治党向纵深发展提供了根本遵循和行动指南。全市纪检监察机关要把学习好、宣传好、贯彻好习近平总书记考察海南时的重要讲话精神，作为当前和今后一个时期的首要政治任务，结合岗位职责职能，及早、全面、系统谋划具体落实举措，坚决有力保障中央重大决策部署落实见效。 会议要求，市纪委监委机关党委要组织委各党支部召开专题学习会，深刻领悟习近平总书记考察海南时的重要讲话精神，掀起传达学习热潮，以实际行动践行“两个维护”。要依托“歃血结盟”纪念园、松涛水库等红色资源，强化新时代廉洁文化建设，传承红色基因，赓续红色血脉，夯实清正廉洁的思想根基。要聚焦现代产业体系建设，系统谋划，动态调整监督重点，搭建纪企沟通“绿色通道”，紧盯惠企政策落实、行政审批效率、政务服务质量，为加快构建现代产业体系保驾护航。要坚持以习近平总书记重要讲话精神为指引，以“功成不必在我”的精神境界和“功成必定有我”的历史担当，在推动儋洋一体化高质量发展上展现新担当新作为。（儋州融媒全媒体记者李秋欢 通讯员洪文妍 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>225</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>人大代表在行动排浦镇人大代表考察学习美丽乡村建设</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2017-10-10</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201710/t20171010_1787070.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['[人大代表在行动] 排浦镇：人大代表考察学习美丽乡村建设 -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 近日，排浦镇人大组织部分市镇人大代表前往那大镇屋基村和大成镇南吉村考察学习“美丽乡村”建设及发展特色旅游产业的做法和经验。 在考察学习中，排浦镇市镇人大代表实地参观了大成镇南吉村的特色旅游产业，并与当地村干部和农户进行广泛交流，听取介绍南吉村发展乡村特色旅游业的做法和经验。接着人大代表们到那大镇屋基村玫瑰庄园、湿地公园和乡村博物馆等进行实地考察，认真学习那大镇屋基村把景区改造建设与“美丽乡村”建设相结合，推进特色乡村旅游示范区项目建设的做法和经验。 考察结束后，人大代表纷纷表示，通过考察学习，开拓了视野，受益匪浅，今后在工作中，将借鉴成功的好做法，好经验，结合自身实际，发挥自身条件优势，精雕细琢，打造排浦镇瓜兰、黑石、镇远、田头等“美丽乡村”建设并提出发展沙沟采摘特色农业、昌王叶蓉海滩游等建议提议。（记者李秋欢 实习生彭林 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>225</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>我市考察团赴海口学习双创工作先进经验配组图</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2016-05-10</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201605/t20160510_1781316.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['我市考察团赴海口学习 “双创”工作先进经验（配组图） -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 为学习成功经验，5月9日，市委秘书长林刚率我市考察团就学习借鉴海口市“双创”工作经验和做法进行实地考察。 当天上午，考察团一行首先来到海口市琼山区博桂志愿服务文化街区进行考察。 据了解，博桂社区属于城中村，之前空地多，垃圾也多，如今该街区建设了爱心超市、爱心墙、广场休闲区、道德讲堂、文化长廊等7个功能区，并有府城志愿服务联盟58支志愿服务队进驻，摇身一变成为功能齐全的新型社区。 据介绍，该街区还通过每周道德讲堂等模式，定时组织文明家庭评选、邻里和谐互助等活动，发动更多的居民群众参与到“双创”工作中来，形成人人参与公益，人人热爱公益的文明新风尚。 路面干净整洁，两边人行道铺设了地砖，墙面留白处也画上了“双创”宣传画……走进美兰区龙舌路，给人的第一印象就是路面干净整洁，环境优美，道路通畅。龙舌路全长848米，两边店铺林立。自2015年“双创”工作开展以来，龙舌路全线改造，计划投资约1300万元。改造期间，该区围绕“为民、惠民、助民”原则，尽量减少对居民生活的影响，周围店铺可照常营业。同时尊重街巷原有的基础风貌，精准施工，并根据龙舌路绶带状的街巷形态，打造以“龙”为主题的街巷墙画，大量采用龙型图案，形成独具一格的龙舌特色。通过改造，龙舌路老旧面貌已改变，解决了脏乱差顽疾，沿街店铺门面变得整洁干净。 考察团沿途参观龙舌路改造情况，了解龙舌路道路立面装饰、店铺经营规范等，目睹了通过整改，解决旧城旧街“脏乱差”顽疾，让沿街店铺门面变得整洁干净，旧貌换新颜的美好景象。 一路走、一路看、一路思考。经过实地考察，我市考察团成员认为，海口市区双创模式已逐渐成型，特别是“高位推进，高效运转、问题导向，全民参与、营造气氛，突出内涵、省市联动，全民参与、着眼长效，创新机制、严管重罚，强势问责”等六大明显特征，为城市建设和民生事业发展找到了切合改革要求的新机制新方法，值得儋州学习和借鉴。通过此次考察，我市考察团成员进一步解放了思想、开阔了视野、看到了差距，对我市“一创五建”创建工作启发很大，更加坚定了创建的信心和决心。 在参观完示范点后，海口市“双创”工作指挥部与儋州考察团共同举行了学习座谈会，双方就交通整治、市容市貌整治等创建难点问题进行交流学习。 在座谈交流中，林刚表示，海口“双创”工作取得的可喜成绩令人倍受鼓舞，儋州将认真总结此次考察成果，学习海口市广大干部在“双创”工作中主动作为、敢于担当，坚持严管重罚、强势问责等良好做法，希望双方今后加强交流与合作，促进两地共赢共发展。 市“一创五建”指挥部综合协调组、宣传教育组、督查考核组、专家指导组等有关单位人员参加考察。（记者李秋欢 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>225</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>市乡村振兴局传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220418_3176648.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['市乡村振兴局传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月15日，市乡村振兴局召开党组（扩大）会，专题学习习近平总书记考察海南时的重要讲话精神。 会议指出，学习好、宣传好、贯彻好习近平总书记考察海南时的重要讲话精神，是当前和今后一个时期的首要政治任务。全体党员干部要从坚决捍卫“两个确立”、坚决做到“两个维护”的高度抓好学习贯彻，解放思想、开拓创新、团结奋斗、攻坚克难，以“一日当做三天用 ，全面推进乡村振兴”的干劲，推进巩固拓展脱贫攻坚成果同乡村振兴有效衔接。 会议要求，要认真领会习近平总书记考察海南时的重要讲话精神，最大限度地凝聚共识、凝聚人心、凝聚智慧，找出适合儋州乡村振兴的方法和路径，积极转变作风，适应新的形式和任务，敢于担当，主动作为，扎实做好乡村振兴各项工作任务。（儋州融媒全媒体记者盘悦华 通讯员王剑堡 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>225</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>市人大常委会机关党支部考察学习市级机关党建示范点工作</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2018-04-10</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201804/t20180410_1789213.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['市人大常委会机关党支部：考察学习市级机关党建示范点工作 -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 4月9日，市人大常委会党组副书记、副主任吴勇率市人大常委会机关党支部委员，前往市国税局、市人社局、市工商局等3家市级“机关党建示范点”考察学习机关党建工作。 考察组通过认真观看上述单位党建规范管理方式、成果展示，实地查看党建阵地，查阅学习党建工作台账及相关资料等方式，学习了解示范点党建文化阵地建设等工作的新思路、新做法。 吴勇表示，要以此次学习考察为契机，结合市人大常委会机关工作实际，在借鉴市级党建示范点的好经验、好做法的基础上，坚持学以致用，明确目标，找准定位，创新载体，真抓实干，夯实机关党建工作基础，打开党建工作新局面。 市人大常委会秘书长秦大茂一同考察。（记者陈永强 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>225</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>市一创五建指挥部赴海口考察学习双创经验</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2016-09-13</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201609/t20160913_1782871.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['市“一创五建”指挥部赴海口考察学习“双创”经验 -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 9月10日，市委副秘书长、市“一创五建”指挥部综合协调组组长林春晓带领市“一创五建”指挥部人员，前往海口市居仁坊、大同里、园内里等社区考察学习“双创”工作经验。 当天，考察组一行首先来到海口市居仁坊社区，观摩了该社区内的地面、公厕、网线、划线停车位等规范化改造情况，以及社区内所开展的卫生之家评比、悬挂驻点单位责任牌等好的做法，详细了解居仁坊从老旧社区到先进示范点的华丽转变。据介绍，2015年7月31日，海口市“双创”工作全面启动，居仁坊居委会从社区的硬件设施、文化建设等方面入手，在保持社区中老街原有风貌的前提下，对居仁坊整体环境进行整治、规范和提升，如今居仁坊已成为海口市500多条老旧街巷“双创”工作的标杆。 考察组随后来到园内里社区考察。原来脏黑破旧的背街小巷铺上青石地砖，斑驳的墙体刷上耐脏的灰色涂料，面貌焕然一新。文化墙上题有“社会主义核心价值观”，“弘扬中华民族优秀传统文化”等内容的诗画。据了解，自“双创”工作开展以来，园内里社区改造了34条背街小巷，清淤长度1350米，安装水箅362个，铺设青石地砖面积3736平方米，立面美化改造10920平方米，安装LED节能型路灯60盏以及社会治安监控视频系统，新建了居民文化体育活动场所，添置了一批健身器材和分类垃圾箱。同时，还利用传统文化元素以图说形式形象生动地宣传中国梦、社会主义核心价值观等，为美丽海口增添了一道靓丽的城市文明风景线，汇聚起建设美丽海口的正能量。 林春晓表示，此行的目的在于通过学习考察海口市“双创”工作的先进经验做法，结合自身实际，将考察内容融入具体工作和实践中，探索具有儋州特色的社区（村）发展模式。 考察组成员一致认为，通过考察学习打开了眼界、开阔了思路，收获颇多，将借鉴海口“双创”工作先进经验，结合各自工作实际，创新开展各项工作，推动“一创五建”工作的深入开展。（记者李秋欢 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>225</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>雅星镇那大镇村干部赴贵州省塘约村考察学习配图</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2018-05-02</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201805/t20180502_1789541.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['雅星镇那大镇村干部赴贵州省塘约村考察学习(配图） -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 4月28日至4月29日，雅星镇、那大镇组织村干部赴贵州省安顺市平坝区乐平镇塘约村考察学习。 考察学习组成员一行先到塘约村二楼塘约道路讲习所观看纪录片，了解了塘约村发展历程。2014年6月，塘约村党总支抓住农村综合改革机遇，实施农村集体产权制度改革，建立合作社，走上了抱团发展之路。2016年、2017年村民人均纯收入都超过1万元，村集体经济年收入达到200多万元，实现了从省级二级贫困村向“小康示范村”的华丽转身，打造了贫困山村的脱贫样板。 在村办公楼前广场，考察学习组成员认真听讲，并观看“抓党建促改革奔小康”六大展板，了解到塘约村通过深入学习习近平总书记治国理政的讲话精神、学习中央的三农政策精神实质，实行农村集体土地经营性改革，采取“党总支+合作社+公司+农户”的模式合股联营，制定“红九条”等措施，推动了塘约村的跨越式发展。 在村史馆，考察学习组成员观看了“塘约之变”、“塘约之约”、“塘约之源”文图系列展示，加深了对塘约村的了解；在民俗馆，塘约村农耕习俗、生活习俗等饱含着广大人民群众智慧的物品给考察学习组留下了深刻的印象。 考察学习组还沿着该村道路查看了该村的内外建设情况，远处山上的“穷则思变”的四个大红字格外醒目，给考察学习组成员留下深刻的印象。 雅星镇大沟村党支部书记符国万表示，此次学习考察收益较大。“我们将结合我们村的实际把塘约村在基层党建、农村产业发展等方面的丰富经验带回大沟村，加强党建工作，加快大沟村经济发展，为打赢脱贫攻坚战和建设美丽大沟村而努力奋斗。” 记者了解到，报告文学作家王宏甲撰写的《塘约道路》发布后，在社会上引起了强烈反响。海南省委书记刘赐贵去年也向全省广大党员干部推荐了这本书。（记者夏佟 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>225</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>我市考察团赴东方市学习农村土地承包经营权确权登记工作经验</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2013-12-25</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201312/t20131225_1772363.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['我市考察团赴东方市学习农村土地承包经营权确权登记工作经验 -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 为贯彻2013年全省农村土地领域反腐倡廉建设现场会精神，加强农村基层党风廉政建设，促进“三农”工作科学发展，12月24日，市委常委、纪委书记钟捷兴率我市考察团赴东方市农业局、板桥镇学习农村土地承包经营权确权登记工作经验。 当天，考察团在东方市农业局详细了解该市农村土地承包经营权确权登记工作的相关流程及操作细则，观看了农村土地承包信息数据库和管理系统演示。在板桥镇，考察团听取了东方市农村土地承包管理工作情况介绍，实地参观了农村土地流转服务中心，并与相关人员进行座谈，学习交流工作心得。 据了解，2012年3月以来，东方市在全市范围内开展农村土地经营权确权登记工作，并推行农村土地流转公开招租竞标，维护了农村社会的稳定，促进了农业增效、农民增收。 市纪委、农委、国土环资局主要负责人及相关科室负责人一同学习考察。（记者王霞 通讯员李思腾 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>225</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>市总工会传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220421_3178205.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['市总工会传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '近日，市总工会召开全体干部职工学习会议，传达学习习近平总书记考察海南时的重要讲话精神，引领广大职工在海南自贸港建设和儋州洋浦一体化发展的火热实践中当先锋、作表率，扛起儋州工会担当。', '会议要求，要深刻领会习近平总书记考察海南时的重要讲话精神，把学习成效转化为服务职工、推动工作事业发展的生动实践。要主动适应新形势、新要求，把工会工作放到海南自贸港建设和儋洋一体化发展大背景下去谋划和推动，以“能力提升建设年”活动为抓手和平台，深入拓展“查堵点、破难题、促发展”活动，着力增强“八项本领”，提高“七种能力”。要以“我为群众办实事”实践活动为载体，聚焦职工群众“急难愁盼”，推动工会组织建设取得新突破，推进职工服务阵地、产业工人队伍建设改革、新业态群体入会和服务各项工作上新台阶。要坚持维权和维稳相统一，做好疫情防控常态化工作，全面落实各项安全生产措施，防范化解重大安全风险，抓严抓细抓实安全生产工作，以优异的成绩迎接党的二十大和省第八次党代会胜利召开！（儋州融媒全媒体记者林晓云 通讯员何步刚 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>225</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>市妇联传达学习习近平总书记在海南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220419_3177459.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['市妇联传达学习习近平总书记在海南考察时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月18日，市妇联召开学习会，传达学习习近平总书记在海南考察时的重要讲话精神。', '会议指出，习近平总书记的重要讲话高瞻远瞩、思想深邃、内涵丰富，为海南下一步建设指明了方向，对海南全面做好改革开放和高质量推进海南自由贸易港建设提供了根本遵循。全体干部职工要把学习好、宣传好、贯彻好习近平总书记在海南考察时的重要讲话精神作为当前和今后一个时期的首要政治任务，以高度的政治自觉和思想自觉迅速在全市妇联系统内掀起学习宣传贯彻讲话精神的热潮，大力推动儋州妇女儿童事业发展。', '会议强调，要继续坚持以习近平新时代中国特色社会主义思想为指导，以学思想、建新功、办实事、共奋斗为重点，紧扣中央、省委、市委对妇女工作的新要求、新目标、新任务，找准妇联工作切入点和落脚点，组织动员广大妇女汇聚成强大合力，助力儋州洋浦一体化发展，为海南全面深化改革开放和中国特色自由贸易港建设作出新的更大贡献。（儋州融媒全媒体记者盘悦华 通讯员钟怡斐 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>225</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>市司法局传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220419_3177461.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['市司法局传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月18日，市司法局召开专题学习会，传达学习贯彻习近平总书记考察海南时的重要讲话精神以及省委、市委相关会议精神。', '会议指出，习近平总书记在海南考察意义重大，其行之所至，关注的都是具有战略意义的大事，经略一岛，关乎全国，跳出海南看这些工作，都是关乎发展全局的“国之大者”。习近平总书记考察海南时的重要讲话立意高远、思想深刻、内涵丰富，司法局全体干部要充分认识讲话的重大意义，深刻领会精神实质，把学习习近平总书记重要讲话精神作为当前和今后一个时期的一项重大政治任务抓紧抓好。', '会议要求，要结合工作实际，立足自身岗位，学习贯彻落实习近平总书记考察海南时的重要讲话精神，围绕儋州洋浦一体化发展，改进作风强本领，牢固树立“不进则退，慢进也是退”忧患意识，奋力打造想干事、能干事、干成事的高素质司法行政干部队伍，以实际行动为构建法治化、国际化、便利化的营商环境作出司法行政贡献。', '会议强调，市司法局要持续聚焦主责主业，抢抓机遇，开拓奋进，以实际行动为儋州洋浦一体化发展创新业、立新功，为海南自由贸易港建设贡献司法行政力量。（儋州融媒全媒体记者丁子芹 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>225</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>和庆镇组织人大代表和政协委员考察学习美丽乡村建设</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2015-01-29</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201501/t20150129_1777471.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['和庆镇组织人大代表和政协委员：考察学习美丽乡村建设 -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 为贯彻落实市委十一届七次全会精神，学习借鉴先进经验，全面加快我市美丽乡村建设步伐，1月22日，和庆镇组织该镇人大代表和政协委员30余人到兰洋、那大、大成、雅星等镇考察学习特色种养殖业和美丽乡村建设。 考察组在实地参观和考察了南丰镇陆瓦村、那大镇力乍村美丽乡村的规划、设计等建设情况及兰洋镇正清源野猪养殖基地、屋基村玫瑰产业园、大成镇南吉村、雅星镇浮华鸡厂和茶山村林下菌草鹿角灵芝示范种植区等特色种养殖业情况，认真听取了相关情况介绍，并仔细询问了当地新农村建设、农业生产经营情况、旅游开发、美丽乡村建设等情况。人美、景美、屋美的安静环境和干净整洁的村容村貌给代表和委员们留下了深刻印象，并深受启发。 在和庆美丽乡村建设中，大家一致表示，一要积极借鉴其做法和经验，结合和庆镇实际情况，创新工作方式，立足于农村现有的资源、生态条件和地形地貌。二要在规划过程中，注意合理布局，注重乡村文化的保护和传承，不仅要保护古村落、古建筑等物质文化遗产，还要关注人文、地域风情、民风民俗等非物质文化遗产。三要发掘特色的乡村产品本身，全面展现乡村文化的产业价值，促进美丽乡村旅游产业和文化的融合，大力推进和庆特色风情小镇和美丽乡村建设。 在发展农村特色种养殖业上，大家认为，要继续按照“高山造林，山腰种胶，平地种果，水面养鸭，水中养鱼”的林下水下立体发展经济路子，带领和扶持群众发展林下水下种养殖业，强化服务措施，进一步加大对林下水下经济的技术、资金、销售、管理等方面的服务，把发展林下水下经济真正作为一项提高农民收入、建设新农村的富民产业，下大力气抓实抓好。同时，还要立足和庆实际情况，科学规划，合理布局，不断探索，科学选择独具特色的适合本地的林下水下种养经营模式，依靠丰富的林下水下资源，广泛宣传，突出重点，培育亮点，做出品牌，示范带动，充分调动广大群众发展林下水下经济的积极性和主动性，带动更多的村民创业致富，打造出和庆镇五彩斑斓的农家幸福生活。 （记者李国妹 通讯员钟靖娥 见习编辑何焕翠）']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>225</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>新州镇传达学习习近平总书记在海南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022-04-22</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220422_3179577.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['\u200b新州镇传达学习习近平总书记在海南考察时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月20日下午，新州镇召开全体干部职工大会，传达学习习近平总书记在海南考察时的重要讲话精神会议。 会议指出，习近平总书记再次亲临海南考察并作出重要讲话，赋予海南新的使命，提出更高要求，使海南广大党员干部、群众备受鼓舞，同时深感使命光荣、责任重大。习近平总书记的讲话立意高远、思想深刻、内涵丰富，殷殷关怀暖人心田，谆谆嘱咐催人奋进。 会议要求，全镇干部要把深入学习领会习近平总书记考察海南时的重要讲话精神作为今后一个时期重大的政治任务，狠抓落实各项工作任务。 会议强调，镇政府各部门、各党支部，各乡村振兴工作队要迅速组织传达学习，将总书记视察海南时的重要讲话及对海南的系列重要指示批示精神结合起来，特别是要研究习近平总书记提出“儋洋一体化发展好，儋州因洋浦而更加开放，洋浦因儋州而更有深度”这一论断的丰富内涵和深刻寓意，创新学习方式，提高学习实效，充分调动全镇干部积极性，掀起干事创业的热潮，着力将学习成果转化为推动儋洋一体化发展的强大动力；要把学习重要讲话与“能力建设提升年”等活动结合起来，加强干部教育培训，引导广大党员、干部用党的创新理论武装头脑，着力解决“本领恐慌”、能力不足的问题，加快转变工作作风，以“功成不必在我”的精神境界和“功成必定有我”的历史担当，奋力开创新州经济发展的新局面，全力助推儋洋一体化发展和环新英湾自贸港新城建设。（儋州融媒全媒体记者夏佟 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>225</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>市委政法委传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220418_3176846.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['市委政法委传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月15日，市委政法委召开理论学习中心组第6次（扩大）学习会议，传达学习习近平总书记在海南考察时的重要讲话精神、省委书记沈晓明在儋州市领导干部大会上的讲话精神和十三届市委常委会（洋浦工委）第21次（扩大）会议精神，并就如何抓好贯彻落实作动员部署。 会议指出，近日，习近平总书记到海南考察并发表重要讲话，恰逢全岛封关冲刺之际和儋州洋浦一体化发展的重要时刻，进一步凸显海南在全国改革开放大局中的地位和作用。习近平总书记的重要讲话高瞻远瞩、思想深邃、内涵丰富、语重心长，为全面从严治党向纵深发展提供了根本遵循和行动指南。市委政法委机关要把学习好、宣传好、贯彻好习近平总书记考察海南时的重要讲话精神，作为当前和今后一个时期的首要政治任务，根据省委、市委相关指示要求，积极发挥政法职能作用，及早、全面、系统谋划具体落实举措，为海南自贸港建设和儋洋一体化发展提供强有力的保障。 会议要求，要深刻领悟习近平总书记考察海南时的重要讲话精神，掀起传达学习热潮，以实际行动践行“两个维护”。要依托“歃血结盟”纪念园、松涛水库等红色资源，强化新时代廉洁文化建设，传承红色基因，赓续红色血脉，夯实清正廉洁的思想根基。要坚持以习近平总书记重要讲话精神为指引，以“功成不必在我”的精神境界和“功成必定有我”的历史担当，在推动儋洋一体化高质量发展上展现政法队伍的新担当新作为。（儋州融媒全媒体记者黎有科 通讯员符敏 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>225</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>和庆镇传达学习习近平总书记在海南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2022-04-22</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220422_3179575.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['和庆镇传达学习习近平总书记在海南考察时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月20日，和庆镇召开干部职工大会，传达学习习近平总书记在海南考察时的重要讲话精神。 会议指出，习近平总书记在海南考察时的重要讲话立意深远、思想深刻、内涵丰富，充分体现了习近平总书记对海南全面深化改革开放和自由贸易港建设的高度重视、深切关怀和大力支持，是对广大干部群众的巨大鼓舞。 会议要求，全体党员干部要提高政治站位，统一思想认识，立足“儋州因洋浦更加开放，洋浦因儋州更有深度”的发展大局，用好“三会一课”、工作例会、“大榕树微课堂”等多种方式，在干部群众中广泛宣传习近平总书记在海南考察时重要讲话精神，把学习好、宣传好、贯彻好习近平总书记在海南考察时的重要讲话精神作为当前和今后一个时期的重要政治任务；要结合实际，积极引导党员干部群众参与和庆乡村振兴、农村人居环境整治、精神文明建设、疫情防控和安全生产等各项工作，推动和庆各项工作迈上新台阶。（儋州融媒全媒体记者盘悦华 通讯员庄絮茗 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>225</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>峨蔓镇传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220421_3178206.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['峨蔓镇传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月18日，峨蔓镇党委召开全镇干部会议，传达学习习近平总书记考察海南时的重要讲话精神。', '4月18日，峨蔓镇党委召开全镇干部会议，传达学习习近平总书记考察海南时的重要讲话精神。', '会议指出，要深入学习宣传贯彻习近平总书记考察海南时的重要讲话精神，把思想和行动统一到党中央和省委决策部署上来，自觉站在海南全面深化改革开放和海南自贸港建设全局的高度想问题、办事情，解放思想、开拓创新、真抓实干，以只争朝夕的精神，奋力推进儋州洋浦一体化发展高质量实现。', '会议强调，要切实把学习成果转化为知重负重、勇于担当、推动高质量发展的实际行动，把习近平总书记考察海南时关于生态文明建设、乡村振兴工作、红色资源开发、旅游产业发展等重要讲话精神与峨蔓实际工作相结合，逐项落实到各项工作中，为推进儋州洋浦一体化发展贡献峨蔓力量。（儋州融媒全媒体记者覃凯 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>225</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>市财政局传达学习习近平总书记在海南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2022-04-22</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220422_3179579.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['\u200b市财政局传达学习习近平总书记在海南考察时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 日前，市财政局召开局党委扩大会议，传达学习习近平总书记在海南考察时的重要讲话精神、省委沈晓明书记在儋州市领导干部大会上的讲话精神。 会议要求，一是提高政治站位，要把学习、宣传、贯彻好习近平总书记重要讲话作为财政系统当前和今后一个时期的重要政治任务，精心策划组织广大财政干部职工认真学习、深刻领会，切实增强加快建设具有世界影响力的中国特色自由贸易港的责任感、使命感。二是强化责任担当，紧密结合“能力提升建设年”暨深化拓展“查破促”活动，围绕儋州洋浦一体化发展战略大局，对标对表财政岗位职责，主动谋划、积极应变、开拓创新、砥砺奋进，特别要把当前一体化改革财政各项工作落地落实，为推进儋州经济社会高质量发展提供积极有为的财政支撑。三是深化党风廉政建设。要在生态文明、疫情防控、乡村振兴战线上发挥财政党组织战斗堡垒作用，锻造政治过硬、本领过硬、作风过硬的财政干部队伍。要时刻绷紧风险防控这根弦，维护国家安全不动摇，加强重大风险识别和防范，推动财政可持续发展。（儋州融媒全媒体记者韦雪梅 通讯员邝小珍 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>225</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>全市统一战线召开学习贯彻习近平总书记考察海南时的重要讲话精神专题学习会</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220418_3176847.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['全市统一战线召开学习贯彻习近平总书记考察海南时的重要讲话精神专题学习会 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月18日，全市统一战线召开学习贯彻习近平总书记考察海南时的重要讲话精神专题会，传达学习习近平总书记考察海南时的重要讲话精神、省委常委会扩大会议精神、省委书记沈晓明在全市领导干部大会上的讲话精神以及省委常委、儋州市委书记、洋浦经济开发区工委书记杨晓和在十三届市委常委会（洋浦工委）第21次（扩大）会议上的讲话精神。 市委常委、统战部部长林春晓主持学习会并领学。 会议指出，习近平总书记在海南考察时发表了立意高远、思想深刻、内涵丰富的重要讲话，是海南在新的历史起点上全面深化改革开放和海南自贸港建设、儋州洋浦一体化发展的根本遵循和行动指南。全市统一战线及相关单位要把学习贯彻习近平总书记考察海南时的重要讲话精神作为当前和今后一段时期重要的政治任务，引领广大干部全面系统学、深入思考学、联系实际学，推动学习宣传贯彻活动深入开展，确保学深学透。 会议要求，要围绕加快推动儋州洋浦一体化发展、打造海南高质量发展增长极目标，做好思想认识一体化，坚定不移沿着总书记指引的方向奋勇前进，努力开创儋州洋浦一体化高质量发展新局面；要围绕“你中有我、我中有你”做好儋州洋浦组织机构一体化工作，做好儋州洋浦一体化各党派的衔接工作，全力以赴做到思想稳定、队伍稳定、工作稳定；要围绕“激情干事业，挑战不可能”做好工作落实一体化，盯住高标准，打好各项工作“提前量”，为推动儋州洋浦一体化高质量发展贡献统战力量。（儋州融媒全媒体记者牛伟 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>225</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>市政协专题调研组赴琼海考察学习文物挖掘和保护工作</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2022-11-14</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202211/t20221114_3307546.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['市政协专题调研组赴琼海考察学习文物挖掘和保护工作 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 近日，市政协副主席黄东勉率专题调研组前往琼海市开展关于文物挖掘与保护工作专题调研考察活动。', '调研组先后实地调研考察了周士第将军纪念馆、国家重点文物保护单位蔡家大院和中国（海南）南海博物馆，详细了解琼海市在文物挖掘和保护工作方面的具体做法和相关经验。', '黄东勉表示，琼海历史悠久，在文物建筑和红色文化历史上有着许多优秀的资源，蔡家大院等文物建筑有着浓郁的时代风味，且保存完整。要善于充分学习借鉴兄弟城市的先进经验；要把每一次出去调研当成一次难得的学习机会，青年政协委员要多加深入研究学习，与文物对话，近距离感受中华优秀传统文化；要坚定文化自信，把文物活化利用与中华优秀文化传承发展相结合，发掘文化内涵，激发文物活力。', '调研组认为，要加大文物和文化遗产保护力度，加强城乡建设中历史文化保护传承。践行“保护第一、加强管理、挖掘价值、合理利用、让文物活起来”的新时代文物工作方针，加强文物保护利用和文化遗产保护传承，提高文物研究阐释和展示传播水平，让文物真正活起来，以高质量文化供给满足人民对美好精神文化的需求、增强人民精神力量，推动海南自贸港、儋州洋浦一体化文物事业高质量发展作出新的更大贡献。', '市政协党组成员、秘书长金德辉参加调研考察活动。（儋州融媒全媒体记者黎有科 编辑温子烨）']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>225</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>聚焦乡村振兴学习好经验好做法名扶贫干部赴江浙考察学习</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2019-04-28</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201904/t20190429_2548916.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['[聚焦乡村振兴]学习好经验好做法 50名扶贫干部赴江浙考察学习 -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 4月27日，记者从市打赢脱贫攻坚战指挥部获悉，我市组织50名扶贫干部赴浙江、江苏、上海等地考察学习脱贫攻坚、乡村振兴等方面的先进经验。', '据悉，考察学习期间，我市扶贫干部通过现场教学、座谈交流和参观考察相结合的方式，了解上述三个省市如何推进扶贫产业发展和加强项目管理、抓党建促扶贫、发展农村集体经济、乡村振兴工作的好经验、好做法。', '据介绍，此次培训为期4天，我市各乡镇镇长、镇扶贫办主任、市委宣传部等单位分管领导及业务骨干约50人参加考察学习。', '据市打赢脱贫攻坚战指挥部相关负责人介绍，此次培训旨在进一步提升各级干部脱贫攻坚、乡村振兴理论政策和业务能力水平，培养造就一支懂扶贫、会帮扶、作风硬的脱贫攻坚干部队伍，建设一支懂农业、爱农村、爱农民的乡村振兴工作队。（记者盘悦华 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>225</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>市检察院赴贵州考察学习交流学习优秀经验推动数字检察工作</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2024-03-27</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202403/t20240327_3631424.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['市检察院赴贵州考察学习 交流学习优秀经验 推动数字检察工作 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 3月25日，市检察院组织人员前往获得2023年全国检察机关大数据法律监督模型竞赛一等奖的贵州省黔南州贵定县人民检察院考察学习数字检察工作。 贵定县人民检察院党组成员、副检察长李瑞瑞及该院建模人员参加座谈交流会议。 会上，李瑞瑞就该院获奖的《审前未羁押判处实刑罪犯交付执行法律监督模型》进行详细解读，对模型的创作思路、方向方法、思维理念等内容进行全方位分享，并播放课件配合模型讲解。 李瑞瑞表示，检察模型建设最重要的是要有全局观念。模型建设要以丰富的办案经验为前置条件，数据是重要的，但不是首位。模型建设的难点在于数字检察监督规则与监督目标的适配，获得数据后，要做到边处理、边适配、边调整。其次，不能过于依赖外部条件的达成，要排除“等靠要”的工作态度，积极主动推进工作。先进高级的技术并非数字检察模型建设必需要素，该院模型建设前期仅通过利用Excel表格处理功能就已经做到初步数据匹配功效。另外，检察模型的开发要以化解社会矛盾为指引、以融合监督为导向、以协商共赢为方式，全方位考量，多部门联动，推动检察监督切实落地。 市检察院相关负责人表示，通过这次考察交流，学习到了优秀的数字检察工作经验，对数字检察模型建设全流程上有更加深入地了解，贵定县人民检察院的数字检察经验是具有普适性的优秀经验，要好好学习借鉴，助力儋州检察院数字检察工作。（儋州融媒全媒体记者王家隆 通讯员于大洋 编辑朱建花 校对沈钰 审核陈小马）']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>225</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>市委常委会洋浦工委召开会议传达学习省党政代表团赴京津冀学习考察精神</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2024-06-15</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202406/t20240616_3680839.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['市委常委会（洋浦工委）召开会议 传达学习省党政代表团赴京津冀学习考察精神 -- 今日儋州 -- 儋州市人民政府', '月15日，市委常委会（洋浦工委）召开会议，传达学习习近平总书记主持召开中央全面深化改革委员会第五次会议时的重要讲话精神和海南省党政代表团赴京津冀学习考察精神等，研究贯彻落实意见，部署有关工作。市委书记、洋浦经济开发区工委书记邹广主持会议。', '会议要求，进一步深化国有企业改革，不断健全完善国有企业现代公司治理体系，鼓励引导有条件的民营企业改革创新，发挥党建引领作用，提升企业经营管理水平和核心竞争力。积极发展现代高效农业，健全种粮农民收益保障机制，提升农民种粮积极性，夯实粮食安全根基，确保粮食生产稳定和粮食安全。坚持以开放促创新，加强与高校、研究机构的交流合作，聚焦新赛道产业发展需求，深入实施更加开放、更加有效的招引人才政策，全力打造推动自贸港建设和高质量发展的人才聚集新高地。', '会议指出，在深化协同发展理念、坚持港产城科融合、培育新质生产力等方面，积极学习发达地区落实国家战略的经验做法，主动加强与京津冀等重大国家战略的联动，坚持同向同行，不断拓宽合作领域、深化产业共建。进一步坚定信心、激发斗志，切实增强培育新质生产力、加快高质量发展的紧迫感、责任感，推动新材料、新能源、数字经济、生物医药等产业延链补链强链。发扬求真务实、解放思想、开拓创新的精神，坚持以改革思维破解发展难题，不断优化产业、项目、投资、消费结构，增强发展后劲，继续保持经济社会高质量发展的良好态势。要坚持引进人才与培养人才并重并行，落实自贸港人才发展政策，优化人才发展环境，激发人才创新创业活力，聚集更多优秀人才扎根儋州。要穷尽一切办法、展现一切力量、释放一切能力，想方设法扩投资、促消费、落项目，实现“时间过半 任务过半”目标，以最大发展成果展现干部队伍担当作为的精神风貌。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>225</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>王克强率市人大常委会考察学习组赴鄂取经配组图</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2017-04-09</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201704/t20170409_1785066.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['王克强率市人大常委会考察学习组赴鄂“取经”（配组图） -- 今日儋州 -- 儋州市人民政府', '4月6日至7日，市人大常委会主任王克强率市人大常委会考察学习组赴湖北省武汉市、黄冈市考察学习。图为王克强等考察学习组成员与武汉市人大常委会座谈交流时的情形。', '儋州新闻中心消息 为进一步加强与省外人大常委会的学习交流，促进自身建设，提高人大工作水平和能力，4月6日至7日，市人大常委会主任王克强率市人大常委会考察学习组赴湖北省武汉市、黄冈市考察学习，并与两市人大常委会进行座谈交流。 武汉市人大常委会党组副书记、副主任胡洪春对王克强一行的到来表示欢迎。他说，作为老工业基地，武汉历经艰难的调整转型期，近年来抢抓机遇、扩投资、调结构，在推进经济总量快速增长的同时，产业结构也发生了根本改变，高新技术产业产值每年保持两位数增长。儋州文化底蕴深厚，是海南西部中心城市，交通区位优势明显，近年来经济发展保持良好势头，创造了许多宝贵的经验，值得武汉学习借鉴。希望双方以此次考察为契机，推进两市在人大工作上深入交流合作，实现共同发展。 王克强对武汉市人大常委会的热情接待和周到安排表示感谢。在简要介绍儋州经济社会发展情况后，他说，儋州历史文化悠久，东坡文化是其中的代表，是宋代大文学家苏轼留给儋州的一笔丰厚的文化遗产，对海南影响深远。此外，儋州海花岛项目备受社会广泛关注，规划建成集旅游、文化、会议、会展、商务等28大业态于一体的旅游度假综合体，着力打造成为全球文化旅游度假胜地。项目建成后，将填补海南乃至中国高端文化旅游市场空白。 王克强表示，作为中部地区重要城市，武汉是我国重要的工业基地、科教基地和综合交通枢纽，素有“九省通衢”的美誉。近年来，武汉市人大常委会及其常委会在创新机关党建工作、推动预算管理制度改革、创新制定武汉市人大常委会主任办公会议制度等举措方面探索出新的路子和特色，在围绕中心、服务大局，顺应民心、关注民生，积极创新、依法履职等工作方面取得了明显成效，这些做法和经验值得儋州学习借鉴。儋州将认真学习借鉴，促进人大工作更好发展。 武汉市人大常委会相关负责人还介绍了该市人大及常委会机关机构设置和人员情况、机关党建工作情况、推动预算管理制度改革深化经验及创新制定武汉市人大常委会主任办公会议制度等经验做法。 考察期间，考察学习组一行还实地考察了武汉市南太子湖创新谷、武汉经济技术开发区汤湖公园、东风汽车展示厅等地，并前往黄冈市进行考察学习，与该市人大常委会交流座谈。 市人大常委会副主任王大辉，市人大常委会秘书长冯步卷一同考察学习。 市人大常委会部分常委会组成人员及各镇人大主席参加了考察学习。（特派记者冼贺 编辑何焕翠）', '，市人大常委会秘书长冯步卷一同考察学习。 市人大常委会部分常委会组成人员及各镇人大主席参加了考察学习。（特派记者冼贺 编辑何焕翠）', '市人大常委会主任王克强在考察时听取武汉市人大常委会党组副书记、副主任胡洪春介绍武汉市人大常委会预算监督系统操作流程。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>225</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>市妇联组织基层妇联干部赴琼中县考察学习学习先进经验促进农村妇女就业</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202303/t20230314_3377391.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['市妇联组织基层妇联干部赴琼中县考察学习 学习先进经验 促进农村妇女就业 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 近日，市妇联组织基层妇联干部考察组赴琼中县开展交流学习活动。', '当天，考察组先后来到琼中县百花老村、百花新村、琼中巾帼生态农业农民专业合作社等地，考察学习美丽乡村建设、绿色发展以及农旅结合等乡村振兴工作的经验，参观了当地兰花种植基地、黎苗族服饰制作和手工制品现场等带动农村妇女就业的产业。', '期间，市妇联与琼中县妇联就开展未成年人“护苗”专项行动、乡风文明“七个倡导”活动和妇女权益保障工作等进行交流学习。', '考察活动结束后，基层妇联干部纷纷表示，通过考察交流学习，开阔了眼界，增长了见识。在今后工作中将立足岗位、争先创优，不断发挥基层妇联干部优势，团结和带领广大妇女积极投身乡村振兴工作中，为儋州洋浦一体化发展贡献智慧和力量。', '各镇、办事处妇联主席、副主席及市妇联干部职工参加活动。（儋州融媒全媒体记者盘悦华 通讯员李秋燕 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>225</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>考察归来话发展吴勇学习先进经验加快儋州发展配图</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2010-09-02</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201009/t20100903_1753527.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['[考察归来话发展]吴勇：学习先进经验 加快儋州发展（配图） -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 市政府秘书长吴勇在我市党政考察团赴广东学习考察总结座谈会上发言时提出，要学习借鉴广东成功做法和先进经验，想方设法加快儋州经济发展。 吴勇说，为期三天的考察活动，感受最深的是增城、惠州发展强劲的发展势头，呈现大思路、大手笔、大发展的发展态势。增城、惠州的取得的发展成效，关键在于领导班子和各级干部善于抓住机遇，敢于解放思想，同时，增城、惠州注意规划先行，敢想、敢试、敢干，用心干事，办成实事。 吴勇认为，要学习增城“一河两岸”环境综合整治工作经验，充分利用松涛水库水资源流经那大城区的优势，适度拓宽渠道，弯水渠为小河，造“小桥流水”景观；要科学破渠引水造湖，为城区增添灵气。借鉴增城市绿道网规划建设和乡村生态旅游发展的经验，建议把那东公路改造成为“北部湾大道”，在长达60公里的大道上，精心策划，大胆创新，进行绿道网规划建设和打造乡村生态旅游点，在建设中的东成休闲小站中，加快推进兰花基地建设和西联知青园建设。 “增城用市场的办法办事，用市场手段抓发展，这是非常值得我们学习借鉴的。我市可以把现有的市大戏院、市图书馆、市体育中心、市民文化公园等推向市场，从而推进社会事业的发展和城市建设。”吴勇说道。要以“东坡文化”为切入点，树立“融入”意识，善于借用“外力”，拓展、加强与惠州、黄州的联盟与合作，研究东坡其人，挖掘东坡文化，策划东坡旅游，打造东坡品牌。 吴勇还认为，我们要依托洋浦，走集中布局、集约发展的路子，抓紧策划和规划三都工业基地，加快推进木棠工业园区建设，做大做强工业产业，实现工业反哺农业，工业支撑第三产业的良好局面，要按照“团结出干部，廉洁保平安”的要求，进一步抓好基础设施、产业发展、干部作风等建设，在敢想敢干中学会“绿灯快行、黄灯闯行、红灯绕行”，早日把儋州建成海南西部中心城市。（记者朱建花 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>225</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>学习借鉴先进经验扎实推进创卫工作市卫生局组织人员到琼海等地考察学习</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2013-03-26</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201303/t20130326_1768746.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['学习借鉴先进经验 扎实推进创卫工作 市卫生局组织人员到琼海等地考察学习 -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 为确保创建国家卫生城市工作取得实效，近日，市卫生局组织有关单位人员，分赴琼海、三亚、海口等地考察学习创建国家卫生城市的成功经验和做法。 在考察学习期间，考察组认真听取各市创建国家卫生城市工作情况介绍，参阅学习了创建国家卫生城市档案资料，就国家卫生城市创建办公室运行机制建设、创建重点难点突破、创建经费保障、创建申报程序等重点问题进行了相互交流，并深入各市城区街道、社区、小巷、火车站、汽车站等地查看环境卫生管理情况和公共场所“六小门店”的消毒状况，汽车站点及公共场所健康知识宣传，迎街门面及各类标识标牌规范化改造，道路交通秩序管理等情况。 在考察学习中，各市干净整洁的城市卫生环境、规范有序的城市交通环境、文明和谐的城市人文环境给考察组留下了深刻印象。大家表示，回去后将继续开展深入宣传发动，激发全市人民的创卫热情，让广大市民由“要我创卫”变为“我要创卫”，并通过各种渠道为创卫献计献策或以实际行动参与到创卫中来，为我市成功创建国家卫生城市贡献力量。（记者黎有科 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>225</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>南丰镇召开学习贯彻习近平总书记在海南考察时的重要讲话精神专题交流会</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2022-04-21</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220421_3178715.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['南丰镇召开学习贯彻习近平总书记在海南考察时的重要讲话精神专题交流会 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月18日，南丰镇召开学习贯彻习近平总书记在海南考察时的重要讲话精神专题交流会，结合工作实际进行学习交流。 会议指出，乡村要振兴，产业是关键。各振兴工作队要紧紧围绕习近平总书记在海南考察时的重要指示精神和全省乡村振兴工作部署进行深入交流，实地察看各中队驻地特色产业，因地制宜发展产业项目，加快推动有机农产品生产、乡村旅游、休闲农业等产业发展，让南丰人民实现增收致富。 会议强调，南丰镇镇领导班子成员一定要把学习贯彻习近平总书记在海南考察时的重要讲话精神作为当前的首要政治任务，扎实推进乡村振兴，严守生态底线，着力发展黎苗少数民族优秀文化，聚力打造南丰生态示范镇、产业重镇、文化重镇，为加快推进海南自由贸港建设和儋洋一体化发展贡献南丰力量。同时，要结合省“能力提升建设年”活动，对标自贸港建设和儋洋一体化发展需要，多形式开展干部素质能力提升活动。要结合“查破促”活动，全力解决群众急难愁盼的问题。要全力推进乡村建设提档升级，继续保持巩固脱贫攻坚成果同乡村振兴有效衔接，以优异成绩迎接党的二十大胜利召开。（儋州融媒全媒体记者韦斌 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>225</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>市法院召开党组会议专题学习习近平总书记在海南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2022-04-25</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220425_3181200.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['市法院召开党组会议专题学习习近平总书记在海南考察时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 日前，市法院召开党组会议，专题学习习近平总书记考察海南时的重要讲话精神，并深入研究贯彻落实意见。', '会议指出，习近平总书记考察海南时的重要讲话，意义重大、内涵丰富，为加快建设具有世界影响力的中国特色自由贸易港、让海南成为新时代中国改革开放示范提供了根本遵循和行动指南。全院上下要把学习宣传贯彻习近平总书记考察海南时的重要讲话精神作为当前和今后一段时间的重大政治任务，结合审判执行工作实际，站在“国之大者”的更高站位上扛起司法责任担当。', '会议要求，市法院各部门要进一步细化实化学习安排，引领广大党员干部全面系统学、深入思考学、联系实际学，在全院范围内迅速掀起学习宣传贯彻重要讲话精神热潮。要在今年第一季度的结案质效上乘势而上，持续厚植“质效并重”的工作理念，以更大力度、更实举措推进繁简分流提质增效，促进均衡高效结案良性循环。要严格落实系列案、重大敏感复杂案件的报批手续，在立案、审判、执行各个关口、各个环节上防范司法廉洁、信访、舆情等风险隐患，警惕虚假诉讼，最大限度促进司法公正。要以服务大局成效、审判执行质效和群众满意度作为活动开展的重要检验，推动“能力提升建设年”活动走深走实。要一手抓法官司法能力提升和年轻干警能力多栖发展，一手狠抓纪律约束和审判监督管理，着力锻造一支与建设海南自贸港、儋洋一体化发展相适应的高素质法院队伍。（儋州融媒全媒体记者王家隆 通讯员王晓露 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>225</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>我市组织贯彻市委十届六次全会精神培训班第三期基层妇女干部外出考察学习配图</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2010-11-11</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201011/t20101112_1754416.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['我市组织贯彻市委十届六次全会精神培训班（第三期）基层妇女干部外出考察学习(配图) -- 今日儋州 -- 儋州市人民政府', '图为基层妇女干部正在听取澄迈县农业部门有关负责人介绍蔬菜种植经验。记者 黎有科 摄']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>225</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>海南省第二中级人民法院传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220421_3178202.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['海南省第二中级人民法院传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月18日上午，海南省第二中级人民法院召开党组（扩大）会议，传达学习习近平总书记考察海南时的重要讲话精神，以及省委、省高院相关会议精神，研究部署贯彻落实措施。', '会议要求，全体干警要深刻领会习近平总书记对海南的深厚情缘和殷切希望，进一步增强建设海南自由贸易港的自信心和自豪感。要深刻把握人民法院在自由贸易港建设中的历史方位和职能定位，为海南自由贸易港建设提供强有力的司法保障。要立足法院主责主业，不断巩固深化党史学习教育和队伍教育整顿成果，紧密结合党建引领自贸港、清廉自贸港建设、“能力提升建设年”暨深化拓展“查破促”等活动，以“基础基层跃升年”为抓手，着力提升“四种能力”，切实把讲话精神落实到法院工作各方面全过程和每一个司法案件中去。要抓好优化营商环境、服务生态立省、司法便民利民等方面落实举措，增强底线思维，统筹推进疫情防控和执法办案，做到两促进两不误。（儋州融媒全媒体记者王家隆 夏佟 通讯员夏文武 柯光辉 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>225</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>文昌市人大常委会学习考察团到市检察院调研交流公益诉讼工作</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2019-05-29</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201905/t20190529_2570798.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['文昌市人大常委会学习考察团到市检察院调研交流公益诉讼工作 -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 5月23日，文昌市人大常委会学习考察团一行6人到市检察院开展公益诉讼工作专题调研。市检察院检察委员会专职委员陈潮龙，诉讼监督局、检察事务保障局负责同志及有关干警参加座谈。', '座谈会上，考察团观看了市检察院公益诉讼工作专题片，陈潮龙专委对市检察院的公益诉讼工作整体开展情况、当前公益诉讼工作存在的主要困难、问题及下一步打算进行了介绍。文昌市检察院副检察长黄良壁就当前公益诉讼案件办理过程中案件线索发现难、案件类型单一、部分职能机关管理职责和行政执法权相分离等相关问题与我市检察院办案干警进行了交流和探讨，双方对公益诉讼案件办理中的一些经验和做法达成了共识。', '在交流讨论后，文昌市人大常委会法制工委主任符唤尧对儋州市检察院公益诉讼工作表示充分肯定，认为公益诉讼工作今后大有可为，并提出几点建议：一是要做好宣传工作，提高公益诉讼工作的社会认知度；二是要加强公益诉讼办案干警的培训学习，增强业务水平；三是要丰富办案方式和手段，提高办案效率；四是要加强与相关职能机关的沟通协作，切实落实检察建议的要求，确保公益诉讼案件办案效果。', '陈潮龙专委表示，符唤尧主任的建议非常切合公益诉讼办案实际，在今后的工作中，希望人大能够继续支持检察机关公益诉讼工作，尽快出台相关法律法规，为提升检察建议监督刚性提供法律支撑，共同推动公益诉讼工作向纵深发展。（记者王家隆 通讯员万琪 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>225</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>严朝君率团赴乐东取经邓泽永铁刚参加考察学习配组图</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2015-07-21</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/tpxw/201507/t20150721_1728127.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['严朝君率团赴乐东“取经” 邓泽永铁刚参加考察学习（配组图） -- 图片新闻 -- 儋州市人民政府', '7月20日，市委书记严朝君率领我市党政考察团一行到乐东黎族自治县考察学习。图为考察团成员在考察国电西南部电厂推进建设情况。', '儋州新闻中心消息 如何整治管理环境卫生？怎样治理社会治安突出问题？……为学习成功经验，7月20日，市委书记严朝君率领由市四套班子领导、市直机关单位及各镇主要负责人组成的党政考察团一行，到乐东黎族自治县考察学习，虚心取经。 市领导邓泽永、铁刚、唐龙海、戴青云、纪少雄、易向阳、张云、林明忠、吴勇、胡德智、符巨友、吴波、王应才、陈星影、谢群峰一同考察学习。 据了解，靠着“三严三实”的作风，近年来，乐东黎族自治县破解了一个又一个发展难题——从狠抓环境卫生综合整治到大力推进殡葬改革，从国电西南部电厂落地到18天完成西环高铁乐东段征地拆迁任务，乐东县党委、政府班子坚持以上率下，敢于动真碰硬、严格监督执纪问责，促使干部敢于担当，切实维护了群众利益，用实实在在的业绩赢得了群众认可，促进了农村社会和谐稳定。 在考察活动第一站乐东佛罗镇丹村，我市考察团成员在一幅幅富有“廉政文化”气息的当地黎族群众的剪纸前驻足，感受鲜活的廉政教育做法；在龙沐湾警示教育基地，考察团成员们纷纷放慢脚步，仔细观摩警示教育经验；在国电西南部电厂，看到一排排正在建设中的厂房，考察团成员对乐东县委举全县之力，通过抓基层党建，促干部作风转变，最终使项目平稳落地，发出了由衷的赞叹。在龙栖湾、在抱由镇延红村......每到一个考察点，严朝君都认真地聆听介绍，并叮嘱考察团成员要认真学习该县在农村基层组织配备、民主监督管理、矛盾调处、棚户区改造、美丽渔村改造、环境卫生整治和项目推进等工作的先进做法和经验。 严朝君指出，一个地方的发展不但要有好的思路，更要靠干部的真抓实干。乐东县在基层党组织建设、干部工作作风转变、重点项目推进和环境卫生整治等方面的成功做法和经验值得儋州学习借鉴。各有关部门要认真学习借鉴乐东敢抓、敢管、敢较真碰硬的精神，自觉践行“三严三实”要求，不断加强作风建设。要实干苦干，拿出“5+2”、“白加黑”的工作状态，以一天也不耽误的实干精神，紧咬项目建设不放松，确保完成全年工作目标任务，奋力推进经济社会快速发展。他同时也希望双方党政干部加强往来学习，及时交流两地在转方式、调结构、稳增长、促跨越等发展地域经济和基层党组织建设方面的经验，推动双方共同繁荣发展。 通过实地考察，我市党政考察团成员深受启发，一致认为，乐东在抓党建转作风促发展等方面书写了一个个环境之变、风气之变、发展之变、民生之变的生动案例。大家表示，回去后，将结合岗位特点和实际，以乐东为镜，寻找差距、查找问题和不足，扎实做好各项工作，推进儋州经济社会各项事业健康发展。 市委办、市人大办、市政府办、市纪委、市委宣传部、市委政法委等市直机关单位负责人及各镇主要负责人参加考察活动。（记者韦雪梅 编辑范志平）', '乐东黎族自治县推进龙栖湾渔村改造项目的做法受到了我市考察团成员的一致好评。 图片由记者 黎有科 摄']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>225</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>云南省政协到儋州考察调研学习借鉴推广儋州经验推动橡胶产业提质增效李学林率队</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202304/t20230413_3397881.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['云南省政协到儋州考察调研 学习借鉴推广儋州经验 推动橡胶产业提质增效 李学林率队 -- 今日儋州 -- 儋州市人民政府', '4月11日，云南省政协副主席李学林率调研组到儋州，围绕海南省天然橡胶产业发展情况开展考察调研。', '当天，调研组来到海胶集团西联分公司橡胶种植基地、海胶集团中化橡胶加工厂、中国热带农业科学院儋州院区等地，就海南省天然橡胶产业发展情况，包括天然橡胶生产保护区暨标准化胶园建设、基础设施建设、橡胶种植管理、生产加工、市场主体培育、科技创新等情况，以及相关支持政策的出台和落实情况，遇到的问题和下一步工作重点等方面内容开展考察调研。', '调研中，李学林表示，儋州橡胶在种苗、种植、加工、贸易、科技等领域取得的发展成果为云南橡胶产业的发展提供了可复制、可推广的经验。调研组将把儋州橡胶产业发展的好经验、好做法进行归纳、总结和梳理，对标云南橡胶的关键问题，为橡胶全产业链建设提供有效建议，推进橡胶产业转型升级，提升橡胶产业效益。', '黎秀全表示，天然橡胶是国家战略物资和战略资源，儋州作为海南省最大的天然橡胶产区，橡胶产业一直是农业的重要支柱产业。近年来，儋州从建设好天然橡胶生产保护区、实施好天然橡胶价格保险、建设好国家现代农业产业园等方面开展工作，推动橡胶产业高质量发展。希望今后云南省政协与儋州建立畅通有效的沟通渠道，为儋州橡胶产业给予指导，协调研究相关政策，共同推动两省天然橡胶产业持续健康发展。（儋州融媒全媒体记者盘悦华 编辑李常）']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>225</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>全市领导干部学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班举办配图</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2022-05-21</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202205/t20220521_3198508.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['全市领导干部学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班举办（配图） -- 今日儋州 -- 儋州市人民政府', '全市领导干部学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班举办（配图）', '5月20日下午，由市委组织部和市委党校联合举办的儋州市领导干部学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班在市大戏院开班。儋州融媒全媒体记者 符武月 摄', '儋州市融媒体中心消息 5月20日下午，由市委组织部和市委党校联合举办的儋州市领导干部“学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神”专题培训班在市大戏院开班。', '此次培训班邀请省委政策研究室宣传思想研究处处长董三仁前来作专题辅导。董三仁以《省第八次党代会报告精要》为题，紧紧围绕省第八次党代会的精神实质和重要内涵，从报告的起草过程，报告的特点、要求、目标和重点工作任务等，为学员做了全面系统的讲解。整场专题报告主题鲜明、内容丰富、讲解精辟、具体深入，既有宏观指导，也有对下一步工作的启示思考，具有较强的指导性和针对性，对学员深刻理解和准确把握省第八次党代会精神有很大帮助。', '培训班要求，要把深入学习贯彻习近平总书记考察海南时的重要讲话精神与学习贯彻省第八次党代会精神结合起来，围绕省第八次党代会确定的“一本三基四梁八柱”战略框架，切实把思想和行动统一到党中央和省委决策部署上来，坚决做到“六个深刻领会”“四个准确把握”“三个坚定不移”，切实把省第八次党代会确定的各项目标任务落实好，在推进儋州洋浦一体化高质量发展中不断展现新作为，让“儋州因洋浦而更加开放，洋浦因儋州而更有深度”。', '各镇党政主要领导、各办事处班子成员，以及市直机关、市各人民团体和直属企事业单位副处级以上领导干部参加培训学习。（儋州融媒全媒体记者符武月 编辑李常）']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>225</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记考察海南重要讲话精神儋州调声山歌首场巡回宣讲举行配图</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2024-04-09</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202404/t20240409_3642129.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['“学习贯彻习近平总书记考察海南重要讲话精神”儋州调声山歌首场巡回宣讲举行（配图） -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 “儋洋大地春潮涌，环岛公路通车马，任你看车水马龙……”4月8日晚，由市委宣传部主办，儋州那大三宝歌剧团承办的“学习贯彻习近平总书记考察海南重要讲话精神”儋州调声山歌首场巡回宣讲在市新时代文明实践中心广场举行。 当晚，演出在洪亮有力的《开场舞》中拉开帷幕，来自儋州那大三宝歌剧团的演员们紧紧围绕习近平总书记考察海南重要讲话精神，以儋州调声、儋州山歌等艺术形式，带来了歌舞《儋洋一体满门红》、山歌剧《遗产》等文艺节目，用群众喜闻乐见的传唱方式，将习近平总书记考察海南重要讲话精神唱给群众听，多样化展示儋洋一体化以来经济社会发展的新变化新气象新面貌。 优美的调声、山歌吸引了许多群众驻足观看，“这种演出，非常接地气，通俗易懂，我们老百姓很喜欢，听得懂，又好记。”市民郑女士告诉记者，演出从晚上8时开始，一直持续到10时才结束，她一直在现场观看，演出结束后她仍然觉得意犹未尽。 “接下来，山歌剧巡回宣讲还将陆续举办9场，在儋州洋浦各镇（办事处）进行演出，激励更多的儋洋人民自信自强、守正创新，以实际行动为儋洋一体化发展和海南自贸港建设作出贡献。”国家级非物质文化保护项目儋州调声传承人、儋州那大三宝歌剧团团长唐宝山说。（儋州融媒全媒体记者何万常 编辑朱建花 校对王丽华 审核王诗波）']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>225</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>致公党儋州市支部委员会传达学习习近平总书记考察海南时的讲话精神</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2022-04-24</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220424_3180138.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['致公党儋州市支部委员会传达学习习近平总书记考察海南时的讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月22日，致公党儋州市支部委员会召开全体党员大会，传达学习习近平总书记在海南考察时的重要讲话精神，并对致公党儋州市支部下一阶段重点工作进行部署。 会议强调，在全岛封关运作准备工作加快推进的重要时刻，习近平总书记亲临海南考察指导，并发表了立意高远、思想深刻、内涵丰富的重要讲话，赋予海南新的使命，提出更高要求，意义重大、影响深远。致公党儋州市支部委员会将发挥“直通车”作用，找准在儋州洋浦一体化发展的功能定位，重点围绕“努力实现‘儋州因洋浦更加开放、洋浦因儋州更有深度’”开展深入调研，积极建言献策。 会议要求，致公党儋州市全体党员在当前儋洋一体化的形势下，要提高政治站位，夯实思想政治基础；加强自身建设，提高自身综合能力；发挥特色优势，履行参政议政职能。以饱满的热情和昂扬的斗志，积极、深入的参与到支部各项工作中，推动致公党儋州市支部工作打开新格局。（儋州融媒全媒体记者王敏权 通讯员王怀佳 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>225</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>团市委赴海口市考察学习青年创新创业工作服务青年创业激发创新思维</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202403/t20240311_3615492.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['团市委赴海口市考察学习青年创新创业工作 服务青年创业 激发创新思维 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 近日，团市委一行赴海口市青年创新创业孵化基地和海南港澳青年创新创业服务中心参观考察学习，以实际行动全面参与儋洋一体化高质量发展，助力优化海南自贸港营商环境。', '考察组一行参观海口市青年创新创业孵化基地，听取基地相关负责人详细介绍基地办公环境，运营基本情况、服务成效、“1+2+2”服务模式、分类服务典型案例、海口创业项目库及入库项目产品等工作内容。该基地由海口市青年创业创新促进会负责日常运营，致力于将孵化对象转变创业服务合作伙伴，把服务对象有价值的项目转化成孵化基地项目库资源，使得孵化基地的创业服务形成循环式的闭环服务。通过精细化服务持续擦亮共青团青创服务品牌，更好地支持城市高质量、可持续发展，让“青年因城市而聚，城市因青年而兴”的理念生根发芽，开花结果。', '随后，考察组一行来到海南港澳青年创新创业服务中心参观学习港澳青年交流平台运行模式。该服务中心设有七大功能区域，深度对接琼港澳三地信息资源，负责人详细介绍服务中心的主要服务内容，有座谈会议、服务保障、合作共赢、考察交流、文体活动等多种形式。2023年共计开展各类交流活动35场，超1000人次港澳青年参与，在港澳青年创业圈具有一定的影响力，为港澳青年来琼创业提供落地综合服务、招商考察、活动策划、项目路演、商务会务等一站式创业服务，成为港澳青年在海南自贸港创新创业的“最佳拍档”。', '团市委副书记姚俊表示，希望未来与海口各类青年创业基地加强联系交流，依托双方资源平台优势，通过整合资源，进一步加大港澳青年人才在儋州洋浦创新创业服务工作力度，带动青年创业创新工作上下游协同发展。（儋州融媒全媒体记者何万常 编辑朱建花 校对王明当 审核王霞）']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>225</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>市科协专题学习习近平总书记在河南考察并指导第二批主题教育时重要指示精神</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2019-09-27</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/kxjsxh/kxdt/201909/t20190927_2678572.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['市科协专题学习习近平总书记在河南考察并指导第二批主题教育时重要指示精神 -- 科协动态 -- 儋州市科协技术协会', '年9月22日上午，市科协利用周末召开党组理论学习中心组（扩大）学习会议，专题学习习近平总书记在河南考察并指导第二批主题教育时重要指示精神。会议指出，学习好、贯彻好、落实好习近平总书记重要指示精神，是当前和今后一个时期首要政治任务，要进一步提高政治站位，增强“四个意识”，坚定“四个自信”，做到“两个维护”，迅速掀起学习宣传新热潮，要用心学进去、用情讲出来、用力做起来。全面学习传达、贯彻落实习近平总书记重要指示精神，要做到五个结合起来。', '一是与学习贯彻习近平总书记对科协科普工作的重要指示批示精神结合起来。二是与学习贯彻习近平总书记关于打赢脱贫攻坚战、实施乡村振兴战略的指示精神结合起来。三是与贯彻落实市委市政府、省科协有关重大工作部署结合起来。四是与做好第二批“不忘初心、牢记使命”主题教育结合起来。五是与加强作风建设、传承发扬红色精神结合起来。', '会议还组织学习了《海南省第二批“不忘初心、牢记使命”主题教育实施方案》，省委常委、组织部长彭金辉同志在全省第二批 “不忘初心、牢记使命”主题教育工作会议上的讲话精神。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>225</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>海头镇红坎村委会乡村振兴工作队到万宁考察学习借鉴好经验结合自身促发展</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202206/t20220623_3216836.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['海头镇红坎村委会乡村振兴工作队到万宁考察学习 借鉴好经验 结合自身促发展 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 近日，海头镇红坎村委会乡村振兴工作队、部分村“两委”干部及各村村小组组长到万宁考察学习，学习万宁市基层党建和乡村振兴特色亮点工作及产业的经营管理模式。 当天，大家来到万宁市北大镇北大村黑山羊养殖基地参观学习，深入交流学习养殖技术，了解该基地“党支部+企业+合作社+农户”的运营模式及产业发展思路，随后大家还参观了北大村百香果种植、斑斓叶种植、兴隆咖啡等产业基地。在参观的过程中，讲解人员向参观人员介绍北大村是如何从一个深度贫困村蜕变的历程，指出主要依靠乡村振兴工作队，联结群众、党员，建强一个支部，做强一批产业，培育一股正气，树立一面旗帜。参观人员边听、边看、边学、边记，并不时就关心的问题进行提问、交流。 通过此次考察学习活动，大家进一步解放了思想，开阔了视野，创新了思维，激发了干劲，纷纷表示要积极学习和借鉴万宁市在产业发展方面的好经验，进一步转变思维，结合海头镇红坎村委会的实际情况，大力整合土地资源，调动自身积极性，干部凝聚力，激发群众内生动力。此外还要从思想、乡村治理、人居环境，特别是产业发展上找差距、补短板，扎实推进集体产业的发展，推动我市乡村振兴工作。（儋州融媒全媒体记者丁子芹 编辑熊铁辉）']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>225</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>考察归来话发展邓泽永增城等地发展经验值得学习借鉴配图</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2010-08-27</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201008/t20100828_1753444.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['[考察归来话发展]邓泽永:增城等地发展经验值得学习借鉴（配图） -- 今日儋州 -- 儋州市人民政府', '儋州新闻中心消息 我市党政考察团到增城、惠州、深圳等地进行为期3天的考察学习中，收获大、体会深。8月26日，市政协主席邓泽永在我市党政考察团赴广东学习考察总结座谈会上发言时认为，增城、惠州的发展经验，值得正在加速经济结构调整、加快城乡统筹发展和城市化进程的儋州学习借鉴。 邓泽永在发言时指出，一要用解放思想来谋划发展。我市党政考察团到增城、惠州、深圳等地考察时看到这些城市发展之快、质量之高、效益之好，首先一点是扫除了思想障碍，倡导敢闯、敢干、敢冒精神，同时树立了用新的思维、新的思路、新的理念来引领指导发展。其次因地制宜，制定规划，在制定规划过程中征求方方面面的意见，充分发挥各方面的智慧和力量，用规划来统一认识，统一思想，形成共识。因此，城市要发展，规划先行，尽快把我市规划馆建设起来，对全市开放，让全市人民参与了解儋州、参与建设儋州，加快我市经济社会发展。二是增城、惠州等地以求真务实的作风，高效服务促发展，制定了一系列配套措施保障地方发展。一个地方要发展首先要解决资金短缺的瓶颈问题，我市应通过银行、社会、企业，包括整合政府的资金来搭建融资平台，抓住机遇谋发展，进一步加大招商引资力度，实施大企业进入、大项目带动，带动全市社会经济全方位发展。三是制定一系列优惠政策。制定土地、财政转移支付、税收、基础设施配套等方面优惠政策，让企业放心、安心、舒心地一心一意抓发展。四是制定对项目建设考核制度。把各层面考核具体化、细化，制定保障机制，加大对干部的问责。五是统筹城乡发展，促进社会科学发展。增城等地提出了高起点规划，以建设中心镇带动农村发展，抓教育、卫生、农民培训，提高转移劳动力就业率；抓市镇村三级联创，加大环境卫生整治力度，提高投资软环境建设是值得我们借鉴学习。 邓泽永指出，儋州目前发展机遇非常好，各级党委政府要抓住国家旅游岛建设上升为国家战略、西部地区大开发和省委把儋州建设成为海南西部中心城市千载难逢的历史机遇，虚心学习借鉴增城、惠州等地先进地区的成功做法和经验，进一步解放思想，抢抓机遇，树立信心，迎难而上，把此次考察学习活动成果转化为推动儋州又好又快发展的动力。（记者黎有科 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>225</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>就交流党建与精神文明建设先进经验市民政局党员到地税局考察学习</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2017-04-18</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201704/t20170418_1785105.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['就交流党建与精神文明建设先进经验 市民政局党员到地税局考察学习 -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 4月17日，市民政局副局长林尤武带领局机关及下属单位全体党员以“走出去、学进来”的方式，到市地税局考察学习先进党建经验与精神文明建设工作经验。 当天，该局党员参观了市地税局“党员之家”，听取了市地税局机关党支部党建工作经验介绍，参阅了地税局党委党建工作制度和档案管理规范化做法。每到一处，考察组一行都认真听、仔细看、详细问、重点记。在交流时，市地税局详细介绍了在该局党建与精神文明建设方面的创新工作，与会人员还结合所闻所见、所思所想，踊跃发言，谈感受、找差距、说想法、提建议，就如何开展好机关党建工作进行了深入交流和探讨。 通过学习考察，市民政局全体党员耳濡目染了党建先进单位的好做法、好经验。一致认为，要以先进典型为榜样，学习先进、赶超先进，把党建工作抓得更实、更好，并表示，要以这次考察学习作为新起点，把学习成果体现到实际工作中，用学到的新知识、新理念、新方法武装头脑，指导实践，创造性地做好党建工作，为推动民政工作更好更快发展提供坚强组织保证。（记者李秋欢 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>225</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>木棠镇乡村振兴工作队专题学习习近平总书记在海南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2022-04-25</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220425_3181201.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['木棠镇乡村振兴工作队专题学习习近平总书记在海南考察时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 近日，木棠镇乡村振兴工作队召开学习讨论会，专题学习习近平总书记考察海南时的重要讲话精神，并就如何贯彻落实讲话精神展开座谈。', '会议要求，各驻村第一书记要切实提高政治站位，迅速掀起学习宣传贯彻习近平总书记重要讲话精神热潮，围绕市委市政府、镇党委镇政府相关部署要求，推进讲话精神的宣传贯彻，真正做到见思想、见行动、见实效。要埋头苦干有作为，结合主责主业抓落实，把习近平总书记重要讲话精神作为在新起点上谋划推进乡村振兴工作的务实行动，团结带领工作队员、村“两委”干部扎实做好“三农”工作，解决群众的“急难愁盼”问题，切实提高人民群众的幸福感、获得感。要充分结合“能力提升建设年”活动，发挥好驻村工作队第一线冲锋队的作用，结合当地自然环境资源，探索一条适合本村发展的热带特色高效农业路，同村民一起选好产业，做精、做强产业，推动农业增产、农民增收。（儋州融媒全媒体记者符武月 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>225</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>儋州市教育局党委召开扩大会议集中学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/szfb/jyyw/202204/t20220424_3180150.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['4月18日下午，市教育局召开局党委（扩大）会，集中学习习近平总书记考察海南时的重要讲话精神，传达省委省政府、市委市政府相关会议部署要求，研究部署全市教育系统学习宣传贯彻习近平总书记重要讲话精神，推动儋州教育高质量发展，为加快推进海南自贸港建设和儋洋一体化建设贡献教育力量。市教育局党委书记、局长杨永飞主持会议。', '发表的重要讲话立意高远、思想深刻、内涵丰富，赋予海南新的使命，提出更高要求，意义重大、影响深远，令人倍感振奋、深受鼓舞，同时也感到责任重大、使命光荣，全市教育系统要以非凡的毅力，超常规的举措，激情干事业，挑战不可能，开创儋州教育新格局，创造儋州教育新历史。', '会议要求，全市教育系统一要认真学习领会习近平总书记在海南视察调研时的重要讲话精神。切实提高思想认识，深刻领悟总书记在海南考察讲话的极端重要性，进一步增强“四个意识”、坚定“四个自信”、做到“两个维护”，抢抓机遇、真抓实干，坚定不移沿着总书记指引的方向奋勇前进，努力开创儋州洋浦一体化教育高质量发展新局面；二要认真组织掀起学习习近平总书记重要讲话精神的热潮。制定方案，周密部署，精心组织，把学习宣传贯彻习近平总书记在海南考察重要讲话精神作为当前和今后一段时期的重大政治任务，迅速掀起“大学习”热潮，引领广大党员干部全面系统学、深入思考学、联系实际学，推动学习宣传贯彻活动深入开展，确保学深学透。组织上下结合省、市的宣讲团队开展宣讲，确保宣传学习有力有效；三要强化责任担当，围绕大局推进中心工作。一是以目标为导向、问题为导向，在调研的基础上加快出台推进儋州教育高质量发展的意见。二是以义务教育优质均衡创建为抓手，加大教育投入，加强队伍建设，提高教育质量，推动城乡义务教育一体化发展。重点推动洋浦开发区义务教育优质均衡创建工作，让人民群众在家门口“有学上”“上好学”。三是以改革创新为动力，通过集团化办学、区域化办学，破解城乡差异；通过人事制度改革，提高教师队伍素质和积极性；通过中小学办学自主权改革，提高学校办学活力；通过推进境外学校独立办学，完善高等教育体系。四要以党建为统领推进教育事业发展，改进干部、校长、教师队伍的作风建设，提高专业能力，把基层党组织建设成坚强堡垒，营造良好的政治生态。', '会议要求，全市教育系统一要认真学习领会习近平总书记在海南视察调研时的重要讲话精神。切实提高思想认识，深刻领悟总书记在海南考察讲话的极端重要性，进一步增强', '会上，局领导班子成员还做了学习交流发言。局领导班子成员，各科室负责人以及市教培院、教育事业服务发展中心、青少年活动中心负责人参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>225</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>市政府办公室传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220418_3176366.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['市政府办公室传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 4月15日下午，市政府办公室党组召开理论学习中心组会议，重温习近平总书记“4•13”重要讲话精神，传达学习习近平总书记考察海南时的重要讲话精神、省委书记沈晓明在七届省委常委会第243次（扩大）会议上的讲话精神等会议精神。 会议强调，市政府办公室要迅速掀起学习习近平总书记考察海南时的重要讲话精神热潮，进一步提高政治站位，在思想上领会，在行动上落实。要结合儋洋一体化发展需要，紧盯产业发展、疫情防控、生态环保、乡村振兴、口岸建设、优化营商环境等重点工作抓紧抓好抓落实。要主动谋划制度创新，狠抓协调调度，在重大政策落地中发挥参谋助手作用，做好“三服务”工作，为儋州洋浦一体化高质量发展作出更大贡献。（儋州融媒全媒体记者韦雪梅 通讯员邓克明 编辑李晓晖）']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>225</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>考察归来话发展李琼新学习借鉴广东模式坚定发展儋州信心配图</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2010-08-31</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201009/t20100901_1753497.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['[考察归来话发展]李琼新：学习借鉴“广东模式” 坚定发展儋州信心（配图） -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 “此次广东之行，是我市建市以来规模最大的一次学习考察活动，充分体现了市委市政府贯彻落实好省委省政府战略部署的决心和谋划加快儋州经济社会发展的责任感、紧迫感，更加坚定了市委市政府带领全市干部群众向海南西部中心城市迈进的信心。”在我市党政考察团赴广东学习考察总结座谈会上发言时，市政协副主席李琼新深有感触地说。 李琼新认为，本次广东之行的直接感受就是“高、实、好”：“高”体现在学习考察的三个城市科学发展的水平很高；“实”是三个地方的经济社会发展步入了良好循环的轨道，产业基础、就业管理、文化建设等系统工程相当坚实，为以后的发展奠定了良好的基础；“好”是三个城市的社会构建和谐，生态环境保护好，人与自然和谐。 李琼新提出，儋州要学习借鉴上述地区的发展模式、发展理念和成功经验，解放思想、更新观念、与时俱进，科学发展推进儋州发展；在推进经济发展的过程中，要走群众路线，站在群众的角度，注重为群众解决实际问题，真正做到权为民所用、利为民所谋、情为民所系；要大胆创新体制机制，真抓实干，继续加大对乡镇放权和扶持，解决乡镇实际问题，为乡镇办实事好事。（记者黎有科/文 柯人俊/图 编辑范志平）']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>225</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>市总工会到洋浦考察调研学习借鉴好经验好做法打造五大一体工会阵地</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2022-03-21</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202203/t20220322_3158478.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['市总工会到洋浦考察调研 学习借鉴好经验好做法 打造“五大一体”工会阵地 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 近日，市人大常委会副主任、市总工会主席王安仍率队到洋浦工会进行考察调研，重点参观了解职工之家阵地建设情况。', '在洋浦总工会主席仲明维的带领下，王安仍一行来到洋浦滨海文化广场体育馆和图书馆，实地参观了职工之家、职工书屋、乒乓球馆、篮球馆、帮扶中心、女工服务站等场所，了解洋浦在推进海南自贸港建设中的发展历程及成就、阵地建设经验和成果，对体育馆和图书馆馆内的整体环境、设施配置、资源整合、布局规划、服务管理体系各方面给予了高度赞扬，值得借鉴学习。', '王安仍强调，工会阵地是服务职工的重要窗口和载体，在建设中要坚持贴近基层、贴近职工、符合实际的原则，立足职工多元化需求，按照“会、站、家”一体化建设思路，把职工之家建在职工身边，让职工看得见、摸得着、用得上，使职工对“家”的感受更直观、更具体，归属感也更强，彰显工会作为；要创新服务载体，完善服务功能，提升服务质量，力争把阵地建成集职工思想引领、素质提升、困难帮扶、维权服务和文化娱乐“五大阵地一体”的温馨之家。（儋州融媒全媒体记者林晓云 通讯员何步刚 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>225</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>汕尾市政协调研组来儋学习考察借他山之石琢己身之玉</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2022-07-13</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202207/t20220714_3229497.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['汕尾市政协调研组来儋学习考察 借他山之石 琢己身之玉 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 7月12日，汕尾市政协调研组一行到我市，就“加快发展全域旅游”及“做大做强海洋经济”两个专题的经验做法进行学习考察。', '7月12日，汕尾市政协调研组一行到我市，就“加快发展全域旅游”及“做大做强海洋经济”两个专题的经验做法进行学习考察。', '当天，汕尾市政协调研组一行实地参观南丰嘉禾农场、中和东坡书院等地，切实感受儋州洋浦全域旅游发展呈现出的新气象，听取儋州洋浦做大做强海洋经济有关情况介绍，详细了解儋州洋浦各项工作的创新举措和发展成果。', '调研组认为，儋州以文旅项目为抓手，深度挖掘人文资源、自然资源，全面发展乡村特色旅游和乡村民宿康养产业，优化旅游业态和项目布局，使儋州洋浦旅游出现了新的生机，在海洋经济开发使用和保护方面、优化海洋产业结构、强化海洋环境治理等方面具有着很好的工作经验，值得学习和借鉴。调研组表示，将认真学习借鉴儋州洋浦文旅融合发展新理念、全域旅游发展新态势，在优化产业布局、挖掘本土文化旅游资源、推进全域旅游发展，做大做强海洋经济等方面提出更多具有操作性建议，推动汕尾经济社会高质量发展。', '市委常委、统战部部长林春晓，市政协副主席吴勇，市政协秘书长金德辉陪同调研考察。（儋州融媒全媒体记者何万常 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>225</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>聚焦能力提升建设年活动市妇联组织基层妇联领头雁赴王五白马井镇考察学习</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2022-05-14</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202205/t20220514_3194126.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['[聚焦能力提升建设年活动] 市妇联组织基层妇联领头雁赴王五、白马井镇考察学习 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 5月12日，市妇联组织基层妇联领头雁赴王五、白马井镇开展考察学习，学习乡村振兴产业建设等方面的好经验好做法，提升妇女发展产业致富能力。 当天，考察团一行来到中美墨（海南）仙人掌产业发展有限公司仙人掌种植基地，听取该基地负责人介绍仙人掌种植规模、种植方式、用途介绍以及产品种类、未来发展规划等，并参观仙人掌种植基地，实地考察仙人掌种植情况，与负责人面对面交流产业发展经验。 随后，考察团一行来到海南忆家食品有限公司的海儋土糖基地，考察土糖生产制作、晒糖的流程，了解土糖产业发展情况。 “今天考察学习让我们既开阔眼界、增长见识，又坚定我们妇女干事创业的决心。”和庆镇妇联专职副主席葛仙梅说，作为一名基层妇联干部，回去后要结合社会需求及妇女实际需要，加强妇女的创业就业技能培训，带动妇女因地制宜发展产业，实现稳定增收致富。 当天，考察团还开展农村妇女小额贷款贴息政策解读培训，专家从小额贷款政策的发展历程、特点和申请流程等方面进行详细的分析和说明，提高妇女群众对小额贷款贴息政策的了解。 市妇联全体干部职工，各镇妇联主席或专职副主席，洋浦经济开发区三都区、干冲区、新英湾区办事处妇联主席参加活动。（儋州融媒全媒体记者盘悦华 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>225</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>三八妇女节来临之际市妇联组织妇联干部赴洋浦考察学习配图</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2022-03-05</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202203/t20220305_3151091.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['“三八”妇女节来临之际 市妇联组织妇联干部赴洋浦考察学习（配图） -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 3月4日，“三八”妇女节来临之际，市妇联组织妇联干部到洋浦经济开发区开展考察学习活动。 市妇联考察组到洋浦展示馆考察学习时，观看洋浦主题形象片、洋浦人文底蕴等视频介绍，并听工作人员讲解洋浦概况、洋浦故事、建设成就等内容，进一步了解洋浦经济开发区的经济发展和重点项目建设情况。 随后，市妇联考察组来到干冲区办事处儒兰社区参观妇女儿童之家，详细了解干冲区在推动妇女、儿童权益保障工作、基层建设等工作内容。 当天，考察组还到洋浦保税港区、海南澳斯卡国际粮油公司等地，实地考察洋浦发展、企业生产经营和基层妇联建设情况，现场学习好经验好做法，并举行基层妇联干部能力提升培训会。 经过一天的考察学习后，大家纷纷表示，此次参观考察学习增长了见识、扩宽了眼界。回去后，要把学到的知识和经验运用到妇联工作中，促进妇联工作创新发展，造福广大妇女儿童。 市妇联全体干部职工、各镇妇联主席参加考察学习活动。（儋州融媒全媒体记者盘悦华 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>225</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>东方市三创工作指挥部一行到儋考察学习学习借鉴优秀经验推动综合创建工作上台阶配图</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202303/t20230304_3371569.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['东方市"三创“工作指挥部一行到儋考察学习 学习借鉴优秀经验 推动综合创建工作上台阶（配图） -- 今日儋州 -- 儋州市人民政府', '东方市"三创“工作指挥部一行到儋考察学习 学习借鉴优秀经验 推动综合创建工作上台阶（配图）', '东方市"三创“工作指挥部一行到中湖公园查看大型综合性公园建设管理模式。儋州融媒全媒体记者 牛伟 摄', '儋州市融媒体中心消息 3月2日，由东方市委副书记、政法委书记欧阳华率领的东方市“三创”工作指挥部考察团到儋州，就创建全国文明城市、建设国家卫生城市等综合创建工作进行考察学习。', '吴清高对东方市“三创”工作指挥部考察团的到来表示欢迎。他说，近年来，儋州坚持把“一创两建”工作当成重大民生工程，借着“一创两建”的东风，儋州实现从外延式发展到内涵式发展转变，城市品质不断提升。东方市“三创”工作指挥部考察团的到来，双方交流了经验，希望今后加强沟通交流，相互学习借鉴，共同推动两地综合创建工作再上新台阶。', '欧阳华高度赞扬儋州“一创两建”工作经验和做法，认为儋州工作措施具体、亮点突出、氛围浓厚，新时代文明实践工作思路明确，有特色、有亮点，为东方提供了有益借鉴。东方市将以这次考察学习为契机，把学习到的优秀经验、先进做法融汇到东方实际工作中去，以彼之长补己之短，不断提升自身的创建水平。', '座谈会上，市委宣传部有关人员介绍了我市“一创两建”工作开展情况，考察团观看了《儋州市创建国家卫生城市主题汇报片》，我市创卫专家分享创卫工作经验，双方就如何更好地推进文明创建等工作展开了深入的交流讨论。', '当天，考察团还先后到那大镇清平村委会、市一中、中湖公园、新时代文明实践中心、市民文化广场等地，通过实地查看、听取介绍、现场交流等方式，详细了解志愿服务队工作、大型综合性公园建设管理模式、新时代文明实践中心建设和运营、垃圾分类等“一创两建”工作成果。（儋州融媒全媒体记者牛伟 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>225</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>考察归来话发展朱达科学习借鉴广东经验推进儋州科学发展配图</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2010-09-07</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201009/t20100908_1753591.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['[考察归来话发展]朱达科：学习借鉴广东经验 推进儋州科学发展(配图) -- 今日儋州 -- 儋州市人民政府', '据《今日儋州》消息 “增城、惠州等地的经济社会发展成果，让我们看到了儋州与广东地区的差距，我们要借鉴广东的成功经验，结合本地实际，创新推进儋州的发展。”在我市党政考察团赴广东学习考察总结座谈会上，排浦镇委书记朱达科开门见山地说。 朱达科认为，在海南建设国际旅游岛和儋州建设海南西部中心城市的大背景下，排浦镇当前的工作是要紧紧围绕市委市政府的工作部署，认真做好几方面的工作：一是坚定不移地贯彻市委市政府“一桥二路三区四镇”的战略。认真配合抓好滨海大道和中南集团等项目用地的征地工作，确保重点建设项目顺利推进。二是做好沿海岸线沙滩资源的保护，为滨海旅游开发提供良好的生态环境资源保障。三是继续抓紧矛盾纠纷排查调处工作，确保稳定的社会秩序，努力创造良好的投资创业环境。四是抓好惠民政策的落实，保证各项民生工程的顺利推进。五是加大镇村干部培训力度，提高农村干部能力，为儋州实现跨越发展提供坚强的组织保障。（记者夏佟 编辑王诗波）']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>225</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>海头镇组织人大代表到昌江考察学习进一步拓展视野谋划发展新思路</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2022-06-17</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202206/t20220618_3214115.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['海头镇组织人大代表到昌江考察学习 进一步拓展视野 谋划发展新思路 -- 今日儋州 -- 儋州市人民政府', '儋州市融媒体中心消息 近日，海头镇组织部分人大代表到昌江黎族自治县海尾智慧渔业产业园考察学习，进一步拓展人大代表的视野，为助推乡村发展产业谋划新思路。', '代表们在现场听取项目负责人介绍项目建设、产业发展、养殖户合作模式及群众效益等方面情况，详细了解渔业产业养殖结构，学习了海尾智慧渔业产业园在规划建设上的先进经验和实践路径。', '据了解，海尾智慧渔业产业园在园区中推行工厂化循环水养殖、标准化池塘养殖和尾水集中处理，鼓励渔民转产转型，引导家庭养殖户和小规模企业实施异地迁移入园等多轨安置策略，推动养殖产业向数字化、集约化、清洁化转型升级。', '考察学习结束后，代表们纷纷表示，通过此次考察学习，切身感受到昌江在抓产业发展方面有许多值得借鉴的好做法，这些好做法将有助于代表们为海头镇产业发展规划提出具有实质性和针对性的意见建议奠定基础。（儋州融媒全媒体记者丁子芹 编辑王竞）']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>225</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>邹广主持召开市政府党组会议暨洋浦管委会主任办公会议传达学习习近平总书记考察海南时的重要讲话精神配图</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220416_3175709.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['邹广主持召开市政府党组会议暨洋浦管委会主任办公会议：传达学习习近平总书记考察海南时的重要讲话精神(配图） -- 今日儋州 -- 儋州市人民政府', '邹广主持召开市政府党组会议暨洋浦管委会主任办公会议：传达学习习近平总书记考察海南时的重要讲话精神(配图）', '4月15日，市政府党组2022年第10次（扩大）会议暨洋浦管委会2022年第5次主任办公（扩大）会议召开，重温习近平总书记“4·13”重要讲话精神、习近平总书记对海南自由贸易港建设作出的重要指示精神、中央12号文件精神和海南自贸港总体方案精神；传达学习习近平总书记考察海南时的重要讲话精神以及省委书记沈晓明、省长冯飞在七届省委常委会第243次（扩大）会议的讲话精神、省委省政府及市委有关会议精神，研究部署市政府系统贯彻落实措施。', '市委副书记、市长，兼洋浦经济开发区工委副书记、管委会主任邹广主持会议。 会议指出，习近平总书记的重要讲话，充分体现了以习近平同志为核心的党中央对海南、对儋州洋浦的重托厚望。全市各级各部门要把学习贯彻习近平总书记考察海南时的重要讲话精神作为当前首要政治任务，深刻领悟、精准把握精神实质和丰富内涵，坚定信心、实干担当、攻坚克难，以更大的拼劲干劲闯劲，抓紧抓实抓好当前各项工作，全力推进儋州洋浦一体化发展，奋力打造海南高质量发展“第三极”，用实际行动回报党中央的关心厚爱，以优异成绩迎接党的二十大胜利召开。 会议强调，要切实把思想和行动统一到党中央决策和省委部署上来，心怀国之大者，抢抓机遇、乘势而上再出发，持续抓好海南自由贸易港建设各项工作落实。要聚集儋州洋浦经济社会发展主线工作，在经济运行、互联互通、投融资等方面，增速提质，补齐短板，服务环新英湾港产城一体化开发建设等重点工作。要各司其职、各尽其责，敢于突破创新，凝聚更大合力，以更加昂扬的精神、更加扎实的作风、更加有力的举措，扎扎实实推进海南自由贸易港建设和儋洋一体化高质量发展。 市政府及洋浦管委会领导班子成员出席会议，并围绕落实习近平总书记重要讲话精神作交流发言。（儋州融媒全媒体记者李秋欢 编辑李常）']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>225</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>市十六届人大常委会党组理论中心组扩大学习会召开传达学习习近平总书记考察海南时的重要讲话精神马飞主持</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220419_3176850.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['市十六届人大常委会党组理论中心组（扩大）学习会召开：传达学习习近平总书记考察海南时的重要讲话精神 马飞主持 -- 今日儋州 -- 儋州市人民政府', '市十六届人大常委会党组理论中心组（扩大）学习会召开：传达学习习近平总书记考察海南时的重要讲话精神 马飞主持', '儋州市融媒体中心消息 4月18日，市人大常委会党组书记、主任马飞主持召开市第十六届人大常委会党组理论中心组（扩大）学习会，传达学习习近平总书记考察海南时的重要讲话精神以及省委、市委相关会议精神，研究部署市人大系统贯彻落实措施。', '4月18日，市人大常委会党组书记、主任马飞主持召开市第十六届人大常委会党组理论中心组（扩大）学习会，传达学习习近平总书记考察海南时的重要讲话精神以及省委、市委相关会议精神，研究部署市人大系统贯彻落实措施。', '会议指出，习近平总书记亲临海南考察指导，发表了立意高远、思想深刻、内涵丰富的重要讲话，赋予海南新的使命，提出更高要求，意义重大、影响深远。市人大及其常委会机关干部职工要把深入学习贯彻落实习近平总书记考察海南时的重要讲话精神，作为当前和今后一段时期的首要政治任务，立足人大实际，统筹结合人大机关能力提升建设年活动，努力在人大营造主动干事、积极干事、严谨干事的良好氛围，在新的历史起点上推动人大各项工作迈上新台阶。', '会议要求，市人大及其常委会机关干部职工要把学习成果转化为推动工作的具体举措，不断提高依法履职能力和水平，主动扛起政治担当，把人大工作放在儋州洋浦一体化发展大局中思考、谋划，创新工作方式方法，强化监督，不断在推进儋州洋浦一体化发展过程中扛起人大担当。', '市人大常委会党组成员、副主任王大辉、王安仍、侯启江、张国盛、王玮，市人大常委会党组成员、二级巡视员秦大茂，市人大常委会党组成员、秘书长李昌本出席会议。（儋州融媒全媒体记者何万常 编辑李常）']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>225</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>牢记嘱托担使命党建引领谱新篇儋州学习贯彻习近平总书记在儋州考察调研重要指示精神推进党建工作综述配组图</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202404/t20240413_3644976.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['牢记嘱托担使命 党建引领谱新篇 ——儋州学习贯彻习近平总书记在儋州考察调研重要指示精神推进党建工作综述（配组图） -- 今日儋州 -- 儋州市人民政府', '牢记嘱托担使命 党建引领谱新篇 ——儋州学习贯彻习近平总书记在儋州考察调研重要指示精神推进党建工作综述（配组图）', '2023年9月24日，儋州市级领导干部学习贯彻习近平新时代中国特色社会主义思想主题教育读书班开班。', '2023年7月20日，儋州市“儋洋党旗红·银辉建新功”老干部工作开放日活动在市图书馆举行。', '2022年4月，习近平总书记来到儋州，作出“儋州因洋浦而更加开放、洋浦因儋州而更有深度”的重要指示，为儋洋一体化发展指明了前进方向、提供了根本遵循。方向锚定，春风送暖，儋州各级党组织和广大党员备受鼓舞、倍感振奋、倍增信心。', '儋州牢记嘱托，认真学习贯彻习近平新时代中国特色社会主义思想，牢牢把握“学思想、强党性、重实践、建新功”总要求，在全面学习、全面把握、全面落实上下功夫，理论学习有深度、调查研究有方法、推动发展有质量、检视整改有力度、建章立制有成果，各项工作取得积极成效。', '秉持“一体化推进儋洋党建工作、党建工作引领儋洋一体化”理念，儋州积极探索适应自贸港高水平开放形态下的党建模式，构建“1+3+N”组织工作制度体系，着力培育“十大重点党建项目”“儋洋党旗红”等一批党建品牌，赋能儋洋一体化高质量发展。', '通过组织动员全市1515个基层党组织、3.8万名党员，儋州加快构建高水平开放体系，高质量发展现代化产业体系，高品质生活人居环境，努力实现“儋州因洋浦而更加开放、洋浦因儋州而更有深度”的愿景。2023年，儋州地区生产总值首次突破千亿元大关，规模全省第二。工业增加值250.5亿元、增长29.1%，对全省工业增长贡献率稳居第一。主要贸易指标分别迈上“百亿、千亿、万亿”级台阶。', '儋州深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，以中央和省委的部署要求统一各级领导班子的意志，统一广大党员干部的思想，以推动儋洋一体化高质量发展这一共同目标凝聚人心。', '坚持理论学习补钙、党性教育固本。以“学思想”为先导并贯穿主题教育始终，严格落实“第一议题”制度，扎实开展读书班，抓实基层党组织全覆盖学习教育，全市广大党员干部深刻领悟“两个确立”的决定性意义，不断增强“四个意识”、坚定“四个自信”、做到“两个维护”。', '市级领导干部率先垂范，紧密联系习近平总书记关于海南工作的系列重要讲话和指示批示精神，特别是习近平总书记“更加开放、更有深度”重要指示，坚持每月一期、每期一主题，举办5期读书班，带动全市各级党委（党组）举办专题读书班384场。组织16个镇34名党政正职和处级以上领导干部，分南北两个片区举办“南北”读书班。聚焦习近平法治思想，“千万工程”“枫桥经验”“四下基层”，优化营商环境等内容，扎实开展理论学习中心组研讨交流423次。各级党组织和广大党员干部持续在理论学习深化、内化、转化上下功夫，进一步增强了对党的创新理论的政治认同、思想认同、理论认同、情感认同。', '统筹推进村（居）、乡镇、国企、学校、医院、两新组织等7个领域基层党组织开展主题教育，通过“三会一课”、理论宣讲、专题轮训、主题实践等活动，组织广大党员学习党的二十大报告、党章、习近平新时代中国特色社会主义思想专题摘编等学习材料，推动学习往深里走、往实里走、往心里走。召开“书记讲给书记听·书记带着书记干”基层党建工作推进会，市委主要领导为全市基层党组织书记上党课，带动各级党组织书记到各基层领域上专题党课1549场次。依托热科院、“170大坝”教育基地，引导广大党员干部勇立潮头再出发，艰苦奋斗再创业，撸起袖子加油干。采用“送学上门”“回儋码”“上船送学”“岸上补学”等方式，实现离退休干部、流动党员、海上作业党员等群体学习教育全覆盖，推动学习贯彻党的创新理论融入日常、抓在经常。', '坚持学思用贯通、知信行统一。全市630名县处级以上领导干部、1515个基层党组织围绕调查研究和推动发展，梳理形成“调研和成果转化运用清单”“推动发展任务清单”“问题清单”“我为群众办实事清单”四张清单，逐一把“问题清单”转化为“成果清单”。', '把让老百姓过上好日子作为工作出发点和落脚点，认真梳理就业、教育、医疗、住房、养老等民生领域重点难点问题，完成解决“我为群众办实事”任务清单349条，办成让“儋州老百姓喝上‘松涛水’”等一批群众急难愁盼问题。市级领导干部带头包案化解信访积案89个，各级领导干部沉到一线“解题”，新州镇“红泥地”宅基地矛盾纠纷等一批疑难杂症得到妥善解决。党员干部在“双报到”中，开展“微调研”活动，点亮“微心愿”2113个，广大群众从主题教育中切切实实看到新变化、得到真实惠。', '把开展主题教育与狠抓中心工作落实紧密结合起来，实现调研成果转化573个，形成推动发展任务清单331项，继续深化封关运作压力测试专项行动，洋浦保税港区政策扩区试点第一批11项政策落地6项，10个封关运作硬件项目全部如期建成。扎实开展“一工一农”专项行动，遍访193家企业，协调推动解决275个问题。选取24个行政村作为攻关重点，51项具体任务全部完成。全力推进重大项目建设，2023年11月至12月，不到一个月的时间，三个片区集中投产和开工76个项目，总投资达498.7亿元，形成了赛马打擂、比学赶超的良好氛围，推动环湾新城建设全面起势。营商环境和生态环境持续优化，一类地区排名第一，洋浦经济开发区成功创建省级营商环境示范园区。', '儋州积极探索适应海南自贸港高水平开放形态下的党建模式，大力培育“十大重点党建项目”“儋洋党旗红”等一批党建品牌，汇聚党建品牌矩阵力量，推进基层党建提质增效，激发儋洋一体化高质量发展动能。', '“十大党建项目”引领自由贸易港党建模式。把“十大重点党建项目”作为市委抓党建的“一号工作”“置顶工作”，持续擦亮党建品牌，推动党建经济“两结合”、党建民生“两促进”、党建治理“两融合”。', '“直通联办”改革。制定《儋州市城市社区党建工作联席会议制度》，将“直通联办”工作列为各级党委（党组）的“书记工程”，市委主要领导召开“直通联办”书记点评会3次，亲自推动“直通联办”工作落实。制定《儋州市直通联办工作机制（暂行）》《儋州市第一批网格办件直派表（暂行）》等6项运行机制，定期进行通报，推动职能部门增强服务意识。“直通联办”系统上线以来，共受理工单5117件，办结率99.04%，满意率95.92%。该工作得到省级部门的高度认可，“直通联办”改革工作经验在全省推广。', '环新英湾园区党建联盟。组建环新英湾党建联盟，成立石化行业、保税港区、海花岛文旅产业等特色子联盟，成立儋州市环新英湾党群服务中心。建立党建联盟联席会议制度，搭建政企畅聊“早餐会”、招商引资“咖啡时间”、项目建设“下午茶”、干部交流“夜沙龙”四大服务企业平台，推动解决环湾区域土地征收、公共基础设施建设、规划编制、招商引资、服务重点项目等重要问题87个。', '保税港区自贸先锋。成立保税港区综合党委，成立封关项目临时党支部，提升项目建设质效，洋浦港对外开放口岸设施设备升级改造、“二线口岸”查验设施设备项目主体工程进度和设备采购进度均达100%。用好企业问题清零系统、微信群和企业服务专员三个载体，解决加工增值30%免关税、跨境电商线下自提、“一线放开、二线管住”等企业堵点难题162个。洋浦保税港区入选中国外向型高质量发展十佳园区榜单。', '新业态党组织有效覆盖。成立环湾、互联网、快递、财税金融党委以及网络主播、网约车、快递、外卖送餐、跨境贸易等一批党组织，有效填补我市新业态党组织覆盖空白。积极打造“党建引领新业态，绘就直播‘五环图’”“党领蜂飞 暖心万家”等新业态新就业群体党建品牌，探索融入基层治理新路径。', '开发区党建共建共享平台。成立以金海浆纸、华金钢构等党组织为成员单位的儋州洋浦工业企业党建联盟，发挥党建共建共享平台基地作用，以组织链带动产业链、创新链。以“服务企业党旗红”为抓手，为84家重点企业（项目）配备一对一服务专员，帮助解决众扬石化临时道路建设、东方雨虹供气、杭萧钢构自来水接驳等困难问题。', '垦地党建融合发展。建立“1+7+N”垦地融合发展党建联盟，推动8名干部垦地双向挂职，加强垦地双向沟通交流，推动规划融合、产业融合。撤销西联居等6个居党总支部，设立6个基层党委，进一步规范党组织科学化设置、精细化管理。', '党建引领壮大村级集体经济。促成20家企业结对帮扶20个村级集体经济“空壳村”“薄弱村”。推行村集体经济经营性收入与行政村奖励、村干部报酬“双增双挂钩”制度，激发村集体内生动力。全市村级集体经济收入100万元以上的1个、50万至100万元的4个、5万至50万元的115个。', '党建引领黎苗文化传承发展。南丰、兰洋等乡镇完成黎苗族村党群服务中心统一升级改造，建成马岭排苗族村党建示范点，落地喜禾主题公园“海岛印象黎苗展示馆”，推动油文美丽黎村和南丰社区党群服务中心建设。南丰镇油文村和油麻村、兰洋镇南罗村和番新村被评为“省级乡村振兴示范村”。', '“热科院+170大坝”共产党员教育基地。挂牌成立儋州市热科院、“170大坝”共产党员教育基地，升级改造“170大坝”共产党员教育基地基础设施，组建师资队伍，开发《传承热科院精神，担当新时代使命》《新时代松涛170精神》等4项专题课程，接受党员教育培训2.3万余人次。', '“儋洋党旗红”行动汇聚红色动能。深化拓展“儋洋党旗红”系列行动，不断丰富内涵载体，锻造高质量发展的党建引擎，推进党建引领和中心工作深入融合、同频共振。', '“星火计划”在行动。将发展党员指标向发展任务较重的环新英湾区域倾斜，发挥基层党组织的凝聚力、号召力、战斗力，助推环湾新城建设。两年来发展党员1544名，其中35岁以下1153人。', '“博士村长”在行动。探索博士团联村助村机制，充分发挥海南大学和中国热带农业科学院的人才资源优势，选聘53名博士结对帮扶11个行政村，带动村集体经济组织32个、农户510户，新增纯收益1050万元。', '“警民一家亲”在行动。推动155名派出所辖区民警兼任村（社区、居）党组织副书记，280名村（社区、居）干部兼任派出所联防主任，构建“乡镇党委+派出所党组织+村级党组织”的一体化模式，为建设“平安儋州”提供坚强保障。', '“安心物业”在行动。推动成立物业行业党组织8个，在那大镇城区建立“六方共治”“议事堂”等物业小区议事协调机制，形成党建引领多方参与城市基层社会治理新局面。', '儋州深入贯彻落实党建引领海南自贸港建设“1+2+7”系列文件，持续增强7个领域基层党组织的政治功能和组织功能，推动儋洋一体化各领域基层党组织全面进步、全面过硬。', '党建促进乡村振兴。深化村级党组织带头人队伍建设，举办“乡村振兴党旗红擂台赛”“儋洋党旗红·村（居）书记说”，举办驻村第一书记、村（社区）党组织书记乡村振兴示范班，实现村（社区）党组织书记培训全覆盖。评选年度“十佳”村党组织书记10名，调整撤换履职不力的村党组织书记3名。强化乡村振兴队伍选派管理，调整优化驻村干部和派出单位对应帮扶机制，调研选派驻村队员771名。持续整顿软弱涣散基层党组织，排查整顿全市各领域软弱涣散基层党组织60个。', '党建引领城市治理。构建“市级领导+镇包点领导+社区党组织书记+网格长+街巷楼长”的五级网格化管理体系，大力成立物业行业党组织，建立“六方共治”“议事堂”等物业小区议事协调机制，引导各类企业、社会组织、志愿者队伍参与网格管理和服务，不断提升党建引领网格管理服务水平。', '党建增效新兴领域。进一步完善两新组织工委运行机制，调整设置20个两新组织管理机构，推动两新工委规范化运行，调整配备20个综合行业党委128名班子成员，选派党建工作指导员深入综合行业党委开展“一对一”结对派驻，指导78个党组织完成换届。组织开展两新组织党的组织和工作覆盖“百日攻坚行动”，新成立党组织30个、群团组织24个，不断扩大两新组织党的组织和工作覆盖。', '党建压实机关责任。制定下发《儋州市直机关党建工作责任清单（试行）》等系列文件，细化实化责任清单，推动形成横向到边、纵向到底的责任闭环，压实机关党建工作责任。深化“星级化”党支部创建，评选出60个“五星级党支部”。举办“微党课”大赛，举办市直机关党建引领儋洋一体化高质量发展大赛，不断增强党员干部服务发展能力。37个基层党组织完成换届选举，32个市直单位设立机关纪委，基层堡垒进一步夯实。', '党建提质国企管理。扎实开展国企党建基础建设年专项行动。组织开展市属国企前置研究讨论重大经营管理事项清单运行情况开展“回头看”，开展争当生产经营能手、争当创新创业模范、争当提高效益标兵、争当服务群众先锋“四争”评比活动。', '党建推动医疗工作。持续抓好党委领导下的院长负责制落实。2家三甲医院实现书记和院长分设，推动6家2级及以上医院均将“党建工作要求”写入医院章程，成立党务工作机构，为党建工作提供经费保障。', '党建推进教育改革。稳妥推进中小学校党组织领导的校长负责制体制改革。出台实施方案和党组织会议、校长办公会议议事规则示范文本、学校章程等配套文件，实现全市公办中小学校党组织领导的校长负责制全覆盖。', '当前，儋州乘着海南自贸港建设和儋洋一体化的春风，港产城科同步高质量发展、同频共振，正成为最有活力、最有发展潜力的地区。儋州市各级党组织和广大党员将始终坚持以习近平新时代中国特色社会主义思想为指导，牢记习近平总书记的殷殷嘱托，聚焦“更加开放、更有深度”，凝心聚魂、团结奋斗、实干担当，奋力谱写加快建设具有世界影响力的中国特色自由贸易港儋州新篇章。(儋州市委组织部)']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>225</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>新农村风景美如画城镇化建设显特色市各级人大代表赴兄弟市县考察学习小记配图</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2013-04-17</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/tpxw/201306/t20130613_1726815.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['新农村风景美如画 城镇化建设显特色 ——市各级人大代表赴兄弟市县考察学习小记（配图） -- 图片新闻 -- 儋州市人民政府', '新农村风景美如画 城镇化建设显特色 ——市各级人大代表赴兄弟市县考察学习小记（配图）', '儋州新闻中心消息 4月12日至13日，市人大常委会副主任、那大镇委书记陈海洁率市各级人大代表赴定安、屯昌、琼海等市县，考察学习旅游产业发展、文明生态村建设、新型城镇化建设。 12日上午，阴雨绵绵，当汽车缓缓驶入定安县文笔峰盘古文化旅游区时记者看到，在无边烟雨的笼罩下，文笔峰道家文化苑都显得格外的迷人。玉蟾宫、蟾宫香道会、沉香馆、南建州、养生堂、老子学院等仿古建筑阁殿错落有致地分布于山体周围，在飘飘洒洒的春雨中组成了一幅无比瑰丽的风景画。正是有着深厚的历史文化沉淀，尽管是雨天，来这里参观游览的人仍然络绎不绝。 “定安县以深厚的历史文化底蕴为灵魂，依托得天独厚的自然环境和区位优势，倾力打造道家养生文化，进一步做大做强文化旅游产业。”代表云巢说，儋州也有类似的历史文化古迹，我们可以学习他们在旅游文化建设管理方面的先进经验，结合实际，扎实推进我市旅游产业规划建设。 13日上午，阳光正好。春风拂过博鳌镇朝烈村田边的瓜菜，带来令人心旷神怡的凉爽，沿着乡间小道步入，一排木制的房子跃入眼帘，这是该村极富特色的田园村庄和片区乡村带状公园，也是琼海市以“打造田园城市，构建幸福琼海”为中心目标建设的一个生态文化类旅游产品。 曲径通幽的小道，独具特色的砖瓦房，点缀在房前屋后的花卉，顽皮的孩童在树下吊网上来回荡着…… 当车子行至朝烈村，代表们都被窗外崭新的面貌所吸引，车一停，大家都迫不及待从车上下来。 “游客走累了可以到水塘咖啡小屋品尝纯正的咖啡，到农家乐美美地吃上地道的农家饭，还可以住进简约整洁的乡村旅馆，享受与城市不一样的田园生活。”代表杨路生说。琼海市博鳌镇依托优美的乡村自然景观和田园风光，打造乡村公园，不仅带动了农民就业，还促进了农民经济收入。回去后一定要带村民们来参观，借鉴成功经验，把我们侨南村也建成休闲观光村庄。 当代表们考察博鳌镇城镇化建设时，看到该镇街道建设极具特色，广告、门面十分古朴且具民族风情，独特的建筑风格吸引了代表们的眼球。“我们可以借鉴模仿，根据我市城区各街道的实际情况，带动个体户经济，打造一个有特色、有风情的美丽儋州。”代表王春兰如是说。（记者韦雪梅 李绍远 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>225</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>市城管执法局传达学习习近平总书记在海南考察时的重要讲话及刘赐贵书记重要讲话精神提升城管执法水平服务儋州发展大局</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2017-06-29</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201706/t20170629_1785755.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['市城管执法局传达学习习近平总书记在海南考察时的重要讲话及刘赐贵书记重要讲话精神 提升城管执法水平 服务儋州发展大局 -- 今日儋州 -- 儋州市人民政府', '市城管执法局传达学习习近平总书记在海南考察时的重要讲话及刘赐贵书记重要讲话精神 提升城管执法水平 服务儋州发展大局', '儋州新闻中心消息日前，市城管执法局召开党组理论中心组学习(扩大)会议，传达学习习近平总书记在海南考察时的重要讲话精神和省委书记刘赐贵在七届省委常委会第6次会议上的讲话精神。会议要求，全市城管执法工作干部要加强作风建设，不断提升执法水平，服务好儋州发展大局，促进“双新”战略的发展。 会议指出，习近平总书记的重要讲话，明确了海南改革开放的地位和作用。为新形势下海南深化改革开放、加快科学发展指明了方向，注入了强大动力，是指导海南经济社会发展的重要思想和行动纲领。省委书记刘赐贵在七届省委常委会第6次会议上的重要讲话，进一步深入贯彻落实了习近平总书记在全国组织工作会议上的重要讲话精神，对抓好当前和今后一个时期的组织工作提出了十点意见，明确了新一届省委抓班子、带队伍、选人用人的具体要求。 会议要求，全市城管执法干部要认真学习习近平总书记在海南考察时的重要讲话和刘赐贵书记在七届省委常委会第6次会议上的讲话精神，把握好、领悟透其精神实质，进一步抓好城管干部队伍的组织工作，为我市城管系统培养一批理想信念坚定、敢于担当、踏实苦干、清正廉洁队伍奠定良好基础。 会议强调，全市城管系统的各组成单位要高度重视“两学一做”学习教育，充分发挥各党组成员带头作用，立标杆、做表率，使“两学一做”的学习在整个城管系统内蔚然成风。同时将学习的内容融入到实际当中，全面推进依法执法、科学执法、文明执法的进程，提升儋州城管的执法形象，开创儋州城市管理事业发展新局面。 当天，会议还通报了近期省、市纪委关于违反八项规定的案例，并学习《海南省各级党委、政府及有关部门生态环境保护工作职责》和《中国共产党党组工作条例（试行）》。（记者王家隆 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>225</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>儋州市举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班杨晓和作专题辅导配图</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2022-05-20</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202205/t20220520_3198408.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['儋州市举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班 杨晓和作专题辅导(配图） -- 今日儋州 -- 儋州市人民政府', '儋州市举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班 杨晓和作专题辅导(配图）', '5月20日，儋州市举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神教育专题讲座。图为省委常委，儋州市委书记，洋浦经济开发区工委书记杨晓和作开班动员并专题辅导。', '日，儋州市举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神教育专题讲座。图为省委常委，儋州市委书记，洋浦经济开发区工委书记杨晓和作开班动员并专题辅导。', '儋州市融媒体中心消息 5月20日，儋州市举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班，省委常委，儋州市委书记，洋浦经济开发区工委书记杨晓和作开班动员并专题辅导，强调要拿出闯的干劲，拼的韧劲，激发干事创业斗志，推动儋洋一体化高质量高水平发展。', '5月20日，儋州市举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班，省委常委，儋州市委书记，洋浦经济开发区工委书记杨晓和作开班动员并专题辅导，强调要拿出闯的干劲，拼的韧劲，激发干事创业斗志，推动儋洋一体化高质量高水平发展。', '杨晓和结合学习贯彻习近平总书记考察海南系列重要讲话精神和省第八次党代会精神，对如何理解“儋州因洋浦而更加开放，洋浦因儋州而更有深度”、如何把握沈晓明书记提出的八对辩证关系，以及如何做好“六篇文章”实现“三新”目标等话题进行深入解读。', '杨晓和指出，要深刻理解儋州洋浦一体化引发的重大变革，把握住为儋州带来的政策、区位和产业优势等新动力，以及为洋浦带来的区域纵深、产业延伸、功能拓展等新空间。要加强区域协调发展，全面提升儋州的城市承载力、辐射力和洋浦的产业吸纳能力，着力解决洋浦“有产无城”、儋州“有城无产”等问题。', '杨晓和要求，要按照省委“稳、进、谋、新、变”的工作要求，把握好八对辩证关系，提高认识、转变作风，敢“破”善“立”，谋定后动，践行“一本三基四梁八柱”战略框架，围绕建设', '四个定位，引进一批服务自贸港建设和儋洋一体化发展的产业和项目，科学谋划加快乡村振兴、建设环新英湾新城、完善基础设施、改善营商环境、巩固民生保障等工作，蹄疾步稳推动经济社会发展。', '杨晓和强调，谋事在人，成事在争。全市党员干部要树立使命意识，进一步开放观念、思路和视野，把学习成果转化为干事创业的实际行动，锚定发展目标和定位，敢于直面困难和问题，勇于克服和解决，凝聚共识、形成合力，形成你追我赶、拼搏奋进的“比学赶超”生动局面，为儋州洋浦一体化高质量高水平发展共同奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>225</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>学习贯彻省第八次党代会精神我们这样做营商环境持续优化企业看好投资前景儋洋一体显活力考察投资掀热潮</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202206/t20220623_3216407.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['[学习贯彻省第八次党代会精神，我们这样做] 营商环境持续优化 企业看好投资前景 儋洋一体显活力 考察投资掀热潮 -- 今日儋州 -- 儋州市人民政府', '[学习贯彻省第八次党代会精神，我们这样做] 营商环境持续优化 企业看好投资前景 儋洋一体显活力 考察投资掀热潮', '儋州市融媒体中心消息 6月21日，烈日炎炎，走进儋州洋浦，感受“千帆竞发、百舸争流”的奋进态势：', '海南澳斯卡国际粮油加工厂生产车间内，工人正在不同工位上操作机器忙碌生产；东方雨虹洋浦新材料产业项目防水涂料车间内，自动化生产线正生产出一罐罐绿色防水涂料；洋浦陆侨国际海产品产业园有限公司大厦一楼，特色海产品包装精美、琳琅满目；海南炼化100万吨乙烯项目、洋浦科创园、大型沼气项目等在建项目建设现场，工人们顶着烈日安装设备、修建园区道路……', '如今的洋浦经济开发区，厂房鳞次栉比，塔罐错落有致；公路网四通八达，车辆往来穿梭……一批批重量级优质项目的签约、落户和动工建设，为儋洋一体化发展按下了快进键，这是企业对儋州营商环境、综合实力、发展前景的看好和信心。', '企业有求是否必应，是否安心干事兴业，是检验当地党委政府服务和亲清政商关系的重要标准。', '“我们公司原料主要靠进口，但大型集装箱船在洋浦港码头停靠较为困难。”近日，海南金发科技有限公司常务副总经理彭峻见到上门走访的企业服务专员，便直奔“主题”，当面提出企业诉求。', '据了解，6月2日，我市建立实行重点企业（项目）服务专员制度，对重点企业实行“一对一”服务，采取“听、送、带、解”方式（即听取企业意见建议、送去惠企政策措施、带回企业诉求、协调解决问题困难），及时了解企业经营和项目建设情况，精准掌握企业的诉求，第一时间作出回应，积极帮助企业享受政策红利，全面协调解决企业的问题和困难，加大联系服务企业的力度，当好服务企业的“店小二”，进一步优化营商环境和提升企业满意度。', '“政府部门上门服务，我们的诉求当面提，由政府当面回应。平时遇到任何难题，也能直接联系服务专员帮助解决，让我们对加快发展充满信心。”彭峻说，这让企业深切感受到良好营商环境带来的更多获得感。', '为进一步优化营商环境，我市还通过建立问题解决机制，根据企业提出的问题诉求，按照职责分工分派给各责任单位的具体责任人，明确办结时限，并全程跟踪帮助解决，及时向企业反馈。以企业满意度为准绳，已解决的事项经企业确认后，实行销号管理。原则上，咨询类的事项当日清零，一般性投诉类的一周内清零。', '近日，在洋浦经济开发区中德产业园，一台使用清洁能源的小型巴士在园区内进行自动驾驶测试，银橙相间的外观高端大气，引人瞩目。这是今年3月底落地洋浦的首个人工智能自动驾驶车辆项目，填补了海南在无人驾驶车辆智能化改装领域的空白。', '“儋洋一体化给企业带来了新的发展机遇，相信未来我们生产的各种无人驾驶车，会出现在海南大街小巷。”沪能驭势（海南）智慧服务有限公司总经理毕春英说。', '无独有偶。海南澳斯卡国际粮油加工项目去年7月正式投产，在洋浦各职能部门的服务下，投产当月便成为首家享受加工增值30%免关税政策的企业，从去年7月到12月底，海南澳斯卡国际粮油有限公司进口大豆和菜籽共22.1万吨，进口货值约1.13亿美元。同期大豆和菜籽加工产量达19.6万吨，产值10.86亿元。', '“一个月之内给我们换了三块地，水、电、管网等等，问题一提出，马上有人赶到现场协调解决。项目从开工到投产仅用6个半月，建厂速度创世界同行业之最。如果没有政府各个部门的大力支持，我们项目不可能建设这么快，也不可能产生这么好的效益。”海南澳斯卡国际粮油有限公司董事长张慧说。', '据了解，今年第二季度我市投资项目共380个，第二季度计划投资121亿元，累计完成投资76.8亿元。', '6月16日，我市举行“6·16”集中签约活动，签约内容涉及基础设施建设、清洁能源、花卉产业、现代物流等多个领域……', '实地考察、座谈交流、签约落地……随着营商环境持续优化，儋洋一体化发展活力得到了充分释放，儋耳大地，正掀起新一轮的考察投资热潮。', '6月16日，北京华夏鼎辉集团董事长张朝辉一行到我市，就文旅康养、科技农业和乡村振兴等方面开展合作交流，共谋发展。经过实地考察，北京华夏鼎辉集团看中我市深厚的文化底蕴、禀赋的生态资源、宜人的气候，以及自贸港“先行先试”的政策。', '“十分看好儋洋一体化的发展前景，对在儋州投资发展充满信心。”该集团董事长张朝辉表示，将充分发挥自身优势，以文旅康养为突破口，以乡村振兴发展为方向，拓宽发展思路、找寻发展路径方向，带动产业链合作伙伴和上下游企业落户儋州洋浦，集聚人才，助力儋州洋浦一体化高质量发展。', '同一天，我市举行“6·16”集中签约活动，集中签订4份战略合作框架协议，涉及基础设施建设、清洁能源、花卉产业、现代物流等多个领域。', '如今，儋州正站在儋洋一体化发展的历史机遇，在高水平开放压力测试、现代产业体系构建、区域协调发展方面持续用力，久久为功，努力让儋州因洋浦而更加开放，洋浦因儋州而更有深度。（儋州融媒全媒体记者韦雪梅 韦斌 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>225</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>谢雄峰主持召开十一届市政协党组第次扩大会议传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220419_3177270.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['谢雄峰主持召开十一届市政协党组第9次（扩大）会议：传达学习习近平总书记考察海南时的重要讲话精神 -- 今日儋州 -- 儋州市人民政府', '谢雄峰主持召开十一届市政协党组第9次（扩大）会议：传达学习习近平总书记考察海南时的重要讲话精神', '儋州市融媒体中心消息 4月18日，市政协党组书记、主席谢雄峰主持召开十一届市政协党组第9次（扩大）会议，传达学习习近平总书记在海南考察时的重要讲话精神和《关于贯彻落实习近平总书记视察海南重要讲话精神、推动海南政协工作上新台阶的通知》。', '会议要求，市政协党员领导干部和广大政协委员要把深入学习贯彻习近平总书记重要讲话精神作为当前和今后一个时期的首要政治任务，深刻理解精髓要义，积极拓展学习贯彻的广度和深度，在融会贯通上下功夫，做到真学真用，真学真悟，最大限度地凝聚共识、凝聚人心、凝聚智慧，以实际行动为儋州洋浦一体化发展创新业、立新功。', '会议强调，要按照今年协商制定的工作计划，全面对标对表，及时跟进落实，进一步提高建言资政水平。要进一步加大监督力度，改进作风、树立形象、提升效能、为民服务，督促各项工作扎实有效开展。要加强自身能力建设，结合能力建设提升年活动，着力提高政治把握能力、调查研究能力、联系群众能力、合作共事能力，全面增强履职本领。', '会上还传达学习省委书记沈晓明在儋州市（洋浦经济开发区）领导干部大会上的讲话精神等，审议《关于调整市政协领导班子成员分工的方案》。', '市政协党组成员、副主席吴勇、黎秀全、黎桂雄，市政协党组成员、秘书长金德辉出席会议。市政协副主席包焱、黄东勉、李进列席会议。（儋州融媒全媒体记者林晓云 编辑李常）']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>225</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>张耕主持市委中心组第九次学习会学习习近平总书记在海南考察重要讲话精神及省委书记刘赐贵有关讲话精神王克强朱洪武谢雄峰周廉芬分别传达相关讲话精神并作学习体会发言</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/ldhd/201706/t20170607_1732085.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['张耕主持市委中心组第九次学习会学习习近平总书记在海南考察重要讲话精神及省委书记刘赐贵有关讲话精神 王克强朱洪武谢雄峰周廉芬分别传达相关讲话精神并作学习体会发言 -- 领导活动 -- 儋州市人民政府', '张耕主持市委中心组第九次学习会学习习近平总书记在海南考察重要讲话精神及省委书记刘赐贵有关讲话精神 王克强朱洪武谢雄峰周廉芬分别传达相关讲话精神并作学习体会发言', '据《今日儋州》消息 6月6日，市委书记张耕主持召开市委中心组第九次学习会，学习习近平总书记2013年在海南考察时的重要讲话精神以及省委书记刘赐贵在省级各部门调研时的讲话精神。他强调，全市领导干部要以加快建设海南国际旅游岛为总抓手，进一步增强责任感和紧迫感，抓紧抓好抓实各项工作，确保完成全年各项目标任务，扛起建设美好新海南“儋州担当”。 市领导王克强、朱洪武、谢雄峰、周廉芬、钟捷兴、唐龙海、纪少雄、易向阳、温龙、吴勇、王大辉、王安仍、陈清奎、张华、符巨友、吴波、肖发宣、陈旭、王月花、王凌融、谢群峰等出席会议。 会议指出，习近平总书记视察海南重要讲话精神是指导海南经济社会发展的重要思想和行动纲领，我们要深入学习领会、全面准确把握、不折不扣地贯彻落实习近平总书记视察海南重要讲话精神，并将其与学习省委书记刘赐贵在省级部门调研时的相关讲话精神结合起来，切实把讲话精神贯彻落实到深入实施“双新”发展战略，加快把儋州建成海南西部中心城市的生动实践中来，为建设美好新海南作出新贡献。 张耕要求，全市各级各部门要以加快建设海南国际旅游岛为总抓手，敢于创新、敢于拼搏，大力实施“双新”发展战略。要以推进产业结构优化为主线，抓紧研究打造热带高效农业发展高地的方向、规划，加快把儋州打造成为海南热带高效农业高地。要以全面深化改革为突破口，聚焦重点领域和薄弱环节，集中发力，激发儋州发展内生动力。要以打好脱贫攻坚战为重点，抓紧产业重点、抓实“三保障”、抓牢机制建设、抓好组织领导，着力保障和改善民生。要以“六大专项整治”为重点，加强生态环境保护以及生态治理和开发建设。要以转变作风为抓手，坚决整治作风方面存在的突出问题，加大监督检查力度，坚持求真务实的工作作风，加强干部教育培训，推进干部队伍建设。 张耕强调，各级各部门特别是市级领导干部要结合深入推进“两学一做”学习教育常态化制度化，坚持带头学习、以上率下，立标杆、做示范，并做到学以致用，把学习成果转为工作实效，转化为推动儋州发展的动力。要高度重视，主动配合省委巡视组做好巡视工作，坚持从我做起，主动接受监督、自觉接受检查、认真抓好整改，督促好分管部门，全力配合巡视组工作，确保巡视工作顺利开展。要按照年初安排部署，抓紧推进各项工作，当前要重点抓好经济发展、脱贫攻坚、深化改革等工作，通过扩投资、上项目拉动经济增长，要紧紧结合脱贫攻坚工作，加快产业发展，促进农民增收。 市人大常委会主任王克强，市委副书记、市长朱洪武，市政协主席谢雄峰，市委副书记、政法委书记周廉芬，市委常委、纪委书记钟捷兴，市委常委、统战部长唐龙海，市委常委、组织部长纪少雄，市委常委、公安局长易向阳，市委常委、宣传部长温龙分别传达了省委书记刘赐贵有关讲话精神，并结合各自分管工作作了学习体会发言。 市委办、市政府办、市委宣传部等部门负责人参加会议。（记者李秋欢 编辑范志平）']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>225</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会暨十三届儋州市委洋浦工委理论学习中心组第次扩大学习会召开马飞谢雄峰何先英出席宋少华作专题报告配组图</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2022-05-25</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202205/t20220525_3200760.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会暨十三届儋州市委（洋浦工委）理论学习中心组第5次（扩大）学习会召开 马飞谢雄峰何先英出席 宋少华作专题报告（配组图） -- 今日儋州 -- 儋州市人民政府', '学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会暨十三届儋州市委（洋浦工委）理论学习中心组第5次（扩大）学习会召开 马飞谢雄峰何先英出席 宋少华作专题报告（配组图）', '5月25日，学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会暨十三届儋州市委（洋浦工委）理论学习中心组', '日，学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会暨十三届儋州市委（洋浦工委）理论学习中心组', '5月25日，学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会暨十三届儋州市委（洋浦工委）理论学习中心组第5次（扩大）学习会召开。', '日，学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会暨十三届儋州市委（洋浦工委）理论学习中心组第', '省委宣讲团成员、省委宣传部副部长、省委网信办主任宋少华以《统一思想提高认识全力打造海南高质量', '题，从“深刻认识省第八次党代会的重要意义”“准确把握党代会报告的主要精神”“始终坚持正确政治方向，科学把握海南自贸港建设节奏”“奋力打造海南高质量发展‘第三极’”四个方面，对省第八次党代会报告进行了系统梳理和深入阐释。整场报告解读透彻、深入浅出，既着眼未来、又联系实际，既有理论层面的引领、又有实践层面的指导，对全市深入学习贯彻省第八次党代会精神，加快推进儋州洋浦一体化发展、奋力打造海南高质量发展“第三极”具有重要指导意义。', '委、宣传部部长，洋浦工委委员陶涛主持会议时要求,全市各级党组织和党员干部要把学习贯彻省第八次党代会精神作为当前和今后一个时期的重大政治任务，全面领悟和准确把握省第八次党代会的精神实质', '全市各级党组织和党员干部要把学习贯彻省第八次党代会精神作为当前和今后一个时期的重大政治任务，全面领悟和准确把握省第八次党代会的精神实质', '，同全面系统学习习近平新时代中国特色社会主义思想融会贯通起来，同聚焦学习贯彻习近平总书记考察海南时的重要讲话精神紧密结合起来，同学习省委书记沈晓明在市县区党政正职、省直单位主要负责同志学习贯彻党的十九届六中全会和省委七届十一次全会精神专题研讨班开班式上的讲话以及沈晓明书记到', '儋州调研的系列讲话精神等结合起来，切实把思想和行动统一到中央和省委的重大决策部署上来，为打造具有世界影响力的中国特色自由贸易港作出儋州洋浦新贡献。', '陶涛强调，全市各部门各单位主要负责同志要主动先学一步、学深一层，引导广大党员干部通过理论学习中心组、三会一课、主题党日、座谈会等多种形式深入学习研讨党代会精神，务求原原本本、学深悟透。要进一步推动成果转化，切实将学习贯', '彻省第八次党代会精神转化为高质量推动儋州洋浦一体化发展的实际成效，以超常规举措、超常规作风推动儋洋经济圈发展，让儋州因洋浦而更加开放，洋浦因儋州而更有深度。', '各镇（办事处）党政主要领导；市直机关、市各人民团体和直属企事业单位副处级以上领导干部；全市各中小学学校（含民办）校长，各公立幼儿园园长约500人参加专题报告会。（儋州融媒全媒体记者王敏权 编辑李常）', '各镇（办事处）党政主要领导；市直机关、市各人民团体和直属企事业单位副处级以上领导干部；全市各中小学学校（含民办）校长，各公立幼儿园园长约']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>225</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>十三届市委常委会洋浦工委第次扩大会议传达学习习近平总书记考察海南时的重要讲话精神杨晓和主持配图</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220415_3175668.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['十三届市委常委会（洋浦工委）第21次（扩大）会议：传达学习习近平总书记考察海南时的重要讲话精神 杨晓和主持（配图） -- 今日儋州 -- 儋州市人民政府', '十三届市委常委会（洋浦工委）第21次（扩大）会议：传达学习习近平总书记考察海南时的重要讲话精神 杨晓和主持（配图）', '4月15日，省委常委、儋州市委书记、洋浦经济开发区工委书记杨晓和主持召开十三届市委常委会（洋浦工委）第21次（扩大）会议，传达学习习近平总书记考察海南时的重要讲话精神。图为会议现场。', '省委常委、儋州市委书记、洋浦经济开发区工委书记杨晓和在会上讲话。儋州融媒全媒体记者 黎有科 摄', '儋州市融媒体中心消息 4月15日，省委常委、儋州市委书记、洋浦经济开发区工委书记杨晓和主持召开十三届市委常委会（洋浦工委）第21次（扩大）会议，传达学习习近平总书记考察海南时的重要讲话精神，研究部署我市贯彻落实意见，强调要充分认识习近平总书记考察海南的重大意义，深入学习宣传贯彻重要讲话精神，加快推进儋州洋浦一体化发展，努力实现“儋州因洋浦更加开放、洋浦因儋州更有深度”，不负总书记的期望。 杨晓和指出，习近平总书记在海南考察时的重要讲话，内涵丰富、博大精深，是加快建设具有世界影响力的中国特色自由贸易港、成为新时代中国改革开放示范的根本遵循和行动指南。省委就全省如何学习贯彻落实总书记重要讲话精神做了全面部署，为全省上下抓好落实指明了努力方向、提供了重要抓手。全市上下要紧密结合工作实际，不折不扣抓好落实，以实实在在的工作成效助力海南自贸港建设。 杨晓和强调，全市上下要把学习宣传贯彻习近平总书记在海南考察重要讲话精神作为当前和今后一段时间的重大政治任务，迅速掀起学习宣传贯彻重要讲话精神热潮。要制定方案、周密部署，精心组织，引领广大党员干部全面系统学、深入思考学、联系实际学，确保学深学透。要及时组织宣讲团队开展宣讲，多角度、多层次、全方位推出一系列内容丰富、生动鲜活的报告，确保宣传学习到位有效。要通过学习进一步提高思想认识，深刻领悟好习近平总书记在海南考察重要讲话的极端重要性，坚定不移沿着习近平总书记指引的方向奋勇前进，努力开创儋州洋浦一体化高质量发展新局面。 杨晓和要求，要以高质量党建推进儋州洋浦一体化发展，用好琼崖纵队总部旧址、泊潮村农会旧址等红色资源，引导广大党员干部坚定理想信念，传承红色基因，赓续红色血脉。要用好“中国洋浦港”船籍港、内外贸同船保税油加注等自贸港政策优势，大胆闯、大胆试、自主改，推动更多先行先试自贸港政策复制推广，为全岛封关运作做好压力测试和积累经验。要坚持贯彻新发展理念，全力推动环新英湾区域港产城融合，构建现代化产业体系，培育形成石化新材料、港航物流、商贸服务三个千亿级产业集群，促进儋州洋浦城市功能互补，打造海南高质量发展新增长极。 市委常委、洋浦工委委员出席，部分儋州洋浦领导班子成员列席会议。（儋州融媒全媒体记者韦雪梅 编辑李常）']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>225</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>深入学习贯彻省第八次党代会精神干冲办事处举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题讲座</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2022-05-26</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202205/t20220526_3201382.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['[深入学习贯彻省第八次党代会精神] 干冲办事处举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题讲座 -- 今日儋州 -- 儋州市人民政府', '[深入学习贯彻省第八次党代会精神] 干冲办事处举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题讲座', '儋州市融媒体中心消息 5月25日，干冲办事处举办学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题讲座，邀请海南师范大学马克思主义学院教授、博士生导师郭根山现场授课。', '郭根山以《牢记总书记殷切嘱托，落实八次党代会精神，建设具有世界影响力的中国特色自贸港》为题，全面回顾了习近平总书记关于海南工作重要讲话和重要指示批示精神，解读了省第八次党代会对海南未来五年发展的总体要求和“一本三基四梁八柱”战略框架的丰富内涵，对党代会报告中提出的“三极一带一区”“四大主导产业”“八个自由贸易港”等重要概念进行了阐释。', '聆听讲座后，学员们表示，通过学习对习近平总书记考察海南重要讲话和省第八次党代会精神有了更深刻的理解，将牢记习近平总书记嘱托，围绕省第八次党代会的决策部署，立足职能职责，努力为儋州洋浦一体化发展贡献力量。（儋州融媒全媒体记者黎有科 洋浦台记者符润彩 邓白荣 编辑朱建花）']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>225</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>开展党的群众路线教育实践活动唐龙海率队到文昌考察调研时提出开拓思维创新学习勤于思考结合市重点项目多想点子多出实招</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2014-03-20</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/201403/t20140320_1773926.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['[开展党的群众路线教育实践活动]唐龙海率队到文昌考察调研时提出 开拓思维 创新学习 勤于思考 结合市重点项目多想点子多出实招 -- 今日儋州 -- 儋州市人民政府', '[开展党的群众路线教育实践活动]唐龙海率队到文昌考察调研时提出 开拓思维 创新学习 勤于思考 结合市重点项目多想点子多出实招', '据《今日儋州》消息 3月13日，市委常委、统战部长唐龙海率市委统战部、市民宗局、市八个民主党派无党派人士联谊会主要负责人一行到文昌市开展党的群众路线教育实践活动。 这是为了扎实开展党的群众路线教育实践活动，市委统战部民宗局采取规定动作和自选动作相结合方式开展的活动之一。活动以考察调研方式进行。调研内容为到文昌市八门湾绿道、海南文昌航天卫星发射基地进行实地考察。此外，还到海口市走访民主党派省委会机关。 通过考察调研，调研组成员了解到八门湾绿道是在海南建设国际旅游岛和文昌市建设海南文昌航天卫星发射基地的宏观背景之下，文昌市委、市政府依托自身特有的“海、河、港、湾、林”自然资源及以“侨乡风情”为主体的人文旅游资源特色，努力打造海南旅游网络体系中重要旅游城市的重要举措之一。建设海南文昌航天卫星发射基地是国家为了适应中国航天事业可持续发展战略，满足新一代无毒、无污染运载火箭和新型航天器发射的需要。新航天发射场建成后，将主要承担地球同步轨道卫星、大质量极轨道卫星、大吨位空间站和深空探测卫星等航天器的发射任务。新型航天发射场及与之配套的文昌航天城占地20平方公里，包括航天发射场、太空主题公园、火箭组装厂以及指挥中心等一系列项目。 在调研中，唐龙海要求，开展党的群众路线教育实践活动要开拓思维、创新学习，紧密结合单位和个人的工作实际，认真学、自觉改，不搞形式主义，每位党员干部和各民主党派、无党派人士联谊会主要负责人要在工作中勤于思考，结合市重点项目多想点子、多出实招，加快推进重点项目建设发展，尽力发挥民主党派的资源优势，为促进我市经济社会发展献计出力，为儋州实现跨越发展做出积极贡献。（记者黎有科 通讯员符泰雄 编辑王霞）']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>225</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>市委宣传部组织媒体工作者到洋浦考察学习持续提升四力努力写好儋州因洋浦更加开放洋浦因儋州更有深度文章配组图</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202204/t20220418_3176715.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['市委宣传部组织媒体工作者到洋浦考察学习：持续提升“四力” 努力写好“儋州因洋浦更加开放、洋浦因儋州更有深度”文章（配组图） -- 今日儋州 -- 儋州市人民政府', '市委宣传部组织媒体工作者到洋浦考察学习：持续提升“四力” 努力写好“儋州因洋浦更加开放、洋浦因儋州更有深度”文章（配组图）', '儋州市融媒体中心消息 4月17日上午，为认真学习领会习近平总书记在海南考察时的重要讲话精神，结合我市能力提升建设年活动，4月17日上午，市委宣传部组织儋州广播电视台和市融媒体中心一线采编记者组成学习考察团来到洋浦经济开发区，开展以努力写好“儋州因洋浦更加开放、洋浦因儋州更有深度”文章为主题的考察学习。', '在洋浦展示馆，新闻媒体工作者了解洋浦发展历程、自贸港政策、产业规划等情况及环新英湾港产城融合规划状况。', '当天，学习考察团参观了洋浦展示馆，认真听取讲解员介绍洋浦的发展历程、自贸港政策、产业规划、环新英湾港产城融合规划等情况，不时与讲解员进行交流。', '陶涛在考察时指出，4月12日上午习近平总书记来到洋浦考察并发表重要讲话，习近平总书记的重要讲话鼓舞人心、催人奋进，为儋州洋浦攻坚克难，实现更大发展注入了强大信心和动力。市委书记杨晓和就如何贯彻落实好习近平总书记重要讲话精神做了进一步指示。希望全市媒体工作者认真领会习近平总书记的重要讲话精神，确保宣传学习到位有效，不断提升“脚力、眼力、脑力、笔力”水平、不断提高业务技能和综合素养，坚定不移地沿着习近平总书记指引的方向奋勇前进，认真做到贴近党委和政府决策部署、贴近人民群众和民生实事、贴近经济发展一线前沿，讲好儋州洋浦一体化发展生动故事，写好“儋州因洋浦更加开放、洋浦因儋州更有深度”文章。', '当天，学习考察团还到澳斯卡国际粮油有限公司、陆侨集团及玉玲珑等企业，通过现场交流、研究探讨等方式，详细了解企业的生产经营、海南自贸港政策落地执行、营商环境、企业规划布局等情况。', '“我们跟随习近平总书记考察的足迹，真正感受到了洋浦日新月异的发展变化以及儋州洋浦一体化发展的美好前景，对儋州洋浦一体化发展有了更加直观深入地了解。作为媒体工作者，通过此次考察学习，为今后写好‘儋州因洋浦更加开放、洋浦因儋州更有深度’文章打下了坚实基础。”市新闻中心记者王家隆表示。（儋州融媒全媒体记者羊文彪 编辑朱建花）', '在数字展厅，新闻媒体工作者参观一楼陆侨国际海产品超市。儋州融媒全媒体记者 羊文彪 摄']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>225</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>儋州市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>儋州市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>儋州市领导干部学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会召开王和平作专题报告配组图</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2022-06-10</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://www.danzhou.gov.cn/danzhou/ywdt/jrdz/202206/t20220610_3209956.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['儋州市领导干部学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会召开 王和平作专题报告（配组图） -- 今日儋州 -- 儋州市人民政府', '儋州市领导干部学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会召开 王和平作专题报告（配组图）', '6月10日，儋州市领导干部学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会召开。图为报告会现场。', '儋州市融媒体中心消息 6月10日，2022年儋州市领导干部学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神专题宣讲报告会召开。 省委党校常务副校长王和平作专题报告，市委常委、宣传部部长，洋浦工委委员陶涛主持。', '宣讲报告会上，王和平以《全面贯彻“一本三基四梁八柱”战略框架 加快建设具有世界影响力的中国特色自贸港》为题，全面阐释了习近平总书记考察海南重要讲话精神，并深入解析“一本三基四梁八柱”战略框架重要内涵。报告主题鲜明、解读透彻、深入浅出，具有很强的政治性、理论性和实践性，对全市进一步贯彻落实好省第八次党代会精神具有重要指导意义。', '陶涛强调，全市各级党组织和广大党员干部，要紧密联系实际，把学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神与当前正在开展的“能力提升建设年”“思想大解放、作风大转变、能力大提升、全民大招商、儋州大发展”“四学四做”等活动结合起来，做到融汇贯通学、联系实际学、全面系统学。要加快推进学习成果转化，以“激情干事业、挑战不可能”的工作精神，全面贯彻落实好“一本三基四梁八柱”战略框架和今后五年的八项重点任务，以实际行动推动省第八次党代会报告各项决策部署在儋州落细落实，把学习成果切实转化为推动儋州洋浦一体化发展的实际成效。 各镇党政主要领导、各办事处班子成员；市直机关、市各人民团体和直属企事业单位副处级以上领导干部约400人参加专题报告会。（儋州融媒全媒体记者王敏权 编辑李常）']</t>
         </is>
